--- a/requirements/MOSIP_Roles and Responsibility_Matrix_16Jan19.xlsx
+++ b/requirements/MOSIP_Roles and Responsibility_Matrix_16Jan19.xlsx
@@ -5,17 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EDCC3045-5DB4-4376-9E6B-D53336E1722B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A60DA7D7-6ACA-4CFA-B7FE-05498769A0C7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MOSIP - Roles and Privileges" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152510"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="208">
   <si>
     <t xml:space="preserve">MOSIP Products
 </t>
@@ -865,12 +865,53 @@
   <si>
     <t>Perform network authentication of source of data  (VPN/SSL checks)</t>
   </si>
+  <si>
+    <t>Resident 
+Services</t>
+  </si>
+  <si>
+    <t>Track status of UIN Generation by providing Registration ID</t>
+  </si>
+  <si>
+    <t>Generate Virtual ID</t>
+  </si>
+  <si>
+    <t>Download UIN</t>
+  </si>
+  <si>
+    <t>Retrieve Lost UIN</t>
+  </si>
+  <si>
+    <t>Initiate UIN Update</t>
+  </si>
+  <si>
+    <t>Track Status of UIN Update</t>
+  </si>
+  <si>
+    <t>Generate Static PIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Static PIN </t>
+  </si>
+  <si>
+    <t>Lock/Unlock UIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Audit Trails for Prescribed Days/number of requests
+</t>
+  </si>
+  <si>
+    <t>Lock/Unlock KYC Docs/Data Sharing</t>
+  </si>
+  <si>
+    <t>Lock/Unlock Biometric Auth/Other Auth</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,6 +1105,18 @@
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Bookman Old Style"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1614,11 +1667,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="223">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1833,9 +1887,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1926,167 +1977,260 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2109,136 +2253,98 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{D009EFFC-6641-41E0-BDF0-A5704EEF7ED0}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2527,7 +2633,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="210" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="13" customWidth="1"/>
     <col min="3" max="3" width="78.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="9" customWidth="1"/>
@@ -2536,7 +2642,7 @@
     <col min="7" max="13" width="15.85546875" style="9" customWidth="1"/>
     <col min="14" max="14" width="18.85546875" style="9" customWidth="1"/>
     <col min="15" max="16" width="15.85546875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" style="108" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" style="106" customWidth="1"/>
     <col min="18" max="19" width="15.85546875" style="9" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="9"/>
     <col min="21" max="21" width="16.5703125" style="9" customWidth="1"/>
@@ -2547,40 +2653,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:309" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="180" t="s">
+      <c r="A1" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="176" t="s">
+      <c r="B1" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="178" t="s">
+      <c r="C1" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="176" t="s">
+      <c r="D1" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="176" t="s">
+      <c r="E1" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="177" t="s">
+      <c r="F1" s="174" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="183" t="s">
+      <c r="G1" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="170" t="s">
+      <c r="H1" s="180"/>
+      <c r="I1" s="180"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="180"/>
+      <c r="L1" s="180"/>
+      <c r="M1" s="180"/>
+      <c r="N1" s="180"/>
+      <c r="O1" s="180"/>
+      <c r="P1" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
+      <c r="Q1" s="172"/>
+      <c r="R1" s="172"/>
       <c r="S1" s="24"/>
       <c r="T1" s="15"/>
       <c r="U1" s="15"/>
@@ -2655,12 +2761,12 @@
       <c r="CL1" s="21"/>
     </row>
     <row r="2" spans="1:309" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="181"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
+      <c r="A2" s="178"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
       <c r="G2" s="45" t="s">
         <v>8</v>
       </c>
@@ -2771,15 +2877,15 @@
       <c r="CL2" s="21"/>
     </row>
     <row r="3" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="152" t="s">
+      <c r="A3" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="187" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="94"/>
+      <c r="C3" s="93"/>
       <c r="D3" s="28"/>
-      <c r="E3" s="92"/>
+      <c r="E3" s="91"/>
       <c r="F3" s="60"/>
       <c r="G3" s="36" t="s">
         <v>19</v>
@@ -2802,15 +2908,15 @@
       <c r="M3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="113"/>
+      <c r="N3" s="111"/>
       <c r="O3" s="36" t="s">
         <v>19</v>
       </c>
       <c r="P3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="114" t="s">
+      <c r="Q3" s="155"/>
+      <c r="R3" s="112" t="s">
         <v>19</v>
       </c>
       <c r="S3" s="44"/>
@@ -2887,11 +2993,11 @@
       <c r="CL3" s="20"/>
     </row>
     <row r="4" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="152"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="95"/>
+      <c r="A4" s="196"/>
+      <c r="B4" s="188"/>
+      <c r="C4" s="94"/>
       <c r="D4" s="12"/>
-      <c r="E4" s="93"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="61"/>
       <c r="G4" s="5" t="s">
         <v>19</v>
@@ -2921,8 +3027,8 @@
       <c r="P4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="191"/>
-      <c r="R4" s="115" t="s">
+      <c r="Q4" s="156"/>
+      <c r="R4" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S4" s="44"/>
@@ -2999,13 +3105,13 @@
       <c r="CL4" s="20"/>
     </row>
     <row r="5" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="152"/>
-      <c r="B5" s="90" t="s">
+      <c r="A5" s="196"/>
+      <c r="B5" s="89" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="95"/>
+      <c r="C5" s="94"/>
       <c r="D5" s="12"/>
-      <c r="E5" s="93"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="61"/>
       <c r="G5" s="5" t="s">
         <v>19</v>
@@ -3035,8 +3141,8 @@
       <c r="P5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q5" s="191"/>
-      <c r="R5" s="115" t="s">
+      <c r="Q5" s="156"/>
+      <c r="R5" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S5" s="44"/>
@@ -3113,13 +3219,13 @@
       <c r="CL5" s="20"/>
     </row>
     <row r="6" spans="1:309" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="152"/>
-      <c r="B6" s="90" t="s">
+      <c r="A6" s="196"/>
+      <c r="B6" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="96"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="12"/>
-      <c r="E6" s="93"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="61"/>
       <c r="G6" s="5" t="s">
         <v>19</v>
@@ -3149,8 +3255,8 @@
       <c r="P6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="191"/>
-      <c r="R6" s="115" t="s">
+      <c r="Q6" s="156"/>
+      <c r="R6" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S6" s="44"/>
@@ -3227,13 +3333,13 @@
       <c r="CL6" s="20"/>
     </row>
     <row r="7" spans="1:309" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="152"/>
-      <c r="B7" s="90" t="s">
+      <c r="A7" s="196"/>
+      <c r="B7" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="C7" s="96"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="12"/>
-      <c r="E7" s="93"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="61"/>
       <c r="G7" s="5" t="s">
         <v>19</v>
@@ -3263,8 +3369,8 @@
       <c r="P7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="191"/>
-      <c r="R7" s="115" t="s">
+      <c r="Q7" s="156"/>
+      <c r="R7" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S7" s="44"/>
@@ -3341,15 +3447,15 @@
       <c r="CL7" s="20"/>
     </row>
     <row r="8" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="152"/>
-      <c r="B8" s="158" t="s">
+      <c r="A8" s="196"/>
+      <c r="B8" s="188" t="s">
         <v>147</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="94" t="s">
         <v>152</v>
       </c>
       <c r="D8" s="12"/>
-      <c r="E8" s="93"/>
+      <c r="E8" s="92"/>
       <c r="F8" s="61"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -3367,7 +3473,7 @@
       <c r="N8" s="7"/>
       <c r="O8" s="3"/>
       <c r="P8" s="1"/>
-      <c r="Q8" s="192"/>
+      <c r="Q8" s="157"/>
       <c r="R8" s="54"/>
       <c r="S8" s="44"/>
       <c r="T8" s="21"/>
@@ -3443,13 +3549,13 @@
       <c r="CL8" s="20"/>
     </row>
     <row r="9" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="152"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="95" t="s">
+      <c r="A9" s="196"/>
+      <c r="B9" s="188"/>
+      <c r="C9" s="94" t="s">
         <v>153</v>
       </c>
       <c r="D9" s="12"/>
-      <c r="E9" s="93"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="61"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -3467,7 +3573,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="3"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="192"/>
+      <c r="Q9" s="157"/>
       <c r="R9" s="54"/>
       <c r="S9" s="44"/>
       <c r="T9" s="21"/>
@@ -3543,13 +3649,13 @@
       <c r="CL9" s="20"/>
     </row>
     <row r="10" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="152"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="95" t="s">
+      <c r="A10" s="196"/>
+      <c r="B10" s="188"/>
+      <c r="C10" s="94" t="s">
         <v>154</v>
       </c>
       <c r="D10" s="12"/>
-      <c r="E10" s="93"/>
+      <c r="E10" s="92"/>
       <c r="F10" s="61"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -3567,7 +3673,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="3"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="192"/>
+      <c r="Q10" s="157"/>
       <c r="R10" s="54"/>
       <c r="S10" s="44"/>
       <c r="T10" s="21"/>
@@ -3643,13 +3749,13 @@
       <c r="CL10" s="20"/>
     </row>
     <row r="11" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="152"/>
-      <c r="B11" s="90" t="s">
+      <c r="A11" s="196"/>
+      <c r="B11" s="89" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="95"/>
+      <c r="C11" s="94"/>
       <c r="D11" s="12"/>
-      <c r="E11" s="93"/>
+      <c r="E11" s="92"/>
       <c r="F11" s="61"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -3667,7 +3773,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="3"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="192"/>
+      <c r="Q11" s="157"/>
       <c r="R11" s="54"/>
       <c r="S11" s="44"/>
       <c r="T11" s="21"/>
@@ -3743,13 +3849,13 @@
       <c r="CL11" s="20"/>
     </row>
     <row r="12" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="152"/>
-      <c r="B12" s="90" t="s">
+      <c r="A12" s="196"/>
+      <c r="B12" s="89" t="s">
         <v>146</v>
       </c>
-      <c r="C12" s="96"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="93"/>
+      <c r="E12" s="92"/>
       <c r="F12" s="61"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -3761,8 +3867,8 @@
       <c r="N12" s="7"/>
       <c r="O12" s="3"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="192"/>
-      <c r="R12" s="115" t="s">
+      <c r="Q12" s="157"/>
+      <c r="R12" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S12" s="44"/>
@@ -3839,13 +3945,13 @@
       <c r="CL12" s="20"/>
     </row>
     <row r="13" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="153"/>
+      <c r="A13" s="197"/>
       <c r="B13" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="C13" s="97"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="30"/>
-      <c r="E13" s="80"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="60"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
@@ -3854,11 +3960,11 @@
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="117"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="115"/>
       <c r="P13" s="38"/>
-      <c r="Q13" s="193"/>
-      <c r="R13" s="118" t="s">
+      <c r="Q13" s="158"/>
+      <c r="R13" s="116" t="s">
         <v>19</v>
       </c>
       <c r="S13" s="44"/>
@@ -3935,19 +4041,19 @@
       <c r="CL13" s="20"/>
     </row>
     <row r="14" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="172" t="s">
+      <c r="A14" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="110" t="s">
+      <c r="C14" s="108" t="s">
         <v>155</v>
       </c>
-      <c r="D14" s="111"/>
-      <c r="E14" s="112"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="110"/>
       <c r="F14" s="63"/>
-      <c r="G14" s="120" t="s">
+      <c r="G14" s="118" t="s">
         <v>19</v>
       </c>
       <c r="H14" s="34"/>
@@ -3959,8 +4065,8 @@
       <c r="N14" s="36"/>
       <c r="O14" s="41"/>
       <c r="P14" s="41"/>
-      <c r="Q14" s="194"/>
-      <c r="R14" s="121"/>
+      <c r="Q14" s="159"/>
+      <c r="R14" s="119"/>
       <c r="S14" s="42"/>
       <c r="T14" s="19"/>
       <c r="U14" s="14"/>
@@ -4035,15 +4141,15 @@
       <c r="CL14" s="20"/>
     </row>
     <row r="15" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="173"/>
+      <c r="A15" s="199"/>
       <c r="B15" s="56"/>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="100" t="s">
         <v>156</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="68"/>
-      <c r="F15" s="119"/>
-      <c r="G15" s="122" t="s">
+      <c r="F15" s="117"/>
+      <c r="G15" s="120" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="1"/>
@@ -4055,8 +4161,8 @@
       <c r="N15" s="5"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
-      <c r="Q15" s="195"/>
-      <c r="R15" s="123"/>
+      <c r="Q15" s="160"/>
+      <c r="R15" s="121"/>
       <c r="S15" s="43"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
@@ -4350,15 +4456,15 @@
       <c r="KW15" s="12"/>
     </row>
     <row r="16" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="173"/>
-      <c r="B16" s="83"/>
+      <c r="A16" s="199"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="14" t="s">
         <v>157</v>
       </c>
       <c r="D16" s="12"/>
-      <c r="E16" s="84"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="63"/>
-      <c r="G16" s="124" t="s">
+      <c r="G16" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H16" s="1"/>
@@ -4370,8 +4476,8 @@
       <c r="N16" s="5"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
-      <c r="Q16" s="195"/>
-      <c r="R16" s="123"/>
+      <c r="Q16" s="160"/>
+      <c r="R16" s="121"/>
       <c r="S16" s="43"/>
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
@@ -4665,15 +4771,15 @@
       <c r="KW16" s="12"/>
     </row>
     <row r="17" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="173"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="199"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="14" t="s">
         <v>158</v>
       </c>
       <c r="D17" s="12"/>
-      <c r="E17" s="84"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="63"/>
-      <c r="G17" s="124" t="s">
+      <c r="G17" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H17" s="1"/>
@@ -4685,8 +4791,8 @@
       <c r="N17" s="5"/>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
-      <c r="Q17" s="195"/>
-      <c r="R17" s="123"/>
+      <c r="Q17" s="160"/>
+      <c r="R17" s="121"/>
       <c r="S17" s="43"/>
       <c r="T17" s="12"/>
       <c r="U17" s="12"/>
@@ -4980,15 +5086,15 @@
       <c r="KW17" s="12"/>
     </row>
     <row r="18" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="173"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="199"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="14" t="s">
         <v>159</v>
       </c>
       <c r="D18" s="12"/>
-      <c r="E18" s="84"/>
+      <c r="E18" s="83"/>
       <c r="F18" s="63"/>
-      <c r="G18" s="124" t="s">
+      <c r="G18" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="1"/>
@@ -5000,8 +5106,8 @@
       <c r="N18" s="5"/>
       <c r="O18" s="12"/>
       <c r="P18" s="12"/>
-      <c r="Q18" s="195"/>
-      <c r="R18" s="123"/>
+      <c r="Q18" s="160"/>
+      <c r="R18" s="121"/>
       <c r="S18" s="43"/>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
@@ -5295,15 +5401,15 @@
       <c r="KW18" s="12"/>
     </row>
     <row r="19" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="173"/>
-      <c r="B19" s="83"/>
+      <c r="A19" s="199"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="14" t="s">
         <v>160</v>
       </c>
       <c r="D19" s="12"/>
-      <c r="E19" s="84"/>
+      <c r="E19" s="83"/>
       <c r="F19" s="63"/>
-      <c r="G19" s="124" t="s">
+      <c r="G19" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H19" s="1"/>
@@ -5315,8 +5421,8 @@
       <c r="N19" s="5"/>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
-      <c r="Q19" s="195"/>
-      <c r="R19" s="123"/>
+      <c r="Q19" s="160"/>
+      <c r="R19" s="121"/>
       <c r="S19" s="43"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12"/>
@@ -5610,15 +5716,15 @@
       <c r="KW19" s="12"/>
     </row>
     <row r="20" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="173"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="101" t="s">
+      <c r="A20" s="199"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="100" t="s">
         <v>161</v>
       </c>
       <c r="D20" s="12"/>
-      <c r="E20" s="84"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="63"/>
-      <c r="G20" s="124" t="s">
+      <c r="G20" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H20" s="1"/>
@@ -5630,8 +5736,8 @@
       <c r="N20" s="5"/>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
-      <c r="Q20" s="195"/>
-      <c r="R20" s="123"/>
+      <c r="Q20" s="160"/>
+      <c r="R20" s="121"/>
       <c r="S20" s="43"/>
       <c r="T20" s="12"/>
       <c r="U20" s="12"/>
@@ -5925,15 +6031,15 @@
       <c r="KW20" s="12"/>
     </row>
     <row r="21" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="173"/>
-      <c r="B21" s="83"/>
+      <c r="A21" s="199"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="14" t="s">
         <v>162</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="84"/>
+      <c r="E21" s="83"/>
       <c r="F21" s="63"/>
-      <c r="G21" s="124" t="s">
+      <c r="G21" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H21" s="1"/>
@@ -5945,8 +6051,8 @@
       <c r="N21" s="5"/>
       <c r="O21" s="12"/>
       <c r="P21" s="12"/>
-      <c r="Q21" s="195"/>
-      <c r="R21" s="123"/>
+      <c r="Q21" s="160"/>
+      <c r="R21" s="121"/>
       <c r="S21" s="43"/>
       <c r="T21" s="12"/>
       <c r="U21" s="12"/>
@@ -6240,15 +6346,15 @@
       <c r="KW21" s="12"/>
     </row>
     <row r="22" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="173"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="199"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="14" t="s">
         <v>163</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="84"/>
+      <c r="E22" s="83"/>
       <c r="F22" s="63"/>
-      <c r="G22" s="124" t="s">
+      <c r="G22" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="1"/>
@@ -6260,8 +6366,8 @@
       <c r="N22" s="5"/>
       <c r="O22" s="12"/>
       <c r="P22" s="12"/>
-      <c r="Q22" s="195"/>
-      <c r="R22" s="123"/>
+      <c r="Q22" s="160"/>
+      <c r="R22" s="121"/>
       <c r="S22" s="43"/>
       <c r="T22" s="12"/>
       <c r="U22" s="12"/>
@@ -6555,15 +6661,15 @@
       <c r="KW22" s="12"/>
     </row>
     <row r="23" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="173"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="199"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="14" t="s">
         <v>164</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="84"/>
+      <c r="E23" s="83"/>
       <c r="F23" s="63"/>
-      <c r="G23" s="124" t="s">
+      <c r="G23" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H23" s="1"/>
@@ -6575,8 +6681,8 @@
       <c r="N23" s="5"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
-      <c r="Q23" s="195"/>
-      <c r="R23" s="123"/>
+      <c r="Q23" s="160"/>
+      <c r="R23" s="121"/>
       <c r="S23" s="43"/>
       <c r="T23" s="12"/>
       <c r="U23" s="12"/>
@@ -6870,15 +6976,15 @@
       <c r="KW23" s="12"/>
     </row>
     <row r="24" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="173"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="101" t="s">
+      <c r="A24" s="199"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="100" t="s">
         <v>165</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="84"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="63"/>
-      <c r="G24" s="124" t="s">
+      <c r="G24" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="1"/>
@@ -6890,8 +6996,8 @@
       <c r="N24" s="5"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
-      <c r="Q24" s="195"/>
-      <c r="R24" s="123"/>
+      <c r="Q24" s="160"/>
+      <c r="R24" s="121"/>
       <c r="S24" s="43"/>
       <c r="T24" s="12"/>
       <c r="U24" s="12"/>
@@ -7185,15 +7291,15 @@
       <c r="KW24" s="12"/>
     </row>
     <row r="25" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="173"/>
-      <c r="B25" s="83"/>
-      <c r="C25" s="101" t="s">
+      <c r="A25" s="199"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="100" t="s">
         <v>166</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="84"/>
+      <c r="E25" s="83"/>
       <c r="F25" s="63"/>
-      <c r="G25" s="124" t="s">
+      <c r="G25" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H25" s="1"/>
@@ -7205,8 +7311,8 @@
       <c r="N25" s="5"/>
       <c r="O25" s="12"/>
       <c r="P25" s="12"/>
-      <c r="Q25" s="195"/>
-      <c r="R25" s="123"/>
+      <c r="Q25" s="160"/>
+      <c r="R25" s="121"/>
       <c r="S25" s="43"/>
       <c r="T25" s="12"/>
       <c r="U25" s="12"/>
@@ -7500,15 +7606,15 @@
       <c r="KW25" s="12"/>
     </row>
     <row r="26" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="173"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="101" t="s">
+      <c r="A26" s="199"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="100" t="s">
         <v>167</v>
       </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="84"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="63"/>
-      <c r="G26" s="124" t="s">
+      <c r="G26" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H26" s="1"/>
@@ -7520,8 +7626,8 @@
       <c r="N26" s="5"/>
       <c r="O26" s="12"/>
       <c r="P26" s="12"/>
-      <c r="Q26" s="195"/>
-      <c r="R26" s="123"/>
+      <c r="Q26" s="160"/>
+      <c r="R26" s="121"/>
       <c r="S26" s="43"/>
       <c r="T26" s="12"/>
       <c r="U26" s="12"/>
@@ -7815,15 +7921,15 @@
       <c r="KW26" s="12"/>
     </row>
     <row r="27" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="173"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="101" t="s">
+      <c r="A27" s="199"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="100" t="s">
         <v>168</v>
       </c>
       <c r="D27" s="12"/>
-      <c r="E27" s="84"/>
+      <c r="E27" s="83"/>
       <c r="F27" s="63"/>
-      <c r="G27" s="124" t="s">
+      <c r="G27" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H27" s="1"/>
@@ -7835,8 +7941,8 @@
       <c r="N27" s="5"/>
       <c r="O27" s="12"/>
       <c r="P27" s="12"/>
-      <c r="Q27" s="195"/>
-      <c r="R27" s="123"/>
+      <c r="Q27" s="160"/>
+      <c r="R27" s="121"/>
       <c r="S27" s="43"/>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
@@ -8130,15 +8236,15 @@
       <c r="KW27" s="12"/>
     </row>
     <row r="28" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="173"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="101" t="s">
+      <c r="A28" s="199"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="100" t="s">
         <v>169</v>
       </c>
       <c r="D28" s="12"/>
-      <c r="E28" s="84"/>
+      <c r="E28" s="83"/>
       <c r="F28" s="63"/>
-      <c r="G28" s="124" t="s">
+      <c r="G28" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H28" s="1"/>
@@ -8150,8 +8256,8 @@
       <c r="N28" s="5"/>
       <c r="O28" s="12"/>
       <c r="P28" s="12"/>
-      <c r="Q28" s="195"/>
-      <c r="R28" s="123"/>
+      <c r="Q28" s="160"/>
+      <c r="R28" s="121"/>
       <c r="S28" s="43"/>
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
@@ -8445,15 +8551,15 @@
       <c r="KW28" s="12"/>
     </row>
     <row r="29" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="173"/>
-      <c r="B29" s="83"/>
-      <c r="C29" s="101" t="s">
+      <c r="A29" s="199"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="100" t="s">
         <v>170</v>
       </c>
       <c r="D29" s="12"/>
-      <c r="E29" s="84"/>
+      <c r="E29" s="83"/>
       <c r="F29" s="63"/>
-      <c r="G29" s="124" t="s">
+      <c r="G29" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H29" s="1"/>
@@ -8465,8 +8571,8 @@
       <c r="N29" s="5"/>
       <c r="O29" s="12"/>
       <c r="P29" s="12"/>
-      <c r="Q29" s="195"/>
-      <c r="R29" s="123"/>
+      <c r="Q29" s="160"/>
+      <c r="R29" s="121"/>
       <c r="S29" s="43"/>
       <c r="T29" s="12"/>
       <c r="U29" s="12"/>
@@ -8760,15 +8866,15 @@
       <c r="KW29" s="12"/>
     </row>
     <row r="30" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="173"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="101" t="s">
+      <c r="A30" s="199"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="100" t="s">
         <v>171</v>
       </c>
       <c r="D30" s="12"/>
-      <c r="E30" s="84"/>
+      <c r="E30" s="83"/>
       <c r="F30" s="63"/>
-      <c r="G30" s="124" t="s">
+      <c r="G30" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="1"/>
@@ -8780,8 +8886,8 @@
       <c r="N30" s="5"/>
       <c r="O30" s="12"/>
       <c r="P30" s="12"/>
-      <c r="Q30" s="195"/>
-      <c r="R30" s="123"/>
+      <c r="Q30" s="160"/>
+      <c r="R30" s="121"/>
       <c r="S30" s="43"/>
       <c r="T30" s="12"/>
       <c r="U30" s="12"/>
@@ -9075,15 +9181,15 @@
       <c r="KW30" s="12"/>
     </row>
     <row r="31" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="173"/>
-      <c r="B31" s="83"/>
-      <c r="C31" s="101" t="s">
+      <c r="A31" s="199"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="100" t="s">
         <v>172</v>
       </c>
       <c r="D31" s="12"/>
-      <c r="E31" s="84"/>
+      <c r="E31" s="83"/>
       <c r="F31" s="63"/>
-      <c r="G31" s="124" t="s">
+      <c r="G31" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H31" s="1"/>
@@ -9095,8 +9201,8 @@
       <c r="N31" s="5"/>
       <c r="O31" s="12"/>
       <c r="P31" s="12"/>
-      <c r="Q31" s="195"/>
-      <c r="R31" s="123"/>
+      <c r="Q31" s="160"/>
+      <c r="R31" s="121"/>
       <c r="S31" s="43"/>
       <c r="T31" s="12"/>
       <c r="U31" s="12"/>
@@ -9390,15 +9496,15 @@
       <c r="KW31" s="12"/>
     </row>
     <row r="32" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="173"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="101" t="s">
+      <c r="A32" s="199"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="100" t="s">
         <v>173</v>
       </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="84"/>
+      <c r="E32" s="83"/>
       <c r="F32" s="63"/>
-      <c r="G32" s="124" t="s">
+      <c r="G32" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H32" s="1"/>
@@ -9410,8 +9516,8 @@
       <c r="N32" s="5"/>
       <c r="O32" s="12"/>
       <c r="P32" s="12"/>
-      <c r="Q32" s="195"/>
-      <c r="R32" s="123"/>
+      <c r="Q32" s="160"/>
+      <c r="R32" s="121"/>
       <c r="S32" s="43"/>
       <c r="T32" s="12"/>
       <c r="U32" s="12"/>
@@ -9705,15 +9811,15 @@
       <c r="KW32" s="12"/>
     </row>
     <row r="33" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="173"/>
-      <c r="B33" s="83"/>
-      <c r="C33" s="101" t="s">
+      <c r="A33" s="199"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="100" t="s">
         <v>174</v>
       </c>
       <c r="D33" s="12"/>
-      <c r="E33" s="84"/>
+      <c r="E33" s="83"/>
       <c r="F33" s="63"/>
-      <c r="G33" s="124" t="s">
+      <c r="G33" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H33" s="1"/>
@@ -9725,8 +9831,8 @@
       <c r="N33" s="5"/>
       <c r="O33" s="12"/>
       <c r="P33" s="12"/>
-      <c r="Q33" s="195"/>
-      <c r="R33" s="123"/>
+      <c r="Q33" s="160"/>
+      <c r="R33" s="121"/>
       <c r="S33" s="43"/>
       <c r="T33" s="12"/>
       <c r="U33" s="12"/>
@@ -10020,15 +10126,15 @@
       <c r="KW33" s="12"/>
     </row>
     <row r="34" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="173"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="101" t="s">
+      <c r="A34" s="199"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="100" t="s">
         <v>175</v>
       </c>
       <c r="D34" s="12"/>
-      <c r="E34" s="84"/>
+      <c r="E34" s="83"/>
       <c r="F34" s="63"/>
-      <c r="G34" s="124" t="s">
+      <c r="G34" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H34" s="1"/>
@@ -10040,8 +10146,8 @@
       <c r="N34" s="5"/>
       <c r="O34" s="12"/>
       <c r="P34" s="12"/>
-      <c r="Q34" s="195"/>
-      <c r="R34" s="123"/>
+      <c r="Q34" s="160"/>
+      <c r="R34" s="121"/>
       <c r="S34" s="43"/>
       <c r="T34" s="12"/>
       <c r="U34" s="12"/>
@@ -10335,15 +10441,15 @@
       <c r="KW34" s="12"/>
     </row>
     <row r="35" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="173"/>
-      <c r="B35" s="83"/>
-      <c r="C35" s="101" t="s">
+      <c r="A35" s="199"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="100" t="s">
         <v>176</v>
       </c>
       <c r="D35" s="12"/>
-      <c r="E35" s="84"/>
+      <c r="E35" s="83"/>
       <c r="F35" s="63"/>
-      <c r="G35" s="124" t="s">
+      <c r="G35" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H35" s="1"/>
@@ -10355,8 +10461,8 @@
       <c r="N35" s="5"/>
       <c r="O35" s="12"/>
       <c r="P35" s="12"/>
-      <c r="Q35" s="195"/>
-      <c r="R35" s="123"/>
+      <c r="Q35" s="160"/>
+      <c r="R35" s="121"/>
       <c r="S35" s="43"/>
       <c r="T35" s="12"/>
       <c r="U35" s="12"/>
@@ -10650,15 +10756,15 @@
       <c r="KW35" s="12"/>
     </row>
     <row r="36" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="173"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="101" t="s">
+      <c r="A36" s="199"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="100" t="s">
         <v>177</v>
       </c>
       <c r="D36" s="12"/>
-      <c r="E36" s="84"/>
+      <c r="E36" s="83"/>
       <c r="F36" s="63"/>
-      <c r="G36" s="124" t="s">
+      <c r="G36" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H36" s="1"/>
@@ -10670,8 +10776,8 @@
       <c r="N36" s="5"/>
       <c r="O36" s="12"/>
       <c r="P36" s="12"/>
-      <c r="Q36" s="195"/>
-      <c r="R36" s="123"/>
+      <c r="Q36" s="160"/>
+      <c r="R36" s="121"/>
       <c r="S36" s="43"/>
       <c r="T36" s="12"/>
       <c r="U36" s="12"/>
@@ -10965,15 +11071,15 @@
       <c r="KW36" s="12"/>
     </row>
     <row r="37" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="173"/>
-      <c r="B37" s="83"/>
-      <c r="C37" s="101" t="s">
+      <c r="A37" s="199"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="100" t="s">
         <v>178</v>
       </c>
       <c r="D37" s="12"/>
-      <c r="E37" s="84"/>
+      <c r="E37" s="83"/>
       <c r="F37" s="63"/>
-      <c r="G37" s="124" t="s">
+      <c r="G37" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H37" s="1"/>
@@ -10985,8 +11091,8 @@
       <c r="N37" s="5"/>
       <c r="O37" s="12"/>
       <c r="P37" s="12"/>
-      <c r="Q37" s="195"/>
-      <c r="R37" s="123"/>
+      <c r="Q37" s="160"/>
+      <c r="R37" s="121"/>
       <c r="S37" s="43"/>
       <c r="T37" s="12"/>
       <c r="U37" s="12"/>
@@ -11280,15 +11386,15 @@
       <c r="KW37" s="12"/>
     </row>
     <row r="38" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="173"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="101" t="s">
+      <c r="A38" s="199"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="100" t="s">
         <v>179</v>
       </c>
       <c r="D38" s="12"/>
-      <c r="E38" s="84"/>
+      <c r="E38" s="83"/>
       <c r="F38" s="63"/>
-      <c r="G38" s="124" t="s">
+      <c r="G38" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H38" s="1"/>
@@ -11300,8 +11406,8 @@
       <c r="N38" s="5"/>
       <c r="O38" s="12"/>
       <c r="P38" s="12"/>
-      <c r="Q38" s="195"/>
-      <c r="R38" s="123"/>
+      <c r="Q38" s="160"/>
+      <c r="R38" s="121"/>
       <c r="S38" s="43"/>
       <c r="T38" s="12"/>
       <c r="U38" s="12"/>
@@ -11595,15 +11701,15 @@
       <c r="KW38" s="12"/>
     </row>
     <row r="39" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="173"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="101" t="s">
+      <c r="A39" s="199"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="100" t="s">
         <v>180</v>
       </c>
       <c r="D39" s="12"/>
-      <c r="E39" s="84"/>
+      <c r="E39" s="83"/>
       <c r="F39" s="63"/>
-      <c r="G39" s="124" t="s">
+      <c r="G39" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H39" s="1"/>
@@ -11615,8 +11721,8 @@
       <c r="N39" s="5"/>
       <c r="O39" s="12"/>
       <c r="P39" s="12"/>
-      <c r="Q39" s="195"/>
-      <c r="R39" s="123"/>
+      <c r="Q39" s="160"/>
+      <c r="R39" s="121"/>
       <c r="S39" s="43"/>
       <c r="T39" s="12"/>
       <c r="U39" s="12"/>
@@ -11910,15 +12016,15 @@
       <c r="KW39" s="12"/>
     </row>
     <row r="40" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A40" s="173"/>
+      <c r="A40" s="199"/>
       <c r="B40" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="99"/>
+      <c r="C40" s="98"/>
       <c r="D40" s="12"/>
       <c r="E40" s="68"/>
       <c r="F40" s="63"/>
-      <c r="G40" s="124" t="s">
+      <c r="G40" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H40" s="1"/>
@@ -11932,8 +12038,8 @@
       <c r="N40" s="5"/>
       <c r="O40" s="6"/>
       <c r="P40" s="5"/>
-      <c r="Q40" s="191"/>
-      <c r="R40" s="115"/>
+      <c r="Q40" s="156"/>
+      <c r="R40" s="113"/>
       <c r="S40" s="32"/>
       <c r="U40" s="8"/>
       <c r="V40" s="8"/>
@@ -11972,17 +12078,17 @@
       <c r="BY40" s="10"/>
     </row>
     <row r="41" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A41" s="173"/>
+      <c r="A41" s="199"/>
       <c r="B41" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="99" t="s">
+      <c r="C41" s="98" t="s">
         <v>182</v>
       </c>
       <c r="D41" s="12"/>
       <c r="E41" s="68"/>
       <c r="F41" s="63"/>
-      <c r="G41" s="124" t="s">
+      <c r="G41" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H41" s="5"/>
@@ -11994,8 +12100,8 @@
       <c r="N41" s="5"/>
       <c r="O41" s="6"/>
       <c r="P41" s="5"/>
-      <c r="Q41" s="191"/>
-      <c r="R41" s="115"/>
+      <c r="Q41" s="156"/>
+      <c r="R41" s="113"/>
       <c r="S41" s="32"/>
       <c r="U41" s="8"/>
       <c r="V41" s="8"/>
@@ -12034,28 +12140,28 @@
       <c r="BY41" s="10"/>
     </row>
     <row r="42" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A42" s="173"/>
-      <c r="B42" s="89" t="s">
+      <c r="A42" s="199"/>
+      <c r="B42" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="C42" s="99" t="s">
+      <c r="C42" s="98" t="s">
         <v>183</v>
       </c>
       <c r="D42" s="48"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="124"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="122"/>
       <c r="H42" s="51"/>
       <c r="I42" s="51"/>
       <c r="J42" s="51"/>
       <c r="K42" s="51"/>
-      <c r="L42" s="88"/>
+      <c r="L42" s="87"/>
       <c r="M42" s="50"/>
       <c r="N42" s="51"/>
       <c r="O42" s="50"/>
       <c r="P42" s="51"/>
-      <c r="Q42" s="196"/>
-      <c r="R42" s="125"/>
+      <c r="Q42" s="161"/>
+      <c r="R42" s="123"/>
       <c r="S42" s="32"/>
       <c r="U42" s="8"/>
       <c r="V42" s="8"/>
@@ -12094,30 +12200,30 @@
       <c r="BY42" s="10"/>
     </row>
     <row r="43" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A43" s="173"/>
+      <c r="A43" s="199"/>
       <c r="B43" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="99" t="s">
+      <c r="C43" s="98" t="s">
         <v>181</v>
       </c>
       <c r="D43" s="48"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="124" t="s">
+      <c r="E43" s="74"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H43" s="51"/>
       <c r="I43" s="51"/>
       <c r="J43" s="51"/>
       <c r="K43" s="51"/>
-      <c r="L43" s="88"/>
+      <c r="L43" s="87"/>
       <c r="M43" s="50"/>
       <c r="N43" s="51"/>
       <c r="O43" s="50"/>
       <c r="P43" s="51"/>
-      <c r="Q43" s="196"/>
-      <c r="R43" s="125"/>
+      <c r="Q43" s="161"/>
+      <c r="R43" s="123"/>
       <c r="S43" s="32"/>
       <c r="U43" s="8"/>
       <c r="V43" s="8"/>
@@ -12156,30 +12262,30 @@
       <c r="BY43" s="10"/>
     </row>
     <row r="44" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A44" s="173"/>
-      <c r="B44" s="159" t="s">
+      <c r="A44" s="199"/>
+      <c r="B44" s="189" t="s">
         <v>129</v>
       </c>
-      <c r="C44" s="99" t="s">
+      <c r="C44" s="98" t="s">
         <v>184</v>
       </c>
       <c r="D44" s="48"/>
-      <c r="E44" s="75"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="124" t="s">
+      <c r="E44" s="74"/>
+      <c r="F44" s="86"/>
+      <c r="G44" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H44" s="51"/>
       <c r="I44" s="51"/>
       <c r="J44" s="51"/>
       <c r="K44" s="51"/>
-      <c r="L44" s="88"/>
+      <c r="L44" s="87"/>
       <c r="M44" s="50"/>
       <c r="N44" s="51"/>
       <c r="O44" s="50"/>
       <c r="P44" s="51"/>
-      <c r="Q44" s="196"/>
-      <c r="R44" s="125"/>
+      <c r="Q44" s="161"/>
+      <c r="R44" s="123"/>
       <c r="S44" s="32"/>
       <c r="U44" s="8"/>
       <c r="V44" s="8"/>
@@ -12218,28 +12324,28 @@
       <c r="BY44" s="10"/>
     </row>
     <row r="45" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A45" s="173"/>
-      <c r="B45" s="160"/>
-      <c r="C45" s="99" t="s">
+      <c r="A45" s="199"/>
+      <c r="B45" s="190"/>
+      <c r="C45" s="98" t="s">
         <v>185</v>
       </c>
       <c r="D45" s="48"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="124" t="s">
+      <c r="E45" s="74"/>
+      <c r="F45" s="86"/>
+      <c r="G45" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H45" s="51"/>
       <c r="I45" s="51"/>
       <c r="J45" s="51"/>
       <c r="K45" s="51"/>
-      <c r="L45" s="88"/>
+      <c r="L45" s="87"/>
       <c r="M45" s="50"/>
       <c r="N45" s="51"/>
       <c r="O45" s="50"/>
       <c r="P45" s="51"/>
-      <c r="Q45" s="196"/>
-      <c r="R45" s="125"/>
+      <c r="Q45" s="161"/>
+      <c r="R45" s="123"/>
       <c r="S45" s="32"/>
       <c r="U45" s="8"/>
       <c r="V45" s="8"/>
@@ -12278,28 +12384,28 @@
       <c r="BY45" s="10"/>
     </row>
     <row r="46" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A46" s="173"/>
-      <c r="B46" s="160"/>
-      <c r="C46" s="99" t="s">
+      <c r="A46" s="199"/>
+      <c r="B46" s="190"/>
+      <c r="C46" s="98" t="s">
         <v>186</v>
       </c>
       <c r="D46" s="48"/>
-      <c r="E46" s="75"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="124" t="s">
+      <c r="E46" s="74"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H46" s="51"/>
       <c r="I46" s="51"/>
       <c r="J46" s="51"/>
       <c r="K46" s="51"/>
-      <c r="L46" s="88"/>
+      <c r="L46" s="87"/>
       <c r="M46" s="50"/>
       <c r="N46" s="51"/>
       <c r="O46" s="50"/>
       <c r="P46" s="51"/>
-      <c r="Q46" s="196"/>
-      <c r="R46" s="125"/>
+      <c r="Q46" s="161"/>
+      <c r="R46" s="123"/>
       <c r="S46" s="32"/>
       <c r="U46" s="8"/>
       <c r="V46" s="8"/>
@@ -12338,28 +12444,28 @@
       <c r="BY46" s="10"/>
     </row>
     <row r="47" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A47" s="173"/>
-      <c r="B47" s="160"/>
-      <c r="C47" s="99" t="s">
+      <c r="A47" s="199"/>
+      <c r="B47" s="190"/>
+      <c r="C47" s="98" t="s">
         <v>187</v>
       </c>
       <c r="D47" s="48"/>
-      <c r="E47" s="75"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="124" t="s">
+      <c r="E47" s="74"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H47" s="51"/>
       <c r="I47" s="51"/>
       <c r="J47" s="51"/>
       <c r="K47" s="51"/>
-      <c r="L47" s="88"/>
+      <c r="L47" s="87"/>
       <c r="M47" s="50"/>
       <c r="N47" s="51"/>
       <c r="O47" s="50"/>
       <c r="P47" s="51"/>
-      <c r="Q47" s="196"/>
-      <c r="R47" s="125"/>
+      <c r="Q47" s="161"/>
+      <c r="R47" s="123"/>
       <c r="S47" s="32"/>
       <c r="U47" s="8"/>
       <c r="V47" s="8"/>
@@ -12398,28 +12504,28 @@
       <c r="BY47" s="10"/>
     </row>
     <row r="48" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A48" s="173"/>
-      <c r="B48" s="161"/>
-      <c r="C48" s="99" t="s">
+      <c r="A48" s="199"/>
+      <c r="B48" s="191"/>
+      <c r="C48" s="98" t="s">
         <v>188</v>
       </c>
       <c r="D48" s="48"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="124" t="s">
+      <c r="E48" s="74"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H48" s="51"/>
       <c r="I48" s="51"/>
       <c r="J48" s="51"/>
       <c r="K48" s="51"/>
-      <c r="L48" s="88"/>
+      <c r="L48" s="87"/>
       <c r="M48" s="50"/>
       <c r="N48" s="51"/>
       <c r="O48" s="50"/>
       <c r="P48" s="51"/>
-      <c r="Q48" s="196"/>
-      <c r="R48" s="125"/>
+      <c r="Q48" s="161"/>
+      <c r="R48" s="123"/>
       <c r="S48" s="32"/>
       <c r="U48" s="8"/>
       <c r="V48" s="8"/>
@@ -12458,30 +12564,30 @@
       <c r="BY48" s="10"/>
     </row>
     <row r="49" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A49" s="173"/>
+      <c r="A49" s="199"/>
       <c r="B49" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="C49" s="100" t="s">
+      <c r="C49" s="99" t="s">
         <v>140</v>
       </c>
       <c r="D49" s="48"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="124" t="s">
+      <c r="E49" s="74"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H49" s="51"/>
       <c r="I49" s="51"/>
       <c r="J49" s="51"/>
       <c r="K49" s="51"/>
-      <c r="L49" s="88"/>
+      <c r="L49" s="87"/>
       <c r="M49" s="50"/>
       <c r="N49" s="51"/>
       <c r="O49" s="50"/>
       <c r="P49" s="51"/>
-      <c r="Q49" s="196"/>
-      <c r="R49" s="125"/>
+      <c r="Q49" s="161"/>
+      <c r="R49" s="123"/>
       <c r="S49" s="32"/>
       <c r="U49" s="8"/>
       <c r="V49" s="8"/>
@@ -12520,30 +12626,30 @@
       <c r="BY49" s="10"/>
     </row>
     <row r="50" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A50" s="173"/>
+      <c r="A50" s="199"/>
       <c r="B50" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C50" s="100" t="s">
+      <c r="C50" s="99" t="s">
         <v>140</v>
       </c>
       <c r="D50" s="48"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="124" t="s">
+      <c r="E50" s="74"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H50" s="51"/>
       <c r="I50" s="51"/>
       <c r="J50" s="51"/>
       <c r="K50" s="51"/>
-      <c r="L50" s="88"/>
+      <c r="L50" s="87"/>
       <c r="M50" s="50"/>
       <c r="N50" s="51"/>
       <c r="O50" s="50"/>
       <c r="P50" s="51"/>
-      <c r="Q50" s="196"/>
-      <c r="R50" s="125"/>
+      <c r="Q50" s="161"/>
+      <c r="R50" s="123"/>
       <c r="S50" s="32"/>
       <c r="U50" s="8"/>
       <c r="V50" s="8"/>
@@ -12582,30 +12688,30 @@
       <c r="BY50" s="10"/>
     </row>
     <row r="51" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A51" s="173"/>
+      <c r="A51" s="199"/>
       <c r="B51" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="100" t="s">
+      <c r="C51" s="99" t="s">
         <v>140</v>
       </c>
       <c r="D51" s="48"/>
-      <c r="E51" s="75"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="124" t="s">
+      <c r="E51" s="74"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H51" s="51"/>
       <c r="I51" s="51"/>
       <c r="J51" s="51"/>
       <c r="K51" s="51"/>
-      <c r="L51" s="88"/>
+      <c r="L51" s="87"/>
       <c r="M51" s="50"/>
       <c r="N51" s="51"/>
       <c r="O51" s="50"/>
       <c r="P51" s="51"/>
-      <c r="Q51" s="196"/>
-      <c r="R51" s="125"/>
+      <c r="Q51" s="161"/>
+      <c r="R51" s="123"/>
       <c r="S51" s="32"/>
       <c r="U51" s="8"/>
       <c r="V51" s="8"/>
@@ -12644,28 +12750,28 @@
       <c r="BY51" s="10"/>
     </row>
     <row r="52" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A52" s="173"/>
+      <c r="A52" s="199"/>
       <c r="B52" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C52" s="100"/>
+      <c r="C52" s="99"/>
       <c r="D52" s="48"/>
-      <c r="E52" s="75"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="124" t="s">
+      <c r="E52" s="74"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="122" t="s">
         <v>19</v>
       </c>
       <c r="H52" s="51"/>
       <c r="I52" s="51"/>
       <c r="J52" s="51"/>
       <c r="K52" s="51"/>
-      <c r="L52" s="88"/>
+      <c r="L52" s="87"/>
       <c r="M52" s="50"/>
       <c r="N52" s="51"/>
       <c r="O52" s="50"/>
       <c r="P52" s="51"/>
-      <c r="Q52" s="196"/>
-      <c r="R52" s="125"/>
+      <c r="Q52" s="161"/>
+      <c r="R52" s="123"/>
       <c r="S52" s="32"/>
       <c r="U52" s="8"/>
       <c r="V52" s="8"/>
@@ -12704,28 +12810,28 @@
       <c r="BY52" s="10"/>
     </row>
     <row r="53" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A53" s="173"/>
+      <c r="A53" s="199"/>
       <c r="B53" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="100"/>
+      <c r="C53" s="99"/>
       <c r="D53" s="48"/>
-      <c r="E53" s="75"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="126" t="s">
+      <c r="E53" s="74"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="124" t="s">
         <v>19</v>
       </c>
       <c r="H53" s="51"/>
       <c r="I53" s="51"/>
       <c r="J53" s="51"/>
       <c r="K53" s="51"/>
-      <c r="L53" s="88"/>
+      <c r="L53" s="87"/>
       <c r="M53" s="50"/>
       <c r="N53" s="51"/>
       <c r="O53" s="50"/>
       <c r="P53" s="51"/>
-      <c r="Q53" s="196"/>
-      <c r="R53" s="125"/>
+      <c r="Q53" s="161"/>
+      <c r="R53" s="123"/>
       <c r="S53" s="32"/>
       <c r="U53" s="8"/>
       <c r="V53" s="8"/>
@@ -12764,28 +12870,28 @@
       <c r="BY53" s="10"/>
     </row>
     <row r="54" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="182"/>
+      <c r="A54" s="200"/>
       <c r="B54" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="C54" s="97"/>
+      <c r="C54" s="96"/>
       <c r="D54" s="30"/>
-      <c r="E54" s="80"/>
+      <c r="E54" s="79"/>
       <c r="F54" s="64"/>
-      <c r="G54" s="122" t="s">
+      <c r="G54" s="120" t="s">
         <v>19</v>
       </c>
       <c r="H54" s="49"/>
       <c r="I54" s="49"/>
       <c r="J54" s="49"/>
       <c r="K54" s="49"/>
-      <c r="L54" s="88"/>
+      <c r="L54" s="87"/>
       <c r="M54" s="50"/>
       <c r="N54" s="51"/>
       <c r="O54" s="50"/>
       <c r="P54" s="51"/>
-      <c r="Q54" s="196"/>
-      <c r="R54" s="125"/>
+      <c r="Q54" s="161"/>
+      <c r="R54" s="123"/>
       <c r="S54" s="32"/>
       <c r="U54" s="8"/>
       <c r="V54" s="8"/>
@@ -12824,21 +12930,21 @@
       <c r="BY54" s="10"/>
     </row>
     <row r="55" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="172" t="s">
+      <c r="A55" s="198" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="165" t="s">
+      <c r="C55" s="194" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="28"/>
-      <c r="E55" s="162"/>
+      <c r="E55" s="192"/>
       <c r="F55" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G55" s="133"/>
+      <c r="G55" s="131"/>
       <c r="H55" s="34"/>
       <c r="I55" s="34"/>
       <c r="J55" s="34"/>
@@ -12848,8 +12954,8 @@
       <c r="N55" s="36"/>
       <c r="O55" s="35"/>
       <c r="P55" s="36"/>
-      <c r="Q55" s="190"/>
-      <c r="R55" s="114"/>
+      <c r="Q55" s="155"/>
+      <c r="R55" s="112"/>
       <c r="S55" s="32"/>
       <c r="U55" s="8"/>
       <c r="V55" s="8"/>
@@ -12912,15 +13018,15 @@
       </c>
     </row>
     <row r="56" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="173"/>
+      <c r="A56" s="199"/>
       <c r="B56" s="56"/>
-      <c r="C56" s="164"/>
+      <c r="C56" s="184"/>
       <c r="D56" s="12"/>
-      <c r="E56" s="163"/>
+      <c r="E56" s="193"/>
       <c r="F56" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="G56" s="134"/>
+      <c r="G56" s="132"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -12930,8 +13036,8 @@
       <c r="N56" s="5"/>
       <c r="O56" s="6"/>
       <c r="P56" s="5"/>
-      <c r="Q56" s="191"/>
-      <c r="R56" s="115"/>
+      <c r="Q56" s="156"/>
+      <c r="R56" s="113"/>
       <c r="S56" s="32"/>
       <c r="U56" s="8"/>
       <c r="V56" s="8"/>
@@ -12970,15 +13076,15 @@
       <c r="BY56" s="10"/>
     </row>
     <row r="57" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="173"/>
+      <c r="A57" s="199"/>
       <c r="B57" s="56"/>
-      <c r="C57" s="164"/>
+      <c r="C57" s="184"/>
       <c r="D57" s="12"/>
-      <c r="E57" s="163"/>
+      <c r="E57" s="193"/>
       <c r="F57" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="G57" s="134"/>
+      <c r="G57" s="132"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -12990,8 +13096,8 @@
       <c r="P57" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q57" s="191"/>
-      <c r="R57" s="115"/>
+      <c r="Q57" s="156"/>
+      <c r="R57" s="113"/>
       <c r="S57" s="32"/>
       <c r="U57" s="8"/>
       <c r="V57" s="8"/>
@@ -13030,15 +13136,15 @@
       <c r="BY57" s="10"/>
     </row>
     <row r="58" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="173"/>
+      <c r="A58" s="199"/>
       <c r="B58" s="56"/>
-      <c r="C58" s="164"/>
+      <c r="C58" s="184"/>
       <c r="D58" s="12"/>
-      <c r="E58" s="163"/>
-      <c r="F58" s="127" t="s">
+      <c r="E58" s="193"/>
+      <c r="F58" s="125" t="s">
         <v>27</v>
       </c>
-      <c r="G58" s="134"/>
+      <c r="G58" s="132"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -13050,8 +13156,8 @@
       <c r="P58" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q58" s="191"/>
-      <c r="R58" s="115"/>
+      <c r="Q58" s="156"/>
+      <c r="R58" s="113"/>
       <c r="S58" s="32"/>
       <c r="U58" s="8"/>
       <c r="V58" s="8"/>
@@ -13090,9 +13196,9 @@
       <c r="BY58" s="10"/>
     </row>
     <row r="59" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="173"/>
+      <c r="A59" s="199"/>
       <c r="B59" s="56"/>
-      <c r="C59" s="164" t="s">
+      <c r="C59" s="184" t="s">
         <v>28</v>
       </c>
       <c r="D59" s="12"/>
@@ -13100,7 +13206,7 @@
       <c r="F59" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="G59" s="134"/>
+      <c r="G59" s="132"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -13112,8 +13218,8 @@
       <c r="P59" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q59" s="191"/>
-      <c r="R59" s="115"/>
+      <c r="Q59" s="156"/>
+      <c r="R59" s="113"/>
       <c r="S59" s="32"/>
       <c r="U59" s="8"/>
       <c r="V59" s="8"/>
@@ -13152,15 +13258,15 @@
       <c r="BY59" s="10"/>
     </row>
     <row r="60" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="173"/>
+      <c r="A60" s="199"/>
       <c r="B60" s="56"/>
-      <c r="C60" s="164"/>
+      <c r="C60" s="184"/>
       <c r="D60" s="12"/>
       <c r="E60" s="68"/>
       <c r="F60" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="G60" s="134"/>
+      <c r="G60" s="132"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -13172,8 +13278,8 @@
       <c r="P60" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q60" s="191"/>
-      <c r="R60" s="115"/>
+      <c r="Q60" s="156"/>
+      <c r="R60" s="113"/>
       <c r="S60" s="32"/>
       <c r="U60" s="8"/>
       <c r="V60" s="8"/>
@@ -13212,15 +13318,15 @@
       <c r="BY60" s="10"/>
     </row>
     <row r="61" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="173"/>
+      <c r="A61" s="199"/>
       <c r="B61" s="56"/>
-      <c r="C61" s="164"/>
+      <c r="C61" s="184"/>
       <c r="D61" s="12"/>
       <c r="E61" s="68"/>
       <c r="F61" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="134"/>
+      <c r="G61" s="132"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -13232,8 +13338,8 @@
       <c r="P61" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q61" s="191"/>
-      <c r="R61" s="115"/>
+      <c r="Q61" s="156"/>
+      <c r="R61" s="113"/>
       <c r="S61" s="32"/>
       <c r="U61" s="8"/>
       <c r="V61" s="8"/>
@@ -13272,9 +13378,9 @@
       <c r="BY61" s="10"/>
     </row>
     <row r="62" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="173"/>
+      <c r="A62" s="199"/>
       <c r="B62" s="56"/>
-      <c r="C62" s="164" t="s">
+      <c r="C62" s="184" t="s">
         <v>32</v>
       </c>
       <c r="D62" s="12"/>
@@ -13282,7 +13388,7 @@
       <c r="F62" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="G62" s="134"/>
+      <c r="G62" s="132"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -13294,8 +13400,8 @@
       <c r="P62" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q62" s="191"/>
-      <c r="R62" s="115"/>
+      <c r="Q62" s="156"/>
+      <c r="R62" s="113"/>
       <c r="S62" s="32"/>
       <c r="U62" s="8"/>
       <c r="V62" s="8"/>
@@ -13334,15 +13440,15 @@
       <c r="BY62" s="10"/>
     </row>
     <row r="63" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="173"/>
+      <c r="A63" s="199"/>
       <c r="B63" s="56"/>
-      <c r="C63" s="164"/>
+      <c r="C63" s="184"/>
       <c r="D63" s="12"/>
       <c r="E63" s="68"/>
       <c r="F63" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="134"/>
+      <c r="G63" s="132"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -13354,8 +13460,8 @@
       <c r="P63" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q63" s="191"/>
-      <c r="R63" s="115"/>
+      <c r="Q63" s="156"/>
+      <c r="R63" s="113"/>
       <c r="S63" s="32"/>
       <c r="U63" s="8"/>
       <c r="V63" s="8"/>
@@ -13394,15 +13500,15 @@
       <c r="BY63" s="10"/>
     </row>
     <row r="64" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="173"/>
+      <c r="A64" s="199"/>
       <c r="B64" s="56"/>
-      <c r="C64" s="164"/>
+      <c r="C64" s="184"/>
       <c r="D64" s="12"/>
       <c r="E64" s="68"/>
       <c r="F64" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="G64" s="134"/>
+      <c r="G64" s="132"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -13414,8 +13520,8 @@
       <c r="P64" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q64" s="191"/>
-      <c r="R64" s="115"/>
+      <c r="Q64" s="156"/>
+      <c r="R64" s="113"/>
       <c r="S64" s="32"/>
       <c r="U64" s="8"/>
       <c r="V64" s="8"/>
@@ -13454,15 +13560,15 @@
       <c r="BY64" s="10"/>
     </row>
     <row r="65" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="173"/>
+      <c r="A65" s="199"/>
       <c r="B65" s="56"/>
-      <c r="C65" s="164"/>
+      <c r="C65" s="184"/>
       <c r="D65" s="12"/>
       <c r="E65" s="68"/>
       <c r="F65" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="G65" s="134"/>
+      <c r="G65" s="132"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -13474,8 +13580,8 @@
       <c r="P65" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q65" s="191"/>
-      <c r="R65" s="115"/>
+      <c r="Q65" s="156"/>
+      <c r="R65" s="113"/>
       <c r="S65" s="32"/>
       <c r="U65" s="8"/>
       <c r="V65" s="8"/>
@@ -13514,15 +13620,15 @@
       <c r="BY65" s="10"/>
     </row>
     <row r="66" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="173"/>
+      <c r="A66" s="199"/>
       <c r="B66" s="56"/>
-      <c r="C66" s="164"/>
+      <c r="C66" s="184"/>
       <c r="D66" s="12"/>
       <c r="E66" s="68"/>
       <c r="F66" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="G66" s="134"/>
+      <c r="G66" s="132"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -13534,8 +13640,8 @@
       <c r="P66" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q66" s="191"/>
-      <c r="R66" s="115"/>
+      <c r="Q66" s="156"/>
+      <c r="R66" s="113"/>
       <c r="S66" s="32"/>
       <c r="U66" s="8"/>
       <c r="V66" s="8"/>
@@ -13574,15 +13680,15 @@
       <c r="BY66" s="10"/>
     </row>
     <row r="67" spans="1:77" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="173"/>
+      <c r="A67" s="199"/>
       <c r="B67" s="56"/>
-      <c r="C67" s="164"/>
+      <c r="C67" s="184"/>
       <c r="D67" s="12"/>
       <c r="E67" s="68"/>
       <c r="F67" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G67" s="134"/>
+      <c r="G67" s="132"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -13594,8 +13700,8 @@
       <c r="P67" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q67" s="191"/>
-      <c r="R67" s="115"/>
+      <c r="Q67" s="156"/>
+      <c r="R67" s="113"/>
       <c r="S67" s="32"/>
       <c r="U67" s="8"/>
       <c r="V67" s="8"/>
@@ -13634,17 +13740,17 @@
       <c r="BY67" s="10"/>
     </row>
     <row r="68" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="174"/>
+      <c r="A68" s="201"/>
       <c r="B68" s="56"/>
-      <c r="C68" s="164" t="s">
+      <c r="C68" s="184" t="s">
         <v>39</v>
       </c>
       <c r="D68" s="12"/>
       <c r="E68" s="68"/>
-      <c r="F68" s="128" t="s">
+      <c r="F68" s="126" t="s">
         <v>40</v>
       </c>
-      <c r="G68" s="134"/>
+      <c r="G68" s="132"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -13656,8 +13762,8 @@
       <c r="P68" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q68" s="191"/>
-      <c r="R68" s="115"/>
+      <c r="Q68" s="156"/>
+      <c r="R68" s="113"/>
       <c r="S68" s="32"/>
       <c r="U68" s="8"/>
       <c r="V68" s="8"/>
@@ -13697,15 +13803,15 @@
       </c>
     </row>
     <row r="69" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="174"/>
+      <c r="A69" s="201"/>
       <c r="B69" s="56"/>
-      <c r="C69" s="164"/>
+      <c r="C69" s="184"/>
       <c r="D69" s="12"/>
       <c r="E69" s="68"/>
-      <c r="F69" s="129" t="s">
+      <c r="F69" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="G69" s="134"/>
+      <c r="G69" s="132"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -13717,8 +13823,8 @@
       <c r="P69" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q69" s="191"/>
-      <c r="R69" s="115"/>
+      <c r="Q69" s="156"/>
+      <c r="R69" s="113"/>
       <c r="S69" s="32"/>
       <c r="U69" s="8"/>
       <c r="V69" s="8"/>
@@ -13748,17 +13854,17 @@
       <c r="AU69" s="6"/>
     </row>
     <row r="70" spans="1:77" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="174"/>
+      <c r="A70" s="201"/>
       <c r="B70" s="56"/>
       <c r="C70" s="14" t="s">
         <v>42</v>
       </c>
       <c r="D70" s="12"/>
       <c r="E70" s="68"/>
-      <c r="F70" s="129" t="s">
+      <c r="F70" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="G70" s="134"/>
+      <c r="G70" s="132"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -13770,8 +13876,8 @@
       <c r="P70" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q70" s="191"/>
-      <c r="R70" s="115"/>
+      <c r="Q70" s="156"/>
+      <c r="R70" s="113"/>
       <c r="S70" s="32"/>
       <c r="U70" s="8"/>
       <c r="V70" s="8"/>
@@ -13801,17 +13907,17 @@
       <c r="AU70" s="6"/>
     </row>
     <row r="71" spans="1:77" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="174"/>
+      <c r="A71" s="201"/>
       <c r="B71" s="56"/>
       <c r="C71" s="14" t="s">
         <v>44</v>
       </c>
       <c r="D71" s="12"/>
       <c r="E71" s="68"/>
-      <c r="F71" s="129" t="s">
+      <c r="F71" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="G71" s="134"/>
+      <c r="G71" s="132"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -13823,8 +13929,8 @@
       <c r="P71" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="Q71" s="191"/>
-      <c r="R71" s="115"/>
+      <c r="Q71" s="156"/>
+      <c r="R71" s="113"/>
       <c r="S71" s="32"/>
       <c r="U71" s="8"/>
       <c r="V71" s="8"/>
@@ -13854,17 +13960,17 @@
       <c r="AU71" s="6"/>
     </row>
     <row r="72" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="174"/>
+      <c r="A72" s="201"/>
       <c r="B72" s="56"/>
-      <c r="C72" s="164" t="s">
+      <c r="C72" s="184" t="s">
         <v>46</v>
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="68"/>
-      <c r="F72" s="130" t="s">
+      <c r="F72" s="128" t="s">
         <v>47</v>
       </c>
-      <c r="G72" s="134"/>
+      <c r="G72" s="132"/>
       <c r="H72" s="5" t="s">
         <v>19</v>
       </c>
@@ -13876,8 +13982,8 @@
       <c r="N72" s="5"/>
       <c r="O72" s="6"/>
       <c r="P72" s="5"/>
-      <c r="Q72" s="191"/>
-      <c r="R72" s="115"/>
+      <c r="Q72" s="156"/>
+      <c r="R72" s="113"/>
       <c r="S72" s="32"/>
       <c r="U72" s="8"/>
       <c r="V72" s="8"/>
@@ -13907,15 +14013,15 @@
       <c r="AU72" s="6"/>
     </row>
     <row r="73" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="174"/>
+      <c r="A73" s="201"/>
       <c r="B73" s="56"/>
-      <c r="C73" s="164"/>
+      <c r="C73" s="184"/>
       <c r="D73" s="12"/>
       <c r="E73" s="68"/>
-      <c r="F73" s="130" t="s">
+      <c r="F73" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="G73" s="134"/>
+      <c r="G73" s="132"/>
       <c r="H73" s="5" t="s">
         <v>19</v>
       </c>
@@ -13927,8 +14033,8 @@
       <c r="N73" s="5"/>
       <c r="O73" s="6"/>
       <c r="P73" s="5"/>
-      <c r="Q73" s="191"/>
-      <c r="R73" s="115"/>
+      <c r="Q73" s="156"/>
+      <c r="R73" s="113"/>
       <c r="S73" s="32"/>
       <c r="U73" s="8"/>
       <c r="V73" s="8"/>
@@ -13958,15 +14064,15 @@
       <c r="AU73" s="6"/>
     </row>
     <row r="74" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="174"/>
+      <c r="A74" s="201"/>
       <c r="B74" s="56"/>
-      <c r="C74" s="164"/>
+      <c r="C74" s="184"/>
       <c r="D74" s="12"/>
       <c r="E74" s="68"/>
-      <c r="F74" s="131" t="s">
+      <c r="F74" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="G74" s="134"/>
+      <c r="G74" s="132"/>
       <c r="H74" s="5" t="s">
         <v>19</v>
       </c>
@@ -13978,8 +14084,8 @@
       <c r="N74" s="5"/>
       <c r="O74" s="6"/>
       <c r="P74" s="5"/>
-      <c r="Q74" s="191"/>
-      <c r="R74" s="115"/>
+      <c r="Q74" s="156"/>
+      <c r="R74" s="113"/>
       <c r="S74" s="32"/>
       <c r="U74" s="8"/>
       <c r="V74" s="8"/>
@@ -14009,17 +14115,17 @@
       <c r="AU74" s="6"/>
     </row>
     <row r="75" spans="1:77" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="174"/>
+      <c r="A75" s="201"/>
       <c r="B75" s="56"/>
       <c r="C75" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D75" s="12"/>
       <c r="E75" s="68"/>
-      <c r="F75" s="129" t="s">
+      <c r="F75" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="G75" s="134"/>
+      <c r="G75" s="132"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -14029,8 +14135,8 @@
       <c r="N75" s="5"/>
       <c r="O75" s="6"/>
       <c r="P75" s="5"/>
-      <c r="Q75" s="191"/>
-      <c r="R75" s="115"/>
+      <c r="Q75" s="156"/>
+      <c r="R75" s="113"/>
       <c r="S75" s="32"/>
       <c r="U75" s="8"/>
       <c r="V75" s="8"/>
@@ -14060,17 +14166,17 @@
       <c r="AU75" s="6"/>
     </row>
     <row r="76" spans="1:77" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="174"/>
+      <c r="A76" s="201"/>
       <c r="B76" s="56"/>
-      <c r="C76" s="188" t="s">
+      <c r="C76" s="185" t="s">
         <v>52</v>
       </c>
       <c r="D76" s="12"/>
       <c r="E76" s="68"/>
-      <c r="F76" s="129" t="s">
+      <c r="F76" s="127" t="s">
         <v>53</v>
       </c>
-      <c r="G76" s="134"/>
+      <c r="G76" s="132"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -14084,8 +14190,8 @@
       <c r="N76" s="5"/>
       <c r="O76" s="6"/>
       <c r="P76" s="5"/>
-      <c r="Q76" s="191"/>
-      <c r="R76" s="115"/>
+      <c r="Q76" s="156"/>
+      <c r="R76" s="113"/>
       <c r="S76" s="32"/>
       <c r="U76" s="8"/>
       <c r="V76" s="8"/>
@@ -14115,15 +14221,15 @@
       <c r="AU76" s="6"/>
     </row>
     <row r="77" spans="1:77" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="175"/>
+      <c r="A77" s="202"/>
       <c r="B77" s="29"/>
-      <c r="C77" s="189"/>
+      <c r="C77" s="186"/>
       <c r="D77" s="30"/>
-      <c r="E77" s="80"/>
-      <c r="F77" s="132" t="s">
+      <c r="E77" s="79"/>
+      <c r="F77" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="G77" s="135"/>
+      <c r="G77" s="133"/>
       <c r="H77" s="49"/>
       <c r="I77" s="49"/>
       <c r="J77" s="49"/>
@@ -14137,8 +14243,8 @@
       <c r="N77" s="52"/>
       <c r="O77" s="50"/>
       <c r="P77" s="47"/>
-      <c r="Q77" s="197"/>
-      <c r="R77" s="125"/>
+      <c r="Q77" s="162"/>
+      <c r="R77" s="123"/>
       <c r="S77" s="32"/>
       <c r="U77" s="8"/>
       <c r="V77" s="8"/>
@@ -14176,13 +14282,13 @@
       <c r="AU77" s="1"/>
     </row>
     <row r="78" spans="1:77" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="172" t="s">
+      <c r="A78" s="198" t="s">
         <v>191</v>
       </c>
       <c r="B78" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C78" s="98" t="s">
+      <c r="C78" s="97" t="s">
         <v>56</v>
       </c>
       <c r="D78" s="28"/>
@@ -14190,7 +14296,7 @@
       <c r="F78" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="G78" s="133"/>
+      <c r="G78" s="131"/>
       <c r="H78" s="34"/>
       <c r="I78" s="36" t="s">
         <v>19</v>
@@ -14206,8 +14312,8 @@
       <c r="N78" s="37"/>
       <c r="O78" s="35"/>
       <c r="P78" s="36"/>
-      <c r="Q78" s="190"/>
-      <c r="R78" s="114"/>
+      <c r="Q78" s="155"/>
+      <c r="R78" s="112"/>
       <c r="S78" s="40"/>
       <c r="U78" s="8"/>
       <c r="V78" s="8"/>
@@ -14241,7 +14347,7 @@
       <c r="AU78" s="1"/>
     </row>
     <row r="79" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="174" t="s">
+      <c r="A79" s="201" t="s">
         <v>57</v>
       </c>
       <c r="B79" s="56"/>
@@ -14250,10 +14356,10 @@
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="68"/>
-      <c r="F79" s="119" t="s">
+      <c r="F79" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="G79" s="134"/>
+      <c r="G79" s="132"/>
       <c r="H79" s="1"/>
       <c r="I79" s="5" t="s">
         <v>19</v>
@@ -14269,8 +14375,8 @@
       <c r="N79" s="11"/>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
-      <c r="Q79" s="198"/>
-      <c r="R79" s="137"/>
+      <c r="Q79" s="163"/>
+      <c r="R79" s="135"/>
       <c r="S79" s="32"/>
       <c r="U79" s="8"/>
       <c r="V79" s="8"/>
@@ -14300,7 +14406,7 @@
       <c r="AU79" s="1"/>
     </row>
     <row r="80" spans="1:77" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="174"/>
+      <c r="A80" s="201"/>
       <c r="B80" s="56" t="s">
         <v>59</v>
       </c>
@@ -14309,10 +14415,10 @@
       </c>
       <c r="D80" s="12"/>
       <c r="E80" s="68"/>
-      <c r="F80" s="131" t="s">
+      <c r="F80" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="G80" s="134"/>
+      <c r="G80" s="132"/>
       <c r="H80" s="1"/>
       <c r="I80" s="5" t="s">
         <v>19</v>
@@ -14328,8 +14434,8 @@
       <c r="N80" s="11"/>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
-      <c r="Q80" s="198"/>
-      <c r="R80" s="137"/>
+      <c r="Q80" s="163"/>
+      <c r="R80" s="135"/>
       <c r="S80" s="32"/>
       <c r="U80" s="8"/>
       <c r="V80" s="8"/>
@@ -14359,17 +14465,17 @@
       <c r="AU80" s="1"/>
     </row>
     <row r="81" spans="1:47" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="174"/>
+      <c r="A81" s="201"/>
       <c r="B81" s="56"/>
       <c r="C81" s="14" t="s">
         <v>61</v>
       </c>
       <c r="D81" s="12"/>
       <c r="E81" s="68"/>
-      <c r="F81" s="131" t="s">
+      <c r="F81" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="G81" s="134"/>
+      <c r="G81" s="132"/>
       <c r="H81" s="1"/>
       <c r="I81" s="5" t="s">
         <v>19</v>
@@ -14385,8 +14491,8 @@
       <c r="N81" s="11"/>
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
-      <c r="Q81" s="198"/>
-      <c r="R81" s="137"/>
+      <c r="Q81" s="163"/>
+      <c r="R81" s="135"/>
       <c r="S81" s="32"/>
       <c r="U81" s="8"/>
       <c r="V81" s="8"/>
@@ -14416,17 +14522,17 @@
       <c r="AU81" s="1"/>
     </row>
     <row r="82" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="174"/>
+      <c r="A82" s="201"/>
       <c r="B82" s="56"/>
       <c r="C82" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D82" s="12"/>
       <c r="E82" s="68"/>
-      <c r="F82" s="131" t="s">
+      <c r="F82" s="129" t="s">
         <v>105</v>
       </c>
-      <c r="G82" s="134"/>
+      <c r="G82" s="132"/>
       <c r="H82" s="1"/>
       <c r="I82" s="5" t="s">
         <v>19</v>
@@ -14442,8 +14548,8 @@
       <c r="N82" s="11"/>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
-      <c r="Q82" s="198"/>
-      <c r="R82" s="137"/>
+      <c r="Q82" s="163"/>
+      <c r="R82" s="135"/>
       <c r="S82" s="32"/>
       <c r="U82" s="8"/>
       <c r="V82" s="8"/>
@@ -14473,15 +14579,15 @@
       <c r="AU82" s="1"/>
     </row>
     <row r="83" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A83" s="174"/>
-      <c r="B83" s="81"/>
+      <c r="A83" s="201"/>
+      <c r="B83" s="80"/>
       <c r="C83" s="14" t="s">
         <v>123</v>
       </c>
       <c r="D83" s="12"/>
-      <c r="E83" s="82"/>
-      <c r="F83" s="131"/>
-      <c r="G83" s="134"/>
+      <c r="E83" s="81"/>
+      <c r="F83" s="129"/>
+      <c r="G83" s="132"/>
       <c r="H83" s="1"/>
       <c r="I83" s="5" t="s">
         <v>19</v>
@@ -14497,8 +14603,8 @@
       <c r="N83" s="11"/>
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
-      <c r="Q83" s="198"/>
-      <c r="R83" s="137"/>
+      <c r="Q83" s="163"/>
+      <c r="R83" s="135"/>
       <c r="S83" s="32"/>
       <c r="U83" s="8"/>
       <c r="V83" s="8"/>
@@ -14528,15 +14634,15 @@
       <c r="AU83" s="1"/>
     </row>
     <row r="84" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A84" s="174"/>
-      <c r="B84" s="81"/>
+      <c r="A84" s="201"/>
+      <c r="B84" s="80"/>
       <c r="C84" s="14" t="s">
         <v>124</v>
       </c>
       <c r="D84" s="12"/>
-      <c r="E84" s="82"/>
-      <c r="F84" s="131"/>
-      <c r="G84" s="134"/>
+      <c r="E84" s="81"/>
+      <c r="F84" s="129"/>
+      <c r="G84" s="132"/>
       <c r="H84" s="1"/>
       <c r="I84" s="5" t="s">
         <v>19</v>
@@ -14552,8 +14658,8 @@
       <c r="N84" s="11"/>
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
-      <c r="Q84" s="198"/>
-      <c r="R84" s="137"/>
+      <c r="Q84" s="163"/>
+      <c r="R84" s="135"/>
       <c r="S84" s="32"/>
       <c r="U84" s="8"/>
       <c r="V84" s="8"/>
@@ -14583,15 +14689,15 @@
       <c r="AU84" s="1"/>
     </row>
     <row r="85" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A85" s="174"/>
-      <c r="B85" s="81"/>
+      <c r="A85" s="201"/>
+      <c r="B85" s="80"/>
       <c r="C85" s="14" t="s">
         <v>125</v>
       </c>
       <c r="D85" s="12"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="131"/>
-      <c r="G85" s="134"/>
+      <c r="E85" s="81"/>
+      <c r="F85" s="129"/>
+      <c r="G85" s="132"/>
       <c r="H85" s="1"/>
       <c r="I85" s="5" t="s">
         <v>19</v>
@@ -14607,8 +14713,8 @@
       <c r="N85" s="11"/>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
-      <c r="Q85" s="198"/>
-      <c r="R85" s="137"/>
+      <c r="Q85" s="163"/>
+      <c r="R85" s="135"/>
       <c r="S85" s="32"/>
       <c r="U85" s="8"/>
       <c r="V85" s="8"/>
@@ -14638,15 +14744,15 @@
       <c r="AU85" s="1"/>
     </row>
     <row r="86" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A86" s="174"/>
-      <c r="B86" s="81"/>
+      <c r="A86" s="201"/>
+      <c r="B86" s="80"/>
       <c r="C86" s="14" t="s">
         <v>126</v>
       </c>
       <c r="D86" s="12"/>
-      <c r="E86" s="82"/>
-      <c r="F86" s="131"/>
-      <c r="G86" s="134"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="129"/>
+      <c r="G86" s="132"/>
       <c r="H86" s="1"/>
       <c r="I86" s="5" t="s">
         <v>19</v>
@@ -14662,8 +14768,8 @@
       </c>
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
-      <c r="Q86" s="198"/>
-      <c r="R86" s="137"/>
+      <c r="Q86" s="163"/>
+      <c r="R86" s="135"/>
       <c r="S86" s="32"/>
       <c r="U86" s="8"/>
       <c r="V86" s="8"/>
@@ -14693,17 +14799,17 @@
       <c r="AU86" s="1"/>
     </row>
     <row r="87" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="174"/>
+      <c r="A87" s="201"/>
       <c r="B87" s="56"/>
       <c r="C87" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D87" s="12"/>
       <c r="E87" s="68"/>
-      <c r="F87" s="131" t="s">
+      <c r="F87" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="G87" s="134"/>
+      <c r="G87" s="132"/>
       <c r="H87" s="1"/>
       <c r="I87" s="5" t="s">
         <v>19</v>
@@ -14719,8 +14825,8 @@
       <c r="N87" s="11"/>
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
-      <c r="Q87" s="198"/>
-      <c r="R87" s="137"/>
+      <c r="Q87" s="163"/>
+      <c r="R87" s="135"/>
       <c r="S87" s="32"/>
       <c r="U87" s="8"/>
       <c r="V87" s="8"/>
@@ -14750,17 +14856,17 @@
       <c r="AU87" s="1"/>
     </row>
     <row r="88" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="174"/>
+      <c r="A88" s="201"/>
       <c r="B88" s="56"/>
       <c r="C88" s="14" t="s">
         <v>63</v>
       </c>
       <c r="D88" s="12"/>
       <c r="E88" s="68"/>
-      <c r="F88" s="131" t="s">
+      <c r="F88" s="129" t="s">
         <v>106</v>
       </c>
-      <c r="G88" s="134"/>
+      <c r="G88" s="132"/>
       <c r="H88" s="1"/>
       <c r="I88" s="5" t="s">
         <v>19</v>
@@ -14774,8 +14880,8 @@
       <c r="N88" s="11"/>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
-      <c r="Q88" s="198"/>
-      <c r="R88" s="137"/>
+      <c r="Q88" s="163"/>
+      <c r="R88" s="135"/>
       <c r="S88" s="32"/>
       <c r="U88" s="8"/>
       <c r="V88" s="8"/>
@@ -14805,17 +14911,17 @@
       <c r="AU88" s="1"/>
     </row>
     <row r="89" spans="1:47" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="174"/>
+      <c r="A89" s="201"/>
       <c r="B89" s="56"/>
       <c r="C89" s="14" t="s">
         <v>64</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="68"/>
-      <c r="F89" s="131" t="s">
+      <c r="F89" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="G89" s="134"/>
+      <c r="G89" s="132"/>
       <c r="H89" s="1"/>
       <c r="I89" s="5" t="s">
         <v>19</v>
@@ -14831,8 +14937,8 @@
       <c r="N89" s="11"/>
       <c r="O89" s="6"/>
       <c r="P89" s="6"/>
-      <c r="Q89" s="198"/>
-      <c r="R89" s="137"/>
+      <c r="Q89" s="163"/>
+      <c r="R89" s="135"/>
       <c r="S89" s="32"/>
       <c r="U89" s="8"/>
       <c r="V89" s="8"/>
@@ -14862,17 +14968,17 @@
       <c r="AU89" s="1"/>
     </row>
     <row r="90" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="174"/>
+      <c r="A90" s="201"/>
       <c r="B90" s="56" t="s">
         <v>65</v>
       </c>
       <c r="C90" s="14"/>
       <c r="D90" s="12"/>
       <c r="E90" s="68"/>
-      <c r="F90" s="131" t="s">
+      <c r="F90" s="129" t="s">
         <v>108</v>
       </c>
-      <c r="G90" s="134"/>
+      <c r="G90" s="132"/>
       <c r="H90" s="1"/>
       <c r="I90" s="5" t="s">
         <v>19</v>
@@ -14888,8 +14994,8 @@
       <c r="N90" s="11"/>
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
-      <c r="Q90" s="198"/>
-      <c r="R90" s="137"/>
+      <c r="Q90" s="163"/>
+      <c r="R90" s="135"/>
       <c r="S90" s="32"/>
       <c r="U90" s="8"/>
       <c r="V90" s="8"/>
@@ -14919,7 +15025,7 @@
       <c r="AU90" s="1"/>
     </row>
     <row r="91" spans="1:47" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="174"/>
+      <c r="A91" s="201"/>
       <c r="B91" s="56" t="s">
         <v>66</v>
       </c>
@@ -14928,10 +15034,10 @@
       </c>
       <c r="D91" s="12"/>
       <c r="E91" s="68"/>
-      <c r="F91" s="131" t="s">
+      <c r="F91" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="G91" s="134"/>
+      <c r="G91" s="132"/>
       <c r="H91" s="1"/>
       <c r="I91" s="5" t="s">
         <v>19</v>
@@ -14945,8 +15051,8 @@
       <c r="N91" s="11"/>
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
-      <c r="Q91" s="198"/>
-      <c r="R91" s="137"/>
+      <c r="Q91" s="163"/>
+      <c r="R91" s="135"/>
       <c r="S91" s="32"/>
       <c r="U91" s="8"/>
       <c r="V91" s="8"/>
@@ -14976,15 +15082,15 @@
       <c r="AU91" s="1"/>
     </row>
     <row r="92" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A92" s="174"/>
-      <c r="B92" s="85"/>
+      <c r="A92" s="201"/>
+      <c r="B92" s="84"/>
       <c r="C92" s="14" t="s">
         <v>142</v>
       </c>
       <c r="D92" s="12"/>
-      <c r="E92" s="86"/>
-      <c r="F92" s="131"/>
-      <c r="G92" s="134"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="129"/>
+      <c r="G92" s="132"/>
       <c r="H92" s="1"/>
       <c r="I92" s="5"/>
       <c r="J92" s="1"/>
@@ -14994,8 +15100,8 @@
       <c r="N92" s="11"/>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
-      <c r="Q92" s="198"/>
-      <c r="R92" s="137"/>
+      <c r="Q92" s="163"/>
+      <c r="R92" s="135"/>
       <c r="S92" s="32"/>
       <c r="U92" s="8"/>
       <c r="V92" s="8"/>
@@ -15025,15 +15131,15 @@
       <c r="AU92" s="1"/>
     </row>
     <row r="93" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A93" s="174"/>
-      <c r="B93" s="85"/>
+      <c r="A93" s="201"/>
+      <c r="B93" s="84"/>
       <c r="C93" s="14" t="s">
         <v>143</v>
       </c>
       <c r="D93" s="12"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="131"/>
-      <c r="G93" s="134"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="129"/>
+      <c r="G93" s="132"/>
       <c r="H93" s="1"/>
       <c r="I93" s="5"/>
       <c r="J93" s="1"/>
@@ -15043,8 +15149,8 @@
       <c r="N93" s="11"/>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
-      <c r="Q93" s="198"/>
-      <c r="R93" s="137"/>
+      <c r="Q93" s="163"/>
+      <c r="R93" s="135"/>
       <c r="S93" s="32"/>
       <c r="U93" s="8"/>
       <c r="V93" s="8"/>
@@ -15074,17 +15180,17 @@
       <c r="AU93" s="1"/>
     </row>
     <row r="94" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="174"/>
+      <c r="A94" s="201"/>
       <c r="B94" s="56"/>
       <c r="C94" s="14" t="s">
         <v>144</v>
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="68"/>
-      <c r="F94" s="131" t="s">
+      <c r="F94" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="G94" s="134"/>
+      <c r="G94" s="132"/>
       <c r="H94" s="1"/>
       <c r="I94" s="5" t="s">
         <v>19</v>
@@ -15098,8 +15204,8 @@
       <c r="N94" s="11"/>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
-      <c r="Q94" s="198"/>
-      <c r="R94" s="137"/>
+      <c r="Q94" s="163"/>
+      <c r="R94" s="135"/>
       <c r="S94" s="32"/>
       <c r="U94" s="8"/>
       <c r="V94" s="8"/>
@@ -15129,17 +15235,17 @@
       <c r="AU94" s="1"/>
     </row>
     <row r="95" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="174"/>
+      <c r="A95" s="201"/>
       <c r="B95" s="56" t="s">
         <v>67</v>
       </c>
       <c r="C95" s="14"/>
       <c r="D95" s="12"/>
       <c r="E95" s="68"/>
-      <c r="F95" s="131" t="s">
+      <c r="F95" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="G95" s="134"/>
+      <c r="G95" s="132"/>
       <c r="H95" s="1"/>
       <c r="I95" s="5" t="s">
         <v>19</v>
@@ -15155,8 +15261,8 @@
       <c r="N95" s="11"/>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
-      <c r="Q95" s="198"/>
-      <c r="R95" s="137"/>
+      <c r="Q95" s="163"/>
+      <c r="R95" s="135"/>
       <c r="S95" s="32"/>
       <c r="U95" s="8"/>
       <c r="V95" s="8"/>
@@ -15186,17 +15292,17 @@
       <c r="AU95" s="1"/>
     </row>
     <row r="96" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="174"/>
+      <c r="A96" s="201"/>
       <c r="B96" s="56" t="s">
         <v>68</v>
       </c>
       <c r="C96" s="14"/>
       <c r="D96" s="12"/>
       <c r="E96" s="68"/>
-      <c r="F96" s="131" t="s">
+      <c r="F96" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="G96" s="134"/>
+      <c r="G96" s="132"/>
       <c r="H96" s="1"/>
       <c r="I96" s="5" t="s">
         <v>19</v>
@@ -15212,8 +15318,8 @@
       <c r="N96" s="11"/>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
-      <c r="Q96" s="198"/>
-      <c r="R96" s="137"/>
+      <c r="Q96" s="163"/>
+      <c r="R96" s="135"/>
       <c r="S96" s="32"/>
       <c r="U96" s="8"/>
       <c r="V96" s="8"/>
@@ -15243,17 +15349,17 @@
       <c r="AU96" s="1"/>
     </row>
     <row r="97" spans="1:47" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="174"/>
+      <c r="A97" s="201"/>
       <c r="B97" s="56" t="s">
         <v>69</v>
       </c>
       <c r="C97" s="14"/>
       <c r="D97" s="12"/>
       <c r="E97" s="68"/>
-      <c r="F97" s="119" t="s">
+      <c r="F97" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="G97" s="134"/>
+      <c r="G97" s="132"/>
       <c r="H97" s="1"/>
       <c r="I97" s="5" t="s">
         <v>19</v>
@@ -15269,8 +15375,8 @@
       <c r="N97" s="11"/>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
-      <c r="Q97" s="198"/>
-      <c r="R97" s="137"/>
+      <c r="Q97" s="163"/>
+      <c r="R97" s="135"/>
       <c r="S97" s="32"/>
       <c r="U97" s="8"/>
       <c r="V97" s="8"/>
@@ -15300,17 +15406,17 @@
       <c r="AU97" s="1"/>
     </row>
     <row r="98" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A98" s="174"/>
+      <c r="A98" s="201"/>
       <c r="B98" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C98" s="104" t="s">
+      <c r="C98" s="102" t="s">
         <v>119</v>
       </c>
       <c r="D98" s="48"/>
-      <c r="E98" s="75"/>
-      <c r="F98" s="131"/>
-      <c r="G98" s="134"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="129"/>
+      <c r="G98" s="132"/>
       <c r="H98" s="1"/>
       <c r="I98" s="5" t="s">
         <v>19</v>
@@ -15326,8 +15432,8 @@
       <c r="N98" s="11"/>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
-      <c r="Q98" s="198"/>
-      <c r="R98" s="137"/>
+      <c r="Q98" s="163"/>
+      <c r="R98" s="135"/>
       <c r="S98" s="32"/>
       <c r="U98" s="8"/>
       <c r="V98" s="8"/>
@@ -15357,17 +15463,17 @@
       <c r="AU98" s="1"/>
     </row>
     <row r="99" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A99" s="174"/>
+      <c r="A99" s="201"/>
       <c r="B99" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C99" s="104" t="s">
+      <c r="C99" s="102" t="s">
         <v>118</v>
       </c>
       <c r="D99" s="48"/>
-      <c r="E99" s="75"/>
-      <c r="F99" s="131"/>
-      <c r="G99" s="134"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="129"/>
+      <c r="G99" s="132"/>
       <c r="H99" s="1"/>
       <c r="I99" s="5" t="s">
         <v>19</v>
@@ -15383,8 +15489,8 @@
       <c r="N99" s="11"/>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
-      <c r="Q99" s="198"/>
-      <c r="R99" s="137"/>
+      <c r="Q99" s="163"/>
+      <c r="R99" s="135"/>
       <c r="S99" s="32"/>
       <c r="U99" s="8"/>
       <c r="V99" s="8"/>
@@ -15414,17 +15520,17 @@
       <c r="AU99" s="1"/>
     </row>
     <row r="100" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A100" s="174"/>
+      <c r="A100" s="201"/>
       <c r="B100" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C100" s="104" t="s">
+      <c r="C100" s="102" t="s">
         <v>120</v>
       </c>
       <c r="D100" s="48"/>
-      <c r="E100" s="75"/>
-      <c r="F100" s="131"/>
-      <c r="G100" s="134"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="129"/>
+      <c r="G100" s="132"/>
       <c r="H100" s="1"/>
       <c r="I100" s="5" t="s">
         <v>19</v>
@@ -15440,8 +15546,8 @@
       <c r="N100" s="11"/>
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
-      <c r="Q100" s="198"/>
-      <c r="R100" s="137"/>
+      <c r="Q100" s="163"/>
+      <c r="R100" s="135"/>
       <c r="S100" s="32"/>
       <c r="U100" s="8"/>
       <c r="V100" s="8"/>
@@ -15471,17 +15577,17 @@
       <c r="AU100" s="1"/>
     </row>
     <row r="101" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A101" s="174"/>
+      <c r="A101" s="201"/>
       <c r="B101" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="C101" s="104" t="s">
+      <c r="C101" s="102" t="s">
         <v>121</v>
       </c>
       <c r="D101" s="48"/>
-      <c r="E101" s="75"/>
-      <c r="F101" s="131"/>
-      <c r="G101" s="134"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="129"/>
+      <c r="G101" s="132"/>
       <c r="H101" s="1"/>
       <c r="I101" s="5" t="s">
         <v>19</v>
@@ -15497,8 +15603,8 @@
       <c r="N101" s="11"/>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
-      <c r="Q101" s="198"/>
-      <c r="R101" s="137"/>
+      <c r="Q101" s="163"/>
+      <c r="R101" s="135"/>
       <c r="S101" s="32"/>
       <c r="U101" s="8"/>
       <c r="V101" s="8"/>
@@ -15528,15 +15634,15 @@
       <c r="AU101" s="1"/>
     </row>
     <row r="102" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="174"/>
+      <c r="A102" s="201"/>
       <c r="B102" s="55"/>
-      <c r="C102" s="104"/>
+      <c r="C102" s="102"/>
       <c r="D102" s="48"/>
-      <c r="E102" s="75"/>
-      <c r="F102" s="136" t="s">
+      <c r="E102" s="74"/>
+      <c r="F102" s="134" t="s">
         <v>114</v>
       </c>
-      <c r="G102" s="135"/>
+      <c r="G102" s="133"/>
       <c r="H102" s="49"/>
       <c r="I102" s="51" t="s">
         <v>19</v>
@@ -15552,8 +15658,8 @@
       <c r="N102" s="52"/>
       <c r="O102" s="50"/>
       <c r="P102" s="50"/>
-      <c r="Q102" s="199"/>
-      <c r="R102" s="138"/>
+      <c r="Q102" s="164"/>
+      <c r="R102" s="136"/>
       <c r="S102" s="32"/>
       <c r="U102" s="8"/>
       <c r="V102" s="8"/>
@@ -15583,24 +15689,24 @@
       <c r="AU102" s="1"/>
     </row>
     <row r="103" spans="1:47" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="154" t="s">
+      <c r="A103" s="203" t="s">
         <v>71</v>
       </c>
-      <c r="B103" s="185" t="s">
+      <c r="B103" s="181" t="s">
         <v>72</v>
       </c>
-      <c r="C103" s="105" t="s">
+      <c r="C103" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="D103" s="76"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="139" t="s">
+      <c r="D103" s="75"/>
+      <c r="E103" s="76"/>
+      <c r="F103" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="G103" s="140"/>
-      <c r="H103" s="141"/>
-      <c r="I103" s="141"/>
-      <c r="J103" s="141"/>
+      <c r="G103" s="138"/>
+      <c r="H103" s="139"/>
+      <c r="I103" s="139"/>
+      <c r="J103" s="139"/>
       <c r="K103" s="34"/>
       <c r="L103" s="34"/>
       <c r="M103" s="36"/>
@@ -15609,8 +15715,8 @@
       </c>
       <c r="O103" s="35"/>
       <c r="P103" s="34"/>
-      <c r="Q103" s="200"/>
-      <c r="R103" s="142"/>
+      <c r="Q103" s="165"/>
+      <c r="R103" s="140"/>
       <c r="S103" s="33"/>
       <c r="U103" s="8"/>
       <c r="V103" s="8"/>
@@ -15640,17 +15746,17 @@
       <c r="AU103" s="1"/>
     </row>
     <row r="104" spans="1:47" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="155"/>
-      <c r="B104" s="186"/>
-      <c r="C104" s="106" t="s">
+      <c r="A104" s="204"/>
+      <c r="B104" s="182"/>
+      <c r="C104" s="104" t="s">
         <v>75</v>
       </c>
       <c r="D104" s="58"/>
       <c r="E104" s="69"/>
-      <c r="F104" s="139" t="s">
+      <c r="F104" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="G104" s="143"/>
+      <c r="G104" s="141"/>
       <c r="H104" s="22"/>
       <c r="I104" s="22"/>
       <c r="J104" s="22"/>
@@ -15662,7 +15768,7 @@
       </c>
       <c r="O104" s="6"/>
       <c r="P104" s="1"/>
-      <c r="Q104" s="192"/>
+      <c r="Q104" s="157"/>
       <c r="R104" s="54"/>
       <c r="S104" s="33"/>
       <c r="U104" s="8"/>
@@ -15693,17 +15799,17 @@
       <c r="AU104" s="1"/>
     </row>
     <row r="105" spans="1:47" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="155"/>
-      <c r="B105" s="186"/>
-      <c r="C105" s="106" t="s">
+      <c r="A105" s="204"/>
+      <c r="B105" s="182"/>
+      <c r="C105" s="104" t="s">
         <v>77</v>
       </c>
       <c r="D105" s="58"/>
       <c r="E105" s="69"/>
-      <c r="F105" s="139" t="s">
+      <c r="F105" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="G105" s="134"/>
+      <c r="G105" s="132"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -15715,7 +15821,7 @@
       </c>
       <c r="O105" s="6"/>
       <c r="P105" s="1"/>
-      <c r="Q105" s="192"/>
+      <c r="Q105" s="157"/>
       <c r="R105" s="54"/>
       <c r="S105" s="33"/>
       <c r="U105" s="8"/>
@@ -15746,17 +15852,17 @@
       <c r="AU105" s="1"/>
     </row>
     <row r="106" spans="1:47" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="156"/>
-      <c r="B106" s="187"/>
-      <c r="C106" s="107" t="s">
+      <c r="A106" s="205"/>
+      <c r="B106" s="183"/>
+      <c r="C106" s="105" t="s">
         <v>79</v>
       </c>
-      <c r="D106" s="78"/>
-      <c r="E106" s="79"/>
-      <c r="F106" s="139" t="s">
+      <c r="D106" s="77"/>
+      <c r="E106" s="78"/>
+      <c r="F106" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="G106" s="135"/>
+      <c r="G106" s="133"/>
       <c r="H106" s="49"/>
       <c r="I106" s="49"/>
       <c r="J106" s="49"/>
@@ -15768,8 +15874,8 @@
       </c>
       <c r="O106" s="50"/>
       <c r="P106" s="49"/>
-      <c r="Q106" s="201"/>
-      <c r="R106" s="144"/>
+      <c r="Q106" s="166"/>
+      <c r="R106" s="142"/>
       <c r="S106" s="33"/>
       <c r="U106" s="8"/>
       <c r="V106" s="8"/>
@@ -15799,63 +15905,63 @@
       <c r="AU106" s="1"/>
     </row>
     <row r="107" spans="1:47" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="166" t="s">
+      <c r="A107" s="206" t="s">
         <v>81</v>
       </c>
-      <c r="B107" s="74" t="s">
+      <c r="B107" s="73" t="s">
         <v>82</v>
       </c>
       <c r="C107" s="41" t="s">
         <v>83</v>
       </c>
       <c r="E107" s="67"/>
-      <c r="F107" s="145" t="s">
+      <c r="F107" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G107" s="148"/>
-      <c r="H107" s="149"/>
-      <c r="I107" s="149"/>
-      <c r="J107" s="149"/>
-      <c r="K107" s="149"/>
-      <c r="L107" s="149"/>
-      <c r="M107" s="149"/>
-      <c r="N107" s="149"/>
-      <c r="O107" s="149"/>
-      <c r="P107" s="149"/>
-      <c r="Q107" s="202"/>
-      <c r="R107" s="114" t="s">
+      <c r="G107" s="146"/>
+      <c r="H107" s="147"/>
+      <c r="I107" s="147"/>
+      <c r="J107" s="147"/>
+      <c r="K107" s="147"/>
+      <c r="L107" s="147"/>
+      <c r="M107" s="147"/>
+      <c r="N107" s="147"/>
+      <c r="O107" s="147"/>
+      <c r="P107" s="147"/>
+      <c r="Q107" s="167"/>
+      <c r="R107" s="112" t="s">
         <v>19</v>
       </c>
       <c r="S107" s="25"/>
     </row>
     <row r="108" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="167"/>
+      <c r="A108" s="207"/>
       <c r="B108" s="70"/>
       <c r="C108" s="3" t="s">
         <v>84</v>
       </c>
       <c r="E108" s="68"/>
-      <c r="F108" s="145" t="s">
+      <c r="F108" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G108" s="150"/>
-      <c r="H108" s="102"/>
-      <c r="I108" s="102"/>
-      <c r="J108" s="102"/>
-      <c r="K108" s="102"/>
-      <c r="L108" s="102"/>
-      <c r="M108" s="102"/>
-      <c r="N108" s="102"/>
-      <c r="O108" s="102"/>
-      <c r="P108" s="102"/>
-      <c r="Q108" s="203"/>
-      <c r="R108" s="115" t="s">
+      <c r="G108" s="148"/>
+      <c r="H108" s="101"/>
+      <c r="I108" s="101"/>
+      <c r="J108" s="101"/>
+      <c r="K108" s="101"/>
+      <c r="L108" s="101"/>
+      <c r="M108" s="101"/>
+      <c r="N108" s="101"/>
+      <c r="O108" s="101"/>
+      <c r="P108" s="101"/>
+      <c r="Q108" s="168"/>
+      <c r="R108" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S108" s="25"/>
     </row>
     <row r="109" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="152" t="s">
+      <c r="A109" s="196" t="s">
         <v>85</v>
       </c>
       <c r="B109" s="70"/>
@@ -15863,231 +15969,231 @@
         <v>86</v>
       </c>
       <c r="E109" s="68"/>
-      <c r="F109" s="145" t="s">
+      <c r="F109" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G109" s="150"/>
-      <c r="H109" s="102"/>
-      <c r="I109" s="102"/>
-      <c r="J109" s="102"/>
-      <c r="K109" s="102"/>
-      <c r="L109" s="102"/>
-      <c r="M109" s="102"/>
-      <c r="N109" s="102"/>
-      <c r="O109" s="102"/>
-      <c r="P109" s="102"/>
-      <c r="Q109" s="203"/>
-      <c r="R109" s="115" t="s">
+      <c r="G109" s="148"/>
+      <c r="H109" s="101"/>
+      <c r="I109" s="101"/>
+      <c r="J109" s="101"/>
+      <c r="K109" s="101"/>
+      <c r="L109" s="101"/>
+      <c r="M109" s="101"/>
+      <c r="N109" s="101"/>
+      <c r="O109" s="101"/>
+      <c r="P109" s="101"/>
+      <c r="Q109" s="168"/>
+      <c r="R109" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S109" s="25"/>
     </row>
     <row r="110" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="152"/>
+      <c r="A110" s="196"/>
       <c r="B110" s="70"/>
       <c r="C110" s="3" t="s">
         <v>87</v>
       </c>
       <c r="E110" s="68"/>
-      <c r="F110" s="145" t="s">
+      <c r="F110" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G110" s="150"/>
-      <c r="H110" s="102"/>
-      <c r="I110" s="102"/>
-      <c r="J110" s="102"/>
-      <c r="K110" s="102"/>
-      <c r="L110" s="102"/>
-      <c r="M110" s="102"/>
-      <c r="N110" s="102"/>
-      <c r="O110" s="102"/>
-      <c r="P110" s="102"/>
-      <c r="Q110" s="203"/>
-      <c r="R110" s="115" t="s">
+      <c r="G110" s="148"/>
+      <c r="H110" s="101"/>
+      <c r="I110" s="101"/>
+      <c r="J110" s="101"/>
+      <c r="K110" s="101"/>
+      <c r="L110" s="101"/>
+      <c r="M110" s="101"/>
+      <c r="N110" s="101"/>
+      <c r="O110" s="101"/>
+      <c r="P110" s="101"/>
+      <c r="Q110" s="168"/>
+      <c r="R110" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S110" s="25"/>
     </row>
     <row r="111" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A111" s="152"/>
+      <c r="A111" s="196"/>
       <c r="B111" s="70"/>
-      <c r="C111" s="109" t="s">
+      <c r="C111" s="107" t="s">
         <v>88</v>
       </c>
       <c r="E111" s="68"/>
-      <c r="F111" s="146"/>
-      <c r="G111" s="150"/>
-      <c r="H111" s="102"/>
-      <c r="I111" s="102"/>
-      <c r="J111" s="102"/>
-      <c r="K111" s="102"/>
-      <c r="L111" s="102"/>
-      <c r="M111" s="102"/>
-      <c r="N111" s="102"/>
-      <c r="O111" s="102"/>
-      <c r="P111" s="102"/>
-      <c r="Q111" s="203"/>
-      <c r="R111" s="115" t="s">
+      <c r="F111" s="144"/>
+      <c r="G111" s="148"/>
+      <c r="H111" s="101"/>
+      <c r="I111" s="101"/>
+      <c r="J111" s="101"/>
+      <c r="K111" s="101"/>
+      <c r="L111" s="101"/>
+      <c r="M111" s="101"/>
+      <c r="N111" s="101"/>
+      <c r="O111" s="101"/>
+      <c r="P111" s="101"/>
+      <c r="Q111" s="168"/>
+      <c r="R111" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S111" s="25"/>
     </row>
     <row r="112" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="152"/>
+      <c r="A112" s="196"/>
       <c r="B112" s="70"/>
       <c r="C112" s="3" t="s">
         <v>89</v>
       </c>
       <c r="E112" s="68"/>
-      <c r="F112" s="145" t="s">
+      <c r="F112" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G112" s="150"/>
-      <c r="H112" s="102"/>
-      <c r="I112" s="102"/>
-      <c r="J112" s="102"/>
-      <c r="K112" s="102"/>
-      <c r="L112" s="102"/>
-      <c r="M112" s="102"/>
-      <c r="N112" s="102"/>
-      <c r="O112" s="102"/>
-      <c r="P112" s="102"/>
-      <c r="Q112" s="203"/>
-      <c r="R112" s="115" t="s">
+      <c r="G112" s="148"/>
+      <c r="H112" s="101"/>
+      <c r="I112" s="101"/>
+      <c r="J112" s="101"/>
+      <c r="K112" s="101"/>
+      <c r="L112" s="101"/>
+      <c r="M112" s="101"/>
+      <c r="N112" s="101"/>
+      <c r="O112" s="101"/>
+      <c r="P112" s="101"/>
+      <c r="Q112" s="168"/>
+      <c r="R112" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S112" s="25"/>
     </row>
     <row r="113" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="152"/>
+      <c r="A113" s="196"/>
       <c r="B113" s="70"/>
       <c r="C113" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E113" s="68"/>
-      <c r="F113" s="145" t="s">
+      <c r="F113" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G113" s="150"/>
-      <c r="H113" s="102"/>
-      <c r="I113" s="102"/>
-      <c r="J113" s="102"/>
-      <c r="K113" s="102"/>
-      <c r="L113" s="102"/>
-      <c r="M113" s="102"/>
-      <c r="N113" s="102"/>
-      <c r="O113" s="102"/>
-      <c r="P113" s="102"/>
-      <c r="Q113" s="203"/>
-      <c r="R113" s="115" t="s">
+      <c r="G113" s="148"/>
+      <c r="H113" s="101"/>
+      <c r="I113" s="101"/>
+      <c r="J113" s="101"/>
+      <c r="K113" s="101"/>
+      <c r="L113" s="101"/>
+      <c r="M113" s="101"/>
+      <c r="N113" s="101"/>
+      <c r="O113" s="101"/>
+      <c r="P113" s="101"/>
+      <c r="Q113" s="168"/>
+      <c r="R113" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S113" s="25"/>
     </row>
     <row r="114" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A114" s="152"/>
+      <c r="A114" s="196"/>
       <c r="B114" s="70"/>
-      <c r="C114" s="109" t="s">
+      <c r="C114" s="107" t="s">
         <v>91</v>
       </c>
       <c r="E114" s="68"/>
-      <c r="F114" s="146"/>
-      <c r="G114" s="150"/>
-      <c r="H114" s="102"/>
-      <c r="I114" s="102"/>
-      <c r="J114" s="102"/>
-      <c r="K114" s="102"/>
-      <c r="L114" s="102"/>
-      <c r="M114" s="102"/>
-      <c r="N114" s="102"/>
-      <c r="O114" s="102"/>
-      <c r="P114" s="102"/>
-      <c r="Q114" s="203"/>
-      <c r="R114" s="115" t="s">
+      <c r="F114" s="144"/>
+      <c r="G114" s="148"/>
+      <c r="H114" s="101"/>
+      <c r="I114" s="101"/>
+      <c r="J114" s="101"/>
+      <c r="K114" s="101"/>
+      <c r="L114" s="101"/>
+      <c r="M114" s="101"/>
+      <c r="N114" s="101"/>
+      <c r="O114" s="101"/>
+      <c r="P114" s="101"/>
+      <c r="Q114" s="168"/>
+      <c r="R114" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S114" s="25"/>
     </row>
     <row r="115" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="152"/>
+      <c r="A115" s="196"/>
       <c r="B115" s="70"/>
       <c r="C115" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E115" s="68"/>
-      <c r="F115" s="145" t="s">
+      <c r="F115" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G115" s="150"/>
-      <c r="H115" s="102"/>
-      <c r="I115" s="102"/>
-      <c r="J115" s="102"/>
-      <c r="K115" s="102"/>
-      <c r="L115" s="102"/>
-      <c r="M115" s="102"/>
-      <c r="N115" s="102"/>
-      <c r="O115" s="102"/>
-      <c r="P115" s="102"/>
-      <c r="Q115" s="203"/>
-      <c r="R115" s="115" t="s">
+      <c r="G115" s="148"/>
+      <c r="H115" s="101"/>
+      <c r="I115" s="101"/>
+      <c r="J115" s="101"/>
+      <c r="K115" s="101"/>
+      <c r="L115" s="101"/>
+      <c r="M115" s="101"/>
+      <c r="N115" s="101"/>
+      <c r="O115" s="101"/>
+      <c r="P115" s="101"/>
+      <c r="Q115" s="168"/>
+      <c r="R115" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S115" s="25"/>
     </row>
     <row r="116" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="152"/>
+      <c r="A116" s="196"/>
       <c r="B116" s="70"/>
       <c r="C116" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E116" s="68"/>
-      <c r="F116" s="145" t="s">
+      <c r="F116" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G116" s="150"/>
-      <c r="H116" s="102"/>
-      <c r="I116" s="102"/>
-      <c r="J116" s="102"/>
-      <c r="K116" s="102"/>
-      <c r="L116" s="102"/>
-      <c r="M116" s="102"/>
-      <c r="N116" s="102"/>
-      <c r="O116" s="102"/>
-      <c r="P116" s="102"/>
-      <c r="Q116" s="203"/>
-      <c r="R116" s="115" t="s">
+      <c r="G116" s="148"/>
+      <c r="H116" s="101"/>
+      <c r="I116" s="101"/>
+      <c r="J116" s="101"/>
+      <c r="K116" s="101"/>
+      <c r="L116" s="101"/>
+      <c r="M116" s="101"/>
+      <c r="N116" s="101"/>
+      <c r="O116" s="101"/>
+      <c r="P116" s="101"/>
+      <c r="Q116" s="168"/>
+      <c r="R116" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S116" s="25"/>
     </row>
     <row r="117" spans="1:44" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="168"/>
+      <c r="A117" s="208"/>
       <c r="B117" s="70"/>
       <c r="C117" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E117" s="71"/>
-      <c r="F117" s="145" t="s">
+      <c r="F117" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G117" s="150"/>
-      <c r="H117" s="102"/>
-      <c r="I117" s="102"/>
-      <c r="J117" s="102"/>
-      <c r="K117" s="102"/>
-      <c r="L117" s="102"/>
-      <c r="M117" s="102"/>
-      <c r="N117" s="102"/>
-      <c r="O117" s="102"/>
-      <c r="P117" s="102"/>
-      <c r="Q117" s="203"/>
-      <c r="R117" s="115" t="s">
+      <c r="G117" s="148"/>
+      <c r="H117" s="101"/>
+      <c r="I117" s="101"/>
+      <c r="J117" s="101"/>
+      <c r="K117" s="101"/>
+      <c r="L117" s="101"/>
+      <c r="M117" s="101"/>
+      <c r="N117" s="101"/>
+      <c r="O117" s="101"/>
+      <c r="P117" s="101"/>
+      <c r="Q117" s="168"/>
+      <c r="R117" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S117" s="25"/>
     </row>
     <row r="118" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="168"/>
+      <c r="A118" s="208"/>
       <c r="B118" s="70" t="s">
         <v>95</v>
       </c>
@@ -16095,1521 +16201,1808 @@
         <v>83</v>
       </c>
       <c r="E118" s="71"/>
-      <c r="F118" s="145" t="s">
+      <c r="F118" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G118" s="150"/>
-      <c r="H118" s="102"/>
-      <c r="I118" s="102"/>
-      <c r="J118" s="102"/>
-      <c r="K118" s="102"/>
-      <c r="L118" s="102"/>
-      <c r="M118" s="102"/>
-      <c r="N118" s="102"/>
-      <c r="O118" s="102"/>
-      <c r="P118" s="102"/>
-      <c r="Q118" s="203"/>
-      <c r="R118" s="115" t="s">
+      <c r="G118" s="148"/>
+      <c r="H118" s="101"/>
+      <c r="I118" s="101"/>
+      <c r="J118" s="101"/>
+      <c r="K118" s="101"/>
+      <c r="L118" s="101"/>
+      <c r="M118" s="101"/>
+      <c r="N118" s="101"/>
+      <c r="O118" s="101"/>
+      <c r="P118" s="101"/>
+      <c r="Q118" s="168"/>
+      <c r="R118" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S118" s="25"/>
     </row>
     <row r="119" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="168"/>
+      <c r="A119" s="208"/>
       <c r="B119" s="70"/>
       <c r="C119" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E119" s="71"/>
-      <c r="F119" s="145" t="s">
+      <c r="F119" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G119" s="150"/>
-      <c r="H119" s="102"/>
-      <c r="I119" s="102"/>
-      <c r="J119" s="102"/>
-      <c r="K119" s="102"/>
-      <c r="L119" s="102"/>
-      <c r="M119" s="102"/>
-      <c r="N119" s="102"/>
-      <c r="O119" s="102"/>
-      <c r="P119" s="102"/>
-      <c r="Q119" s="203"/>
-      <c r="R119" s="115" t="s">
+      <c r="G119" s="148"/>
+      <c r="H119" s="101"/>
+      <c r="I119" s="101"/>
+      <c r="J119" s="101"/>
+      <c r="K119" s="101"/>
+      <c r="L119" s="101"/>
+      <c r="M119" s="101"/>
+      <c r="N119" s="101"/>
+      <c r="O119" s="101"/>
+      <c r="P119" s="101"/>
+      <c r="Q119" s="168"/>
+      <c r="R119" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S119" s="25"/>
     </row>
     <row r="120" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A120" s="168"/>
+      <c r="A120" s="208"/>
       <c r="B120" s="70"/>
-      <c r="C120" s="109" t="s">
+      <c r="C120" s="107" t="s">
         <v>91</v>
       </c>
       <c r="E120" s="71"/>
-      <c r="F120" s="147"/>
-      <c r="G120" s="150"/>
-      <c r="H120" s="102"/>
-      <c r="I120" s="102"/>
-      <c r="J120" s="102"/>
-      <c r="K120" s="102"/>
-      <c r="L120" s="102"/>
-      <c r="M120" s="102"/>
-      <c r="N120" s="102"/>
-      <c r="O120" s="102"/>
-      <c r="P120" s="102"/>
-      <c r="Q120" s="203"/>
-      <c r="R120" s="115" t="s">
+      <c r="F120" s="145"/>
+      <c r="G120" s="148"/>
+      <c r="H120" s="101"/>
+      <c r="I120" s="101"/>
+      <c r="J120" s="101"/>
+      <c r="K120" s="101"/>
+      <c r="L120" s="101"/>
+      <c r="M120" s="101"/>
+      <c r="N120" s="101"/>
+      <c r="O120" s="101"/>
+      <c r="P120" s="101"/>
+      <c r="Q120" s="168"/>
+      <c r="R120" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S120" s="25"/>
     </row>
     <row r="121" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="168"/>
+      <c r="A121" s="208"/>
       <c r="B121" s="70"/>
       <c r="C121" s="3" t="s">
         <v>92</v>
       </c>
       <c r="E121" s="71"/>
-      <c r="F121" s="145" t="s">
+      <c r="F121" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G121" s="150"/>
-      <c r="H121" s="102"/>
-      <c r="I121" s="102"/>
-      <c r="J121" s="102"/>
-      <c r="K121" s="102"/>
-      <c r="L121" s="102"/>
-      <c r="M121" s="102"/>
-      <c r="N121" s="102"/>
-      <c r="O121" s="102"/>
-      <c r="P121" s="102"/>
-      <c r="Q121" s="203"/>
-      <c r="R121" s="115" t="s">
+      <c r="G121" s="148"/>
+      <c r="H121" s="101"/>
+      <c r="I121" s="101"/>
+      <c r="J121" s="101"/>
+      <c r="K121" s="101"/>
+      <c r="L121" s="101"/>
+      <c r="M121" s="101"/>
+      <c r="N121" s="101"/>
+      <c r="O121" s="101"/>
+      <c r="P121" s="101"/>
+      <c r="Q121" s="168"/>
+      <c r="R121" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S121" s="25"/>
     </row>
     <row r="122" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="168"/>
+      <c r="A122" s="208"/>
       <c r="B122" s="70"/>
       <c r="C122" s="3" t="s">
         <v>93</v>
       </c>
       <c r="E122" s="71"/>
-      <c r="F122" s="145" t="s">
+      <c r="F122" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G122" s="150"/>
-      <c r="H122" s="102"/>
-      <c r="I122" s="102"/>
-      <c r="J122" s="102"/>
-      <c r="K122" s="102"/>
-      <c r="L122" s="102"/>
-      <c r="M122" s="102"/>
-      <c r="N122" s="102"/>
-      <c r="O122" s="102"/>
-      <c r="P122" s="102"/>
-      <c r="Q122" s="203"/>
-      <c r="R122" s="115" t="s">
+      <c r="G122" s="148"/>
+      <c r="H122" s="101"/>
+      <c r="I122" s="101"/>
+      <c r="J122" s="101"/>
+      <c r="K122" s="101"/>
+      <c r="L122" s="101"/>
+      <c r="M122" s="101"/>
+      <c r="N122" s="101"/>
+      <c r="O122" s="101"/>
+      <c r="P122" s="101"/>
+      <c r="Q122" s="168"/>
+      <c r="R122" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S122" s="25"/>
     </row>
     <row r="123" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="168"/>
+      <c r="A123" s="208"/>
       <c r="B123" s="70"/>
       <c r="C123" s="3" t="s">
         <v>94</v>
       </c>
       <c r="E123" s="71"/>
-      <c r="F123" s="145" t="s">
+      <c r="F123" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G123" s="150"/>
-      <c r="H123" s="102"/>
-      <c r="I123" s="102"/>
-      <c r="J123" s="102"/>
-      <c r="K123" s="102"/>
-      <c r="L123" s="102"/>
-      <c r="M123" s="102"/>
-      <c r="N123" s="102"/>
-      <c r="O123" s="102"/>
-      <c r="P123" s="102"/>
-      <c r="Q123" s="203"/>
-      <c r="R123" s="115" t="s">
+      <c r="G123" s="148"/>
+      <c r="H123" s="101"/>
+      <c r="I123" s="101"/>
+      <c r="J123" s="101"/>
+      <c r="K123" s="101"/>
+      <c r="L123" s="101"/>
+      <c r="M123" s="101"/>
+      <c r="N123" s="101"/>
+      <c r="O123" s="101"/>
+      <c r="P123" s="101"/>
+      <c r="Q123" s="168"/>
+      <c r="R123" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S123" s="25"/>
     </row>
     <row r="124" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="168"/>
+      <c r="A124" s="208"/>
       <c r="B124" s="70"/>
       <c r="C124" s="9" t="s">
         <v>148</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="71"/>
-      <c r="F124" s="145" t="s">
+      <c r="F124" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G124" s="150"/>
-      <c r="H124" s="102"/>
-      <c r="I124" s="102"/>
-      <c r="J124" s="108"/>
-      <c r="K124" s="102"/>
-      <c r="L124" s="102"/>
-      <c r="M124" s="102"/>
-      <c r="N124" s="102"/>
-      <c r="O124" s="102"/>
-      <c r="P124" s="102"/>
-      <c r="Q124" s="203"/>
-      <c r="R124" s="115" t="s">
+      <c r="G124" s="148"/>
+      <c r="H124" s="101"/>
+      <c r="I124" s="101"/>
+      <c r="J124" s="106"/>
+      <c r="K124" s="101"/>
+      <c r="L124" s="101"/>
+      <c r="M124" s="101"/>
+      <c r="N124" s="101"/>
+      <c r="O124" s="101"/>
+      <c r="P124" s="101"/>
+      <c r="Q124" s="168"/>
+      <c r="R124" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S124" s="25"/>
     </row>
     <row r="125" spans="1:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="168"/>
+      <c r="A125" s="208"/>
       <c r="B125" s="70"/>
       <c r="C125" s="9" t="s">
         <v>149</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="71"/>
-      <c r="F125" s="145" t="s">
+      <c r="F125" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G125" s="150"/>
-      <c r="H125" s="102"/>
-      <c r="I125" s="102"/>
-      <c r="J125" s="102"/>
-      <c r="K125" s="102"/>
-      <c r="L125" s="102"/>
-      <c r="M125" s="102"/>
-      <c r="N125" s="102"/>
-      <c r="O125" s="102"/>
-      <c r="P125" s="102"/>
-      <c r="Q125" s="203"/>
-      <c r="R125" s="115" t="s">
+      <c r="G125" s="148"/>
+      <c r="H125" s="101"/>
+      <c r="I125" s="101"/>
+      <c r="J125" s="101"/>
+      <c r="K125" s="101"/>
+      <c r="L125" s="101"/>
+      <c r="M125" s="101"/>
+      <c r="N125" s="101"/>
+      <c r="O125" s="101"/>
+      <c r="P125" s="101"/>
+      <c r="Q125" s="168"/>
+      <c r="R125" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S125" s="25"/>
     </row>
     <row r="126" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="168"/>
+      <c r="A126" s="208"/>
       <c r="B126" s="70"/>
       <c r="C126" s="9" t="s">
         <v>150</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="71"/>
-      <c r="F126" s="145" t="s">
+      <c r="F126" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G126" s="150"/>
-      <c r="H126" s="102"/>
-      <c r="I126" s="102"/>
-      <c r="J126" s="102"/>
-      <c r="K126" s="102"/>
-      <c r="L126" s="102"/>
-      <c r="M126" s="102"/>
-      <c r="N126" s="102"/>
-      <c r="O126" s="102"/>
-      <c r="P126" s="102"/>
-      <c r="Q126" s="203"/>
-      <c r="R126" s="115" t="s">
+      <c r="G126" s="148"/>
+      <c r="H126" s="101"/>
+      <c r="I126" s="101"/>
+      <c r="J126" s="101"/>
+      <c r="K126" s="101"/>
+      <c r="L126" s="101"/>
+      <c r="M126" s="101"/>
+      <c r="N126" s="101"/>
+      <c r="O126" s="101"/>
+      <c r="P126" s="101"/>
+      <c r="Q126" s="168"/>
+      <c r="R126" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S126" s="25"/>
     </row>
     <row r="127" spans="1:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="168"/>
+      <c r="A127" s="208"/>
       <c r="B127" s="70" t="s">
         <v>96</v>
       </c>
       <c r="E127" s="71"/>
-      <c r="F127" s="145" t="s">
+      <c r="F127" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G127" s="150"/>
-      <c r="H127" s="102"/>
-      <c r="I127" s="102"/>
-      <c r="J127" s="102"/>
-      <c r="K127" s="102"/>
-      <c r="L127" s="102"/>
-      <c r="M127" s="102"/>
-      <c r="N127" s="102"/>
-      <c r="O127" s="102"/>
-      <c r="P127" s="102"/>
+      <c r="G127" s="148"/>
+      <c r="H127" s="101"/>
+      <c r="I127" s="101"/>
+      <c r="J127" s="101"/>
+      <c r="K127" s="101"/>
+      <c r="L127" s="101"/>
+      <c r="M127" s="101"/>
+      <c r="N127" s="101"/>
+      <c r="O127" s="101"/>
+      <c r="P127" s="101"/>
       <c r="Q127" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R127" s="204" t="s">
+      <c r="R127" s="169" t="s">
         <v>19</v>
       </c>
       <c r="S127" s="25"/>
-      <c r="T127" s="102"/>
-      <c r="U127" s="102"/>
-      <c r="V127" s="102"/>
-      <c r="W127" s="102"/>
-      <c r="X127" s="102"/>
-      <c r="Y127" s="102"/>
-      <c r="Z127" s="102"/>
-      <c r="AA127" s="102"/>
-      <c r="AB127" s="102"/>
-      <c r="AC127" s="102"/>
-      <c r="AD127" s="102"/>
-      <c r="AE127" s="102"/>
-      <c r="AF127" s="102"/>
-      <c r="AG127" s="102"/>
-      <c r="AH127" s="102"/>
-      <c r="AI127" s="102"/>
-      <c r="AJ127" s="102"/>
-      <c r="AK127" s="102"/>
-      <c r="AL127" s="102"/>
-      <c r="AM127" s="102"/>
-      <c r="AN127" s="102"/>
-      <c r="AO127" s="102"/>
-      <c r="AP127" s="102"/>
-      <c r="AQ127" s="102"/>
-      <c r="AR127" s="102"/>
+      <c r="T127" s="101"/>
+      <c r="U127" s="101"/>
+      <c r="V127" s="101"/>
+      <c r="W127" s="101"/>
+      <c r="X127" s="101"/>
+      <c r="Y127" s="101"/>
+      <c r="Z127" s="101"/>
+      <c r="AA127" s="101"/>
+      <c r="AB127" s="101"/>
+      <c r="AC127" s="101"/>
+      <c r="AD127" s="101"/>
+      <c r="AE127" s="101"/>
+      <c r="AF127" s="101"/>
+      <c r="AG127" s="101"/>
+      <c r="AH127" s="101"/>
+      <c r="AI127" s="101"/>
+      <c r="AJ127" s="101"/>
+      <c r="AK127" s="101"/>
+      <c r="AL127" s="101"/>
+      <c r="AM127" s="101"/>
+      <c r="AN127" s="101"/>
+      <c r="AO127" s="101"/>
+      <c r="AP127" s="101"/>
+      <c r="AQ127" s="101"/>
+      <c r="AR127" s="101"/>
     </row>
     <row r="128" spans="1:44" s="31" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="168"/>
+      <c r="A128" s="208"/>
       <c r="B128" s="70" t="s">
         <v>97</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
       <c r="E128" s="71"/>
-      <c r="F128" s="145" t="s">
+      <c r="F128" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G128" s="150"/>
-      <c r="H128" s="102"/>
-      <c r="I128" s="102"/>
-      <c r="J128" s="102"/>
-      <c r="K128" s="102"/>
-      <c r="L128" s="102"/>
-      <c r="M128" s="102"/>
-      <c r="N128" s="102"/>
-      <c r="O128" s="102"/>
-      <c r="P128" s="102"/>
+      <c r="G128" s="148"/>
+      <c r="H128" s="101"/>
+      <c r="I128" s="101"/>
+      <c r="J128" s="101"/>
+      <c r="K128" s="101"/>
+      <c r="L128" s="101"/>
+      <c r="M128" s="101"/>
+      <c r="N128" s="101"/>
+      <c r="O128" s="101"/>
+      <c r="P128" s="101"/>
       <c r="Q128" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R128" s="115" t="s">
+      <c r="R128" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S128" s="25"/>
-      <c r="T128" s="102"/>
-      <c r="U128" s="102"/>
-      <c r="V128" s="102"/>
-      <c r="W128" s="102"/>
-      <c r="X128" s="102"/>
-      <c r="Y128" s="102"/>
-      <c r="Z128" s="102"/>
-      <c r="AA128" s="102"/>
-      <c r="AB128" s="102"/>
-      <c r="AC128" s="102"/>
-      <c r="AD128" s="102"/>
-      <c r="AE128" s="102"/>
-      <c r="AF128" s="102"/>
-      <c r="AG128" s="102"/>
-      <c r="AH128" s="102"/>
-      <c r="AI128" s="102"/>
-      <c r="AJ128" s="102"/>
-      <c r="AK128" s="102"/>
-      <c r="AL128" s="102"/>
-      <c r="AM128" s="102"/>
-      <c r="AN128" s="102"/>
-      <c r="AO128" s="102"/>
-      <c r="AP128" s="102"/>
-      <c r="AQ128" s="102"/>
-      <c r="AR128" s="102"/>
+      <c r="T128" s="101"/>
+      <c r="U128" s="101"/>
+      <c r="V128" s="101"/>
+      <c r="W128" s="101"/>
+      <c r="X128" s="101"/>
+      <c r="Y128" s="101"/>
+      <c r="Z128" s="101"/>
+      <c r="AA128" s="101"/>
+      <c r="AB128" s="101"/>
+      <c r="AC128" s="101"/>
+      <c r="AD128" s="101"/>
+      <c r="AE128" s="101"/>
+      <c r="AF128" s="101"/>
+      <c r="AG128" s="101"/>
+      <c r="AH128" s="101"/>
+      <c r="AI128" s="101"/>
+      <c r="AJ128" s="101"/>
+      <c r="AK128" s="101"/>
+      <c r="AL128" s="101"/>
+      <c r="AM128" s="101"/>
+      <c r="AN128" s="101"/>
+      <c r="AO128" s="101"/>
+      <c r="AP128" s="101"/>
+      <c r="AQ128" s="101"/>
+      <c r="AR128" s="101"/>
     </row>
-    <row r="129" spans="1:44" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="168"/>
+    <row r="129" spans="1:47" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="208"/>
       <c r="B129" s="70" t="s">
         <v>98</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="9"/>
       <c r="E129" s="71"/>
-      <c r="F129" s="145" t="s">
+      <c r="F129" s="143" t="s">
         <v>116</v>
       </c>
-      <c r="G129" s="150"/>
-      <c r="H129" s="102"/>
-      <c r="I129" s="102"/>
-      <c r="J129" s="102"/>
-      <c r="K129" s="102"/>
-      <c r="L129" s="102"/>
-      <c r="M129" s="102"/>
-      <c r="N129" s="102"/>
-      <c r="O129" s="102"/>
-      <c r="P129" s="102"/>
+      <c r="G129" s="148"/>
+      <c r="H129" s="101"/>
+      <c r="I129" s="101"/>
+      <c r="J129" s="101"/>
+      <c r="K129" s="101"/>
+      <c r="L129" s="101"/>
+      <c r="M129" s="101"/>
+      <c r="N129" s="101"/>
+      <c r="O129" s="101"/>
+      <c r="P129" s="101"/>
       <c r="Q129" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R129" s="115" t="s">
+      <c r="R129" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S129" s="25"/>
-      <c r="T129" s="102"/>
-      <c r="U129" s="102"/>
-      <c r="V129" s="102"/>
-      <c r="W129" s="102"/>
-      <c r="X129" s="102"/>
-      <c r="Y129" s="102"/>
-      <c r="Z129" s="102"/>
-      <c r="AA129" s="102"/>
-      <c r="AB129" s="102"/>
-      <c r="AC129" s="102"/>
-      <c r="AD129" s="102"/>
-      <c r="AE129" s="102"/>
-      <c r="AF129" s="102"/>
-      <c r="AG129" s="102"/>
-      <c r="AH129" s="102"/>
-      <c r="AI129" s="102"/>
-      <c r="AJ129" s="102"/>
-      <c r="AK129" s="102"/>
-      <c r="AL129" s="102"/>
-      <c r="AM129" s="102"/>
-      <c r="AN129" s="102"/>
-      <c r="AO129" s="102"/>
-      <c r="AP129" s="102"/>
-      <c r="AQ129" s="102"/>
-      <c r="AR129" s="102"/>
+      <c r="T129" s="101"/>
+      <c r="U129" s="101"/>
+      <c r="V129" s="101"/>
+      <c r="W129" s="101"/>
+      <c r="X129" s="101"/>
+      <c r="Y129" s="101"/>
+      <c r="Z129" s="101"/>
+      <c r="AA129" s="101"/>
+      <c r="AB129" s="101"/>
+      <c r="AC129" s="101"/>
+      <c r="AD129" s="101"/>
+      <c r="AE129" s="101"/>
+      <c r="AF129" s="101"/>
+      <c r="AG129" s="101"/>
+      <c r="AH129" s="101"/>
+      <c r="AI129" s="101"/>
+      <c r="AJ129" s="101"/>
+      <c r="AK129" s="101"/>
+      <c r="AL129" s="101"/>
+      <c r="AM129" s="101"/>
+      <c r="AN129" s="101"/>
+      <c r="AO129" s="101"/>
+      <c r="AP129" s="101"/>
+      <c r="AQ129" s="101"/>
+      <c r="AR129" s="101"/>
     </row>
-    <row r="130" spans="1:44" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="168"/>
+    <row r="130" spans="1:47" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="208"/>
       <c r="B130" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="C130" s="108"/>
-      <c r="D130" s="108"/>
+      <c r="C130" s="106"/>
+      <c r="D130" s="106"/>
       <c r="E130" s="71"/>
-      <c r="F130" s="145"/>
-      <c r="G130" s="150"/>
-      <c r="H130" s="108"/>
-      <c r="I130" s="108"/>
-      <c r="J130" s="108"/>
-      <c r="K130" s="108"/>
-      <c r="L130" s="108"/>
-      <c r="M130" s="108"/>
-      <c r="N130" s="108"/>
-      <c r="O130" s="108"/>
-      <c r="P130" s="108"/>
+      <c r="F130" s="143"/>
+      <c r="G130" s="148"/>
+      <c r="H130" s="106"/>
+      <c r="I130" s="106"/>
+      <c r="J130" s="106"/>
+      <c r="K130" s="106"/>
+      <c r="L130" s="106"/>
+      <c r="M130" s="106"/>
+      <c r="N130" s="106"/>
+      <c r="O130" s="106"/>
+      <c r="P130" s="106"/>
       <c r="Q130" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R130" s="115"/>
+      <c r="R130" s="113"/>
       <c r="S130" s="25"/>
-      <c r="T130" s="108"/>
-      <c r="U130" s="108"/>
-      <c r="V130" s="108"/>
-      <c r="W130" s="108"/>
-      <c r="X130" s="108"/>
-      <c r="Y130" s="108"/>
-      <c r="Z130" s="108"/>
-      <c r="AA130" s="108"/>
-      <c r="AB130" s="108"/>
-      <c r="AC130" s="108"/>
-      <c r="AD130" s="108"/>
-      <c r="AE130" s="108"/>
-      <c r="AF130" s="108"/>
-      <c r="AG130" s="108"/>
-      <c r="AH130" s="108"/>
-      <c r="AI130" s="108"/>
-      <c r="AJ130" s="108"/>
-      <c r="AK130" s="108"/>
-      <c r="AL130" s="108"/>
-      <c r="AM130" s="108"/>
-      <c r="AN130" s="108"/>
-      <c r="AO130" s="108"/>
-      <c r="AP130" s="108"/>
-      <c r="AQ130" s="108"/>
-      <c r="AR130" s="108"/>
+      <c r="T130" s="106"/>
+      <c r="U130" s="106"/>
+      <c r="V130" s="106"/>
+      <c r="W130" s="106"/>
+      <c r="X130" s="106"/>
+      <c r="Y130" s="106"/>
+      <c r="Z130" s="106"/>
+      <c r="AA130" s="106"/>
+      <c r="AB130" s="106"/>
+      <c r="AC130" s="106"/>
+      <c r="AD130" s="106"/>
+      <c r="AE130" s="106"/>
+      <c r="AF130" s="106"/>
+      <c r="AG130" s="106"/>
+      <c r="AH130" s="106"/>
+      <c r="AI130" s="106"/>
+      <c r="AJ130" s="106"/>
+      <c r="AK130" s="106"/>
+      <c r="AL130" s="106"/>
+      <c r="AM130" s="106"/>
+      <c r="AN130" s="106"/>
+      <c r="AO130" s="106"/>
+      <c r="AP130" s="106"/>
+      <c r="AQ130" s="106"/>
+      <c r="AR130" s="106"/>
     </row>
-    <row r="131" spans="1:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="168"/>
+    <row r="131" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="208"/>
       <c r="B131" s="70" t="s">
         <v>99</v>
       </c>
       <c r="E131" s="71"/>
-      <c r="F131" s="145" t="s">
+      <c r="F131" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G131" s="150"/>
-      <c r="H131" s="102"/>
-      <c r="I131" s="102"/>
-      <c r="J131" s="102"/>
-      <c r="K131" s="102"/>
-      <c r="L131" s="102"/>
-      <c r="M131" s="102"/>
-      <c r="N131" s="102"/>
-      <c r="O131" s="102"/>
-      <c r="P131" s="102"/>
+      <c r="G131" s="148"/>
+      <c r="H131" s="101"/>
+      <c r="I131" s="101"/>
+      <c r="J131" s="101"/>
+      <c r="K131" s="101"/>
+      <c r="L131" s="101"/>
+      <c r="M131" s="101"/>
+      <c r="N131" s="101"/>
+      <c r="O131" s="101"/>
+      <c r="P131" s="101"/>
       <c r="Q131" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R131" s="115" t="s">
+      <c r="R131" s="113" t="s">
         <v>19</v>
       </c>
       <c r="S131" s="25"/>
-      <c r="T131" s="102"/>
-      <c r="U131" s="102"/>
-      <c r="V131" s="102"/>
-      <c r="W131" s="102"/>
-      <c r="X131" s="102"/>
-      <c r="Y131" s="102"/>
-      <c r="Z131" s="102"/>
-      <c r="AA131" s="102"/>
-      <c r="AB131" s="102"/>
-      <c r="AC131" s="102"/>
-      <c r="AD131" s="102"/>
-      <c r="AE131" s="102"/>
-      <c r="AF131" s="102"/>
-      <c r="AG131" s="102"/>
-      <c r="AH131" s="102"/>
-      <c r="AI131" s="102"/>
-      <c r="AJ131" s="102"/>
-      <c r="AK131" s="102"/>
-      <c r="AL131" s="102"/>
-      <c r="AM131" s="102"/>
-      <c r="AN131" s="102"/>
-      <c r="AO131" s="102"/>
-      <c r="AP131" s="102"/>
-      <c r="AQ131" s="102"/>
-      <c r="AR131" s="102"/>
+      <c r="T131" s="101"/>
+      <c r="U131" s="101"/>
+      <c r="V131" s="101"/>
+      <c r="W131" s="101"/>
+      <c r="X131" s="101"/>
+      <c r="Y131" s="101"/>
+      <c r="Z131" s="101"/>
+      <c r="AA131" s="101"/>
+      <c r="AB131" s="101"/>
+      <c r="AC131" s="101"/>
+      <c r="AD131" s="101"/>
+      <c r="AE131" s="101"/>
+      <c r="AF131" s="101"/>
+      <c r="AG131" s="101"/>
+      <c r="AH131" s="101"/>
+      <c r="AI131" s="101"/>
+      <c r="AJ131" s="101"/>
+      <c r="AK131" s="101"/>
+      <c r="AL131" s="101"/>
+      <c r="AM131" s="101"/>
+      <c r="AN131" s="101"/>
+      <c r="AO131" s="101"/>
+      <c r="AP131" s="101"/>
+      <c r="AQ131" s="101"/>
+      <c r="AR131" s="101"/>
     </row>
-    <row r="132" spans="1:44" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="169"/>
-      <c r="B132" s="72" t="s">
+    <row r="132" spans="1:47" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="209"/>
+      <c r="B132" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="C132" s="31"/>
-      <c r="D132" s="31"/>
-      <c r="E132" s="73"/>
-      <c r="F132" s="145" t="s">
+      <c r="C132" s="47"/>
+      <c r="D132" s="47"/>
+      <c r="E132" s="212"/>
+      <c r="F132" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G132" s="151"/>
-      <c r="H132" s="103"/>
-      <c r="I132" s="103"/>
-      <c r="J132" s="103"/>
-      <c r="K132" s="103"/>
-      <c r="L132" s="103"/>
-      <c r="M132" s="103"/>
-      <c r="N132" s="103"/>
-      <c r="O132" s="103"/>
-      <c r="P132" s="103"/>
-      <c r="Q132" s="205" t="s">
-        <v>19</v>
-      </c>
-      <c r="R132" s="118" t="s">
+      <c r="G132" s="220"/>
+      <c r="H132" s="47"/>
+      <c r="I132" s="47"/>
+      <c r="J132" s="47"/>
+      <c r="K132" s="47"/>
+      <c r="L132" s="47"/>
+      <c r="M132" s="47"/>
+      <c r="N132" s="47"/>
+      <c r="O132" s="47"/>
+      <c r="P132" s="47"/>
+      <c r="Q132" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="R132" s="123" t="s">
         <v>19</v>
       </c>
       <c r="S132" s="25"/>
-      <c r="T132" s="102"/>
-      <c r="U132" s="102"/>
-      <c r="V132" s="102"/>
-      <c r="W132" s="102"/>
-      <c r="X132" s="102"/>
-      <c r="Y132" s="102"/>
-      <c r="Z132" s="102"/>
-      <c r="AA132" s="102"/>
-      <c r="AB132" s="102"/>
-      <c r="AC132" s="102"/>
-      <c r="AD132" s="102"/>
-      <c r="AE132" s="102"/>
-      <c r="AF132" s="102"/>
-      <c r="AG132" s="102"/>
-      <c r="AH132" s="102"/>
-      <c r="AI132" s="102"/>
-      <c r="AJ132" s="102"/>
-      <c r="AK132" s="102"/>
-      <c r="AL132" s="102"/>
-      <c r="AM132" s="102"/>
-      <c r="AN132" s="102"/>
-      <c r="AO132" s="102"/>
-      <c r="AP132" s="102"/>
-      <c r="AQ132" s="102"/>
-      <c r="AR132" s="102"/>
+      <c r="T132" s="101"/>
+      <c r="U132" s="101"/>
+      <c r="V132" s="101"/>
+      <c r="W132" s="101"/>
+      <c r="X132" s="101"/>
+      <c r="Y132" s="101"/>
+      <c r="Z132" s="101"/>
+      <c r="AA132" s="101"/>
+      <c r="AB132" s="101"/>
+      <c r="AC132" s="101"/>
+      <c r="AD132" s="101"/>
+      <c r="AE132" s="101"/>
+      <c r="AF132" s="101"/>
+      <c r="AG132" s="101"/>
+      <c r="AH132" s="101"/>
+      <c r="AI132" s="101"/>
+      <c r="AJ132" s="101"/>
+      <c r="AK132" s="101"/>
+      <c r="AL132" s="101"/>
+      <c r="AM132" s="101"/>
+      <c r="AN132" s="101"/>
+      <c r="AO132" s="101"/>
+      <c r="AP132" s="101"/>
+      <c r="AQ132" s="101"/>
+      <c r="AR132" s="101"/>
     </row>
-    <row r="133" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A133" s="26"/>
-      <c r="B133" s="53"/>
-      <c r="C133" s="26"/>
-      <c r="D133" s="26"/>
-      <c r="E133" s="59"/>
-      <c r="G133" s="26"/>
-      <c r="H133" s="26"/>
-      <c r="I133" s="26"/>
-      <c r="J133" s="26"/>
-      <c r="K133" s="26"/>
-      <c r="L133" s="26"/>
-      <c r="M133" s="26"/>
-      <c r="N133" s="26"/>
-      <c r="O133" s="26"/>
-      <c r="P133" s="26"/>
-      <c r="Q133" s="26"/>
-      <c r="R133" s="26"/>
-      <c r="S133" s="102"/>
-      <c r="T133" s="102"/>
-      <c r="U133" s="102"/>
-      <c r="V133" s="102"/>
-      <c r="W133" s="102"/>
-      <c r="X133" s="102"/>
-      <c r="Y133" s="102"/>
-      <c r="Z133" s="102"/>
-      <c r="AA133" s="102"/>
-      <c r="AB133" s="102"/>
-      <c r="AC133" s="102"/>
-      <c r="AD133" s="102"/>
-      <c r="AE133" s="102"/>
-      <c r="AF133" s="102"/>
-      <c r="AG133" s="102"/>
-      <c r="AH133" s="102"/>
-      <c r="AI133" s="102"/>
-      <c r="AJ133" s="102"/>
-      <c r="AK133" s="102"/>
-      <c r="AL133" s="102"/>
-      <c r="AM133" s="102"/>
-      <c r="AN133" s="102"/>
-      <c r="AO133" s="102"/>
-      <c r="AP133" s="102"/>
-      <c r="AQ133" s="102"/>
-      <c r="AR133" s="102"/>
+    <row r="133" spans="1:47" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="213" t="s">
+        <v>195</v>
+      </c>
+      <c r="B133" s="216" t="s">
+        <v>196</v>
+      </c>
+      <c r="C133" s="152"/>
+      <c r="D133" s="139"/>
+      <c r="E133" s="149"/>
+      <c r="F133" s="195" t="s">
+        <v>74</v>
+      </c>
+      <c r="G133" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="H133" s="139"/>
+      <c r="I133" s="139"/>
+      <c r="J133" s="139"/>
+      <c r="K133" s="34"/>
+      <c r="L133" s="34"/>
+      <c r="M133" s="36"/>
+      <c r="N133" s="36"/>
+      <c r="O133" s="35"/>
+      <c r="P133" s="34"/>
+      <c r="Q133" s="34"/>
+      <c r="R133" s="140"/>
+      <c r="S133" s="33"/>
+      <c r="U133" s="8"/>
+      <c r="V133" s="8"/>
+      <c r="W133" s="8"/>
+      <c r="X133" s="8"/>
+      <c r="Y133" s="8"/>
+      <c r="Z133" s="8"/>
+      <c r="AA133" s="8"/>
+      <c r="AB133" s="8"/>
+      <c r="AC133" s="8"/>
+      <c r="AD133" s="8"/>
+      <c r="AE133" s="8"/>
+      <c r="AF133" s="8"/>
+      <c r="AG133" s="8"/>
+      <c r="AH133" s="8"/>
+      <c r="AI133" s="8"/>
+      <c r="AJ133" s="8"/>
+      <c r="AL133" s="1"/>
+      <c r="AM133" s="1"/>
+      <c r="AN133" s="1"/>
+      <c r="AO133" s="1"/>
+      <c r="AP133" s="6"/>
+      <c r="AQ133" s="1"/>
+      <c r="AR133" s="1"/>
+      <c r="AS133" s="1"/>
+      <c r="AT133" s="1"/>
+      <c r="AU133" s="1"/>
     </row>
-    <row r="134" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S134" s="102"/>
-      <c r="T134" s="102"/>
-      <c r="U134" s="102"/>
-      <c r="V134" s="102"/>
-      <c r="W134" s="102"/>
-      <c r="X134" s="102"/>
-      <c r="Y134" s="102"/>
-      <c r="Z134" s="102"/>
-      <c r="AA134" s="102"/>
-      <c r="AB134" s="102"/>
-      <c r="AC134" s="102"/>
-      <c r="AD134" s="102"/>
-      <c r="AE134" s="102"/>
-      <c r="AF134" s="102"/>
-      <c r="AG134" s="102"/>
-      <c r="AH134" s="102"/>
-      <c r="AI134" s="102"/>
-      <c r="AJ134" s="102"/>
-      <c r="AK134" s="102"/>
-      <c r="AL134" s="102"/>
-      <c r="AM134" s="102"/>
-      <c r="AN134" s="102"/>
-      <c r="AO134" s="102"/>
-      <c r="AP134" s="102"/>
-      <c r="AQ134" s="102"/>
-      <c r="AR134" s="102"/>
+    <row r="134" spans="1:47" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="214"/>
+      <c r="B134" s="217" t="s">
+        <v>197</v>
+      </c>
+      <c r="C134" s="151"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="150"/>
+      <c r="F134" s="195" t="s">
+        <v>76</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
+      <c r="J134" s="22"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="5"/>
+      <c r="N134" s="5"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="54"/>
+      <c r="S134" s="33"/>
+      <c r="U134" s="8"/>
+      <c r="V134" s="8"/>
+      <c r="W134" s="8"/>
+      <c r="X134" s="8"/>
+      <c r="Y134" s="8"/>
+      <c r="Z134" s="8"/>
+      <c r="AA134" s="8"/>
+      <c r="AB134" s="8"/>
+      <c r="AC134" s="8"/>
+      <c r="AD134" s="8"/>
+      <c r="AE134" s="8"/>
+      <c r="AF134" s="8"/>
+      <c r="AG134" s="8"/>
+      <c r="AH134" s="8"/>
+      <c r="AI134" s="8"/>
+      <c r="AJ134" s="8"/>
+      <c r="AL134" s="1"/>
+      <c r="AM134" s="1"/>
+      <c r="AN134" s="1"/>
+      <c r="AO134" s="1"/>
+      <c r="AP134" s="6"/>
+      <c r="AQ134" s="1"/>
+      <c r="AR134" s="1"/>
+      <c r="AS134" s="1"/>
+      <c r="AT134" s="1"/>
+      <c r="AU134" s="1"/>
     </row>
-    <row r="135" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S135" s="102"/>
-      <c r="T135" s="102"/>
-      <c r="U135" s="102"/>
-      <c r="V135" s="102"/>
-      <c r="W135" s="102"/>
-      <c r="X135" s="102"/>
-      <c r="Y135" s="102"/>
-      <c r="Z135" s="102"/>
-      <c r="AA135" s="102"/>
-      <c r="AB135" s="102"/>
-      <c r="AC135" s="102"/>
-      <c r="AD135" s="102"/>
-      <c r="AE135" s="102"/>
-      <c r="AF135" s="102"/>
-      <c r="AG135" s="102"/>
-      <c r="AH135" s="102"/>
-      <c r="AI135" s="102"/>
-      <c r="AJ135" s="102"/>
-      <c r="AK135" s="102"/>
-      <c r="AL135" s="102"/>
-      <c r="AM135" s="102"/>
-      <c r="AN135" s="102"/>
-      <c r="AO135" s="102"/>
-      <c r="AP135" s="102"/>
-      <c r="AQ135" s="102"/>
-      <c r="AR135" s="102"/>
+    <row r="135" spans="1:47" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="214"/>
+      <c r="B135" s="217" t="s">
+        <v>198</v>
+      </c>
+      <c r="C135" s="151"/>
+      <c r="D135" s="22"/>
+      <c r="E135" s="150"/>
+      <c r="F135" s="195" t="s">
+        <v>78</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="5"/>
+      <c r="N135" s="5"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="54"/>
+      <c r="S135" s="33"/>
+      <c r="U135" s="8"/>
+      <c r="V135" s="8"/>
+      <c r="W135" s="8"/>
+      <c r="X135" s="8"/>
+      <c r="Y135" s="8"/>
+      <c r="Z135" s="8"/>
+      <c r="AA135" s="8"/>
+      <c r="AB135" s="8"/>
+      <c r="AC135" s="8"/>
+      <c r="AD135" s="8"/>
+      <c r="AE135" s="8"/>
+      <c r="AF135" s="8"/>
+      <c r="AG135" s="8"/>
+      <c r="AH135" s="8"/>
+      <c r="AI135" s="8"/>
+      <c r="AJ135" s="8"/>
+      <c r="AL135" s="1"/>
+      <c r="AM135" s="1"/>
+      <c r="AN135" s="1"/>
+      <c r="AO135" s="1"/>
+      <c r="AP135" s="6"/>
+      <c r="AQ135" s="1"/>
+      <c r="AR135" s="1"/>
+      <c r="AS135" s="1"/>
+      <c r="AT135" s="1"/>
+      <c r="AU135" s="1"/>
     </row>
-    <row r="136" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S136" s="102"/>
-      <c r="T136" s="102"/>
-      <c r="U136" s="102"/>
-      <c r="V136" s="102"/>
-      <c r="W136" s="102"/>
-      <c r="X136" s="102"/>
-      <c r="Y136" s="102"/>
-      <c r="Z136" s="102"/>
-      <c r="AA136" s="102"/>
-      <c r="AB136" s="102"/>
-      <c r="AC136" s="102"/>
-      <c r="AD136" s="102"/>
-      <c r="AE136" s="102"/>
-      <c r="AF136" s="102"/>
-      <c r="AG136" s="102"/>
-      <c r="AH136" s="102"/>
-      <c r="AI136" s="102"/>
-      <c r="AJ136" s="102"/>
-      <c r="AK136" s="102"/>
-      <c r="AL136" s="102"/>
-      <c r="AM136" s="102"/>
-      <c r="AN136" s="102"/>
-      <c r="AO136" s="102"/>
-      <c r="AP136" s="102"/>
-      <c r="AQ136" s="102"/>
-      <c r="AR136" s="102"/>
+    <row r="136" spans="1:47" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="214"/>
+      <c r="B136" s="217" t="s">
+        <v>199</v>
+      </c>
+      <c r="C136" s="151"/>
+      <c r="D136" s="22"/>
+      <c r="E136" s="150"/>
+      <c r="F136" s="195" t="s">
+        <v>80</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="5"/>
+      <c r="N136" s="5"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="54"/>
+      <c r="S136" s="33"/>
+      <c r="U136" s="8"/>
+      <c r="V136" s="8"/>
+      <c r="W136" s="8"/>
+      <c r="X136" s="8"/>
+      <c r="Y136" s="8"/>
+      <c r="Z136" s="8"/>
+      <c r="AA136" s="8"/>
+      <c r="AB136" s="8"/>
+      <c r="AC136" s="8"/>
+      <c r="AD136" s="8"/>
+      <c r="AE136" s="8"/>
+      <c r="AF136" s="8"/>
+      <c r="AG136" s="8"/>
+      <c r="AH136" s="8"/>
+      <c r="AI136" s="8"/>
+      <c r="AJ136" s="8"/>
+      <c r="AL136" s="1"/>
+      <c r="AM136" s="1"/>
+      <c r="AN136" s="1"/>
+      <c r="AO136" s="1"/>
+      <c r="AP136" s="6"/>
+      <c r="AQ136" s="1"/>
+      <c r="AR136" s="1"/>
+      <c r="AS136" s="1"/>
+      <c r="AT136" s="1"/>
+      <c r="AU136" s="1"/>
     </row>
-    <row r="137" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S137" s="102"/>
-      <c r="T137" s="102"/>
-      <c r="U137" s="102"/>
-      <c r="V137" s="102"/>
-      <c r="W137" s="102"/>
-      <c r="X137" s="102"/>
-      <c r="Y137" s="102"/>
-      <c r="Z137" s="102"/>
-      <c r="AA137" s="102"/>
-      <c r="AB137" s="102"/>
-      <c r="AC137" s="102"/>
-      <c r="AD137" s="102"/>
-      <c r="AE137" s="102"/>
-      <c r="AF137" s="102"/>
-      <c r="AG137" s="102"/>
-      <c r="AH137" s="102"/>
-      <c r="AI137" s="102"/>
-      <c r="AJ137" s="102"/>
-      <c r="AK137" s="102"/>
-      <c r="AL137" s="102"/>
-      <c r="AM137" s="102"/>
-      <c r="AN137" s="102"/>
-      <c r="AO137" s="102"/>
-      <c r="AP137" s="102"/>
-      <c r="AQ137" s="102"/>
-      <c r="AR137" s="102"/>
+    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A137" s="214"/>
+      <c r="B137" s="217" t="s">
+        <v>200</v>
+      </c>
+      <c r="C137" s="153"/>
+      <c r="D137" s="153"/>
+      <c r="E137" s="71"/>
+      <c r="F137" s="145"/>
+      <c r="G137" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H137" s="153"/>
+      <c r="I137" s="153"/>
+      <c r="J137" s="153"/>
+      <c r="K137" s="153"/>
+      <c r="L137" s="153"/>
+      <c r="M137" s="153"/>
+      <c r="N137" s="153"/>
+      <c r="O137" s="153"/>
+      <c r="P137" s="153"/>
+      <c r="Q137" s="153"/>
+      <c r="R137" s="221"/>
+      <c r="S137" s="25"/>
+      <c r="T137" s="101"/>
+      <c r="U137" s="101"/>
+      <c r="V137" s="101"/>
+      <c r="W137" s="101"/>
+      <c r="X137" s="101"/>
+      <c r="Y137" s="101"/>
+      <c r="Z137" s="101"/>
+      <c r="AA137" s="101"/>
+      <c r="AB137" s="101"/>
+      <c r="AC137" s="101"/>
+      <c r="AD137" s="101"/>
+      <c r="AE137" s="101"/>
+      <c r="AF137" s="101"/>
+      <c r="AG137" s="101"/>
+      <c r="AH137" s="101"/>
+      <c r="AI137" s="101"/>
+      <c r="AJ137" s="101"/>
+      <c r="AK137" s="101"/>
+      <c r="AL137" s="101"/>
+      <c r="AM137" s="101"/>
+      <c r="AN137" s="101"/>
+      <c r="AO137" s="101"/>
+      <c r="AP137" s="101"/>
+      <c r="AQ137" s="101"/>
+      <c r="AR137" s="101"/>
     </row>
-    <row r="138" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S138" s="102"/>
-      <c r="T138" s="102"/>
-      <c r="U138" s="102"/>
-      <c r="V138" s="102"/>
-      <c r="W138" s="102"/>
-      <c r="X138" s="102"/>
-      <c r="Y138" s="102"/>
-      <c r="Z138" s="102"/>
-      <c r="AA138" s="102"/>
-      <c r="AB138" s="102"/>
-      <c r="AC138" s="102"/>
-      <c r="AD138" s="102"/>
-      <c r="AE138" s="102"/>
-      <c r="AF138" s="102"/>
-      <c r="AG138" s="102"/>
-      <c r="AH138" s="102"/>
-      <c r="AI138" s="102"/>
-      <c r="AJ138" s="102"/>
-      <c r="AK138" s="102"/>
-      <c r="AL138" s="102"/>
-      <c r="AM138" s="102"/>
-      <c r="AN138" s="102"/>
-      <c r="AO138" s="102"/>
-      <c r="AP138" s="102"/>
-      <c r="AQ138" s="102"/>
-      <c r="AR138" s="102"/>
+    <row r="138" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A138" s="214"/>
+      <c r="B138" s="217" t="s">
+        <v>201</v>
+      </c>
+      <c r="C138" s="153"/>
+      <c r="D138" s="153"/>
+      <c r="E138" s="71"/>
+      <c r="F138" s="145"/>
+      <c r="G138" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H138" s="153"/>
+      <c r="I138" s="153"/>
+      <c r="J138" s="153"/>
+      <c r="K138" s="153"/>
+      <c r="L138" s="153"/>
+      <c r="M138" s="153"/>
+      <c r="N138" s="153"/>
+      <c r="O138" s="153"/>
+      <c r="P138" s="153"/>
+      <c r="Q138" s="153"/>
+      <c r="R138" s="221"/>
+      <c r="S138" s="25"/>
+      <c r="T138" s="101"/>
+      <c r="U138" s="101"/>
+      <c r="V138" s="101"/>
+      <c r="W138" s="101"/>
+      <c r="X138" s="101"/>
+      <c r="Y138" s="101"/>
+      <c r="Z138" s="101"/>
+      <c r="AA138" s="101"/>
+      <c r="AB138" s="101"/>
+      <c r="AC138" s="101"/>
+      <c r="AD138" s="101"/>
+      <c r="AE138" s="101"/>
+      <c r="AF138" s="101"/>
+      <c r="AG138" s="101"/>
+      <c r="AH138" s="101"/>
+      <c r="AI138" s="101"/>
+      <c r="AJ138" s="101"/>
+      <c r="AK138" s="101"/>
+      <c r="AL138" s="101"/>
+      <c r="AM138" s="101"/>
+      <c r="AN138" s="101"/>
+      <c r="AO138" s="101"/>
+      <c r="AP138" s="101"/>
+      <c r="AQ138" s="101"/>
+      <c r="AR138" s="101"/>
     </row>
-    <row r="139" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S139" s="102"/>
-      <c r="T139" s="102"/>
-      <c r="U139" s="102"/>
-      <c r="V139" s="102"/>
-      <c r="W139" s="102"/>
-      <c r="X139" s="102"/>
-      <c r="Y139" s="102"/>
-      <c r="Z139" s="102"/>
-      <c r="AA139" s="102"/>
-      <c r="AB139" s="102"/>
-      <c r="AC139" s="102"/>
-      <c r="AD139" s="102"/>
-      <c r="AE139" s="102"/>
-      <c r="AF139" s="102"/>
-      <c r="AG139" s="102"/>
-      <c r="AH139" s="102"/>
-      <c r="AI139" s="102"/>
-      <c r="AJ139" s="102"/>
-      <c r="AK139" s="102"/>
-      <c r="AL139" s="102"/>
-      <c r="AM139" s="102"/>
-      <c r="AN139" s="102"/>
-      <c r="AO139" s="102"/>
-      <c r="AP139" s="102"/>
-      <c r="AQ139" s="102"/>
-      <c r="AR139" s="102"/>
+    <row r="139" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A139" s="214"/>
+      <c r="B139" s="217" t="s">
+        <v>202</v>
+      </c>
+      <c r="C139" s="153"/>
+      <c r="D139" s="153"/>
+      <c r="E139" s="71"/>
+      <c r="F139" s="145"/>
+      <c r="G139" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H139" s="153"/>
+      <c r="I139" s="153"/>
+      <c r="J139" s="153"/>
+      <c r="K139" s="153"/>
+      <c r="L139" s="153"/>
+      <c r="M139" s="153"/>
+      <c r="N139" s="153"/>
+      <c r="O139" s="153"/>
+      <c r="P139" s="153"/>
+      <c r="Q139" s="153"/>
+      <c r="R139" s="221"/>
+      <c r="S139" s="25"/>
+      <c r="T139" s="101"/>
+      <c r="U139" s="101"/>
+      <c r="V139" s="101"/>
+      <c r="W139" s="101"/>
+      <c r="X139" s="101"/>
+      <c r="Y139" s="101"/>
+      <c r="Z139" s="101"/>
+      <c r="AA139" s="101"/>
+      <c r="AB139" s="101"/>
+      <c r="AC139" s="101"/>
+      <c r="AD139" s="101"/>
+      <c r="AE139" s="101"/>
+      <c r="AF139" s="101"/>
+      <c r="AG139" s="101"/>
+      <c r="AH139" s="101"/>
+      <c r="AI139" s="101"/>
+      <c r="AJ139" s="101"/>
+      <c r="AK139" s="101"/>
+      <c r="AL139" s="101"/>
+      <c r="AM139" s="101"/>
+      <c r="AN139" s="101"/>
+      <c r="AO139" s="101"/>
+      <c r="AP139" s="101"/>
+      <c r="AQ139" s="101"/>
+      <c r="AR139" s="101"/>
     </row>
-    <row r="140" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S140" s="102"/>
-      <c r="T140" s="102"/>
-      <c r="U140" s="102"/>
-      <c r="V140" s="102"/>
-      <c r="W140" s="102"/>
-      <c r="X140" s="102"/>
-      <c r="Y140" s="102"/>
-      <c r="Z140" s="102"/>
-      <c r="AA140" s="102"/>
-      <c r="AB140" s="102"/>
-      <c r="AC140" s="102"/>
-      <c r="AD140" s="102"/>
-      <c r="AE140" s="102"/>
-      <c r="AF140" s="102"/>
-      <c r="AG140" s="102"/>
-      <c r="AH140" s="102"/>
-      <c r="AI140" s="102"/>
-      <c r="AJ140" s="102"/>
-      <c r="AK140" s="102"/>
-      <c r="AL140" s="102"/>
-      <c r="AM140" s="102"/>
-      <c r="AN140" s="102"/>
-      <c r="AO140" s="102"/>
-      <c r="AP140" s="102"/>
-      <c r="AQ140" s="102"/>
-      <c r="AR140" s="102"/>
+    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A140" s="214"/>
+      <c r="B140" s="218" t="s">
+        <v>203</v>
+      </c>
+      <c r="C140" s="153"/>
+      <c r="D140" s="153"/>
+      <c r="E140" s="71"/>
+      <c r="F140" s="145"/>
+      <c r="G140" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H140" s="153"/>
+      <c r="I140" s="153"/>
+      <c r="J140" s="153"/>
+      <c r="K140" s="153"/>
+      <c r="L140" s="153"/>
+      <c r="M140" s="153"/>
+      <c r="N140" s="153"/>
+      <c r="O140" s="153"/>
+      <c r="P140" s="153"/>
+      <c r="Q140" s="153"/>
+      <c r="R140" s="221"/>
+      <c r="S140" s="25"/>
+      <c r="T140" s="101"/>
+      <c r="U140" s="101"/>
+      <c r="V140" s="101"/>
+      <c r="W140" s="101"/>
+      <c r="X140" s="101"/>
+      <c r="Y140" s="101"/>
+      <c r="Z140" s="101"/>
+      <c r="AA140" s="101"/>
+      <c r="AB140" s="101"/>
+      <c r="AC140" s="101"/>
+      <c r="AD140" s="101"/>
+      <c r="AE140" s="101"/>
+      <c r="AF140" s="101"/>
+      <c r="AG140" s="101"/>
+      <c r="AH140" s="101"/>
+      <c r="AI140" s="101"/>
+      <c r="AJ140" s="101"/>
+      <c r="AK140" s="101"/>
+      <c r="AL140" s="101"/>
+      <c r="AM140" s="101"/>
+      <c r="AN140" s="101"/>
+      <c r="AO140" s="101"/>
+      <c r="AP140" s="101"/>
+      <c r="AQ140" s="101"/>
+      <c r="AR140" s="101"/>
     </row>
-    <row r="141" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S141" s="102"/>
-      <c r="T141" s="102"/>
-      <c r="U141" s="102"/>
-      <c r="V141" s="102"/>
-      <c r="W141" s="102"/>
-      <c r="X141" s="102"/>
-      <c r="Y141" s="102"/>
-      <c r="Z141" s="102"/>
-      <c r="AA141" s="102"/>
-      <c r="AB141" s="102"/>
-      <c r="AC141" s="102"/>
-      <c r="AD141" s="102"/>
-      <c r="AE141" s="102"/>
-      <c r="AF141" s="102"/>
-      <c r="AG141" s="102"/>
-      <c r="AH141" s="102"/>
-      <c r="AI141" s="102"/>
-      <c r="AJ141" s="102"/>
-      <c r="AK141" s="102"/>
-      <c r="AL141" s="102"/>
-      <c r="AM141" s="102"/>
-      <c r="AN141" s="102"/>
-      <c r="AO141" s="102"/>
-      <c r="AP141" s="102"/>
-      <c r="AQ141" s="102"/>
-      <c r="AR141" s="102"/>
+    <row r="141" spans="1:47" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="214"/>
+      <c r="B141" s="217" t="s">
+        <v>205</v>
+      </c>
+      <c r="C141" s="153"/>
+      <c r="D141" s="153"/>
+      <c r="E141" s="71"/>
+      <c r="F141" s="145"/>
+      <c r="G141" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H141" s="153"/>
+      <c r="I141" s="153"/>
+      <c r="J141" s="153"/>
+      <c r="K141" s="153"/>
+      <c r="L141" s="153"/>
+      <c r="M141" s="153"/>
+      <c r="N141" s="153"/>
+      <c r="O141" s="153"/>
+      <c r="P141" s="153"/>
+      <c r="Q141" s="153"/>
+      <c r="R141" s="221"/>
+      <c r="S141" s="25"/>
+      <c r="T141" s="101"/>
+      <c r="U141" s="101"/>
+      <c r="V141" s="101"/>
+      <c r="W141" s="101"/>
+      <c r="X141" s="101"/>
+      <c r="Y141" s="101"/>
+      <c r="Z141" s="101"/>
+      <c r="AA141" s="101"/>
+      <c r="AB141" s="101"/>
+      <c r="AC141" s="101"/>
+      <c r="AD141" s="101"/>
+      <c r="AE141" s="101"/>
+      <c r="AF141" s="101"/>
+      <c r="AG141" s="101"/>
+      <c r="AH141" s="101"/>
+      <c r="AI141" s="101"/>
+      <c r="AJ141" s="101"/>
+      <c r="AK141" s="101"/>
+      <c r="AL141" s="101"/>
+      <c r="AM141" s="101"/>
+      <c r="AN141" s="101"/>
+      <c r="AO141" s="101"/>
+      <c r="AP141" s="101"/>
+      <c r="AQ141" s="101"/>
+      <c r="AR141" s="101"/>
     </row>
-    <row r="142" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S142" s="102"/>
-      <c r="T142" s="102"/>
-      <c r="U142" s="102"/>
-      <c r="V142" s="102"/>
-      <c r="W142" s="102"/>
-      <c r="X142" s="102"/>
-      <c r="Y142" s="102"/>
-      <c r="Z142" s="102"/>
-      <c r="AA142" s="102"/>
-      <c r="AB142" s="102"/>
-      <c r="AC142" s="102"/>
-      <c r="AD142" s="102"/>
-      <c r="AE142" s="102"/>
-      <c r="AF142" s="102"/>
-      <c r="AG142" s="102"/>
-      <c r="AH142" s="102"/>
-      <c r="AI142" s="102"/>
-      <c r="AJ142" s="102"/>
-      <c r="AK142" s="102"/>
-      <c r="AL142" s="102"/>
-      <c r="AM142" s="102"/>
-      <c r="AN142" s="102"/>
-      <c r="AO142" s="102"/>
-      <c r="AP142" s="102"/>
-      <c r="AQ142" s="102"/>
-      <c r="AR142" s="102"/>
+    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A142" s="214"/>
+      <c r="B142" s="217" t="s">
+        <v>204</v>
+      </c>
+      <c r="C142" s="153"/>
+      <c r="D142" s="153"/>
+      <c r="E142" s="71"/>
+      <c r="F142" s="145"/>
+      <c r="G142" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142" s="153"/>
+      <c r="I142" s="153"/>
+      <c r="J142" s="153"/>
+      <c r="K142" s="153"/>
+      <c r="L142" s="153"/>
+      <c r="M142" s="153"/>
+      <c r="N142" s="153"/>
+      <c r="O142" s="153"/>
+      <c r="P142" s="153"/>
+      <c r="Q142" s="153"/>
+      <c r="R142" s="221"/>
+      <c r="S142" s="25"/>
+      <c r="T142" s="101"/>
+      <c r="U142" s="101"/>
+      <c r="V142" s="101"/>
+      <c r="W142" s="101"/>
+      <c r="X142" s="101"/>
+      <c r="Y142" s="101"/>
+      <c r="Z142" s="101"/>
+      <c r="AA142" s="101"/>
+      <c r="AB142" s="101"/>
+      <c r="AC142" s="101"/>
+      <c r="AD142" s="101"/>
+      <c r="AE142" s="101"/>
+      <c r="AF142" s="101"/>
+      <c r="AG142" s="101"/>
+      <c r="AH142" s="101"/>
+      <c r="AI142" s="101"/>
+      <c r="AJ142" s="101"/>
+      <c r="AK142" s="101"/>
+      <c r="AL142" s="101"/>
+      <c r="AM142" s="101"/>
+      <c r="AN142" s="101"/>
+      <c r="AO142" s="101"/>
+      <c r="AP142" s="101"/>
+      <c r="AQ142" s="101"/>
+      <c r="AR142" s="101"/>
     </row>
-    <row r="143" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S143" s="102"/>
-      <c r="T143" s="102"/>
-      <c r="U143" s="102"/>
-      <c r="V143" s="102"/>
-      <c r="W143" s="102"/>
-      <c r="X143" s="102"/>
-      <c r="Y143" s="102"/>
-      <c r="Z143" s="102"/>
-      <c r="AA143" s="102"/>
-      <c r="AB143" s="102"/>
-      <c r="AC143" s="102"/>
-      <c r="AD143" s="102"/>
-      <c r="AE143" s="102"/>
-      <c r="AF143" s="102"/>
-      <c r="AG143" s="102"/>
-      <c r="AH143" s="102"/>
-      <c r="AI143" s="102"/>
-      <c r="AJ143" s="102"/>
-      <c r="AK143" s="102"/>
-      <c r="AL143" s="102"/>
-      <c r="AM143" s="102"/>
-      <c r="AN143" s="102"/>
-      <c r="AO143" s="102"/>
-      <c r="AP143" s="102"/>
-      <c r="AQ143" s="102"/>
-      <c r="AR143" s="102"/>
+    <row r="143" spans="1:47" ht="30" x14ac:dyDescent="0.25">
+      <c r="A143" s="214"/>
+      <c r="B143" s="217" t="s">
+        <v>206</v>
+      </c>
+      <c r="C143" s="153"/>
+      <c r="D143" s="153"/>
+      <c r="E143" s="71"/>
+      <c r="F143" s="145"/>
+      <c r="G143" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H143" s="153"/>
+      <c r="I143" s="153"/>
+      <c r="J143" s="153"/>
+      <c r="K143" s="153"/>
+      <c r="L143" s="153"/>
+      <c r="M143" s="153"/>
+      <c r="N143" s="153"/>
+      <c r="O143" s="153"/>
+      <c r="P143" s="153"/>
+      <c r="Q143" s="153"/>
+      <c r="R143" s="221"/>
+      <c r="S143" s="25"/>
+      <c r="T143" s="101"/>
+      <c r="U143" s="101"/>
+      <c r="V143" s="101"/>
+      <c r="W143" s="101"/>
+      <c r="X143" s="101"/>
+      <c r="Y143" s="101"/>
+      <c r="Z143" s="101"/>
+      <c r="AA143" s="101"/>
+      <c r="AB143" s="101"/>
+      <c r="AC143" s="101"/>
+      <c r="AD143" s="101"/>
+      <c r="AE143" s="101"/>
+      <c r="AF143" s="101"/>
+      <c r="AG143" s="101"/>
+      <c r="AH143" s="101"/>
+      <c r="AI143" s="101"/>
+      <c r="AJ143" s="101"/>
+      <c r="AK143" s="101"/>
+      <c r="AL143" s="101"/>
+      <c r="AM143" s="101"/>
+      <c r="AN143" s="101"/>
+      <c r="AO143" s="101"/>
+      <c r="AP143" s="101"/>
+      <c r="AQ143" s="101"/>
+      <c r="AR143" s="101"/>
     </row>
-    <row r="144" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="S144" s="102"/>
-      <c r="T144" s="102"/>
-      <c r="U144" s="102"/>
-      <c r="V144" s="102"/>
-      <c r="W144" s="102"/>
-      <c r="X144" s="102"/>
-      <c r="Y144" s="102"/>
-      <c r="Z144" s="102"/>
-      <c r="AA144" s="102"/>
-      <c r="AB144" s="102"/>
-      <c r="AC144" s="102"/>
-      <c r="AD144" s="102"/>
-      <c r="AE144" s="102"/>
-      <c r="AF144" s="102"/>
-      <c r="AG144" s="102"/>
-      <c r="AH144" s="102"/>
-      <c r="AI144" s="102"/>
-      <c r="AJ144" s="102"/>
-      <c r="AK144" s="102"/>
-      <c r="AL144" s="102"/>
-      <c r="AM144" s="102"/>
-      <c r="AN144" s="102"/>
-      <c r="AO144" s="102"/>
-      <c r="AP144" s="102"/>
-      <c r="AQ144" s="102"/>
-      <c r="AR144" s="102"/>
+    <row r="144" spans="1:47" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="215"/>
+      <c r="B144" s="219" t="s">
+        <v>207</v>
+      </c>
+      <c r="C144" s="154"/>
+      <c r="D144" s="154"/>
+      <c r="E144" s="72"/>
+      <c r="F144" s="145"/>
+      <c r="G144" s="170" t="s">
+        <v>19</v>
+      </c>
+      <c r="H144" s="154"/>
+      <c r="I144" s="154"/>
+      <c r="J144" s="154"/>
+      <c r="K144" s="154"/>
+      <c r="L144" s="154"/>
+      <c r="M144" s="154"/>
+      <c r="N144" s="154"/>
+      <c r="O144" s="154"/>
+      <c r="P144" s="154"/>
+      <c r="Q144" s="154"/>
+      <c r="R144" s="222"/>
+      <c r="S144" s="25"/>
+      <c r="T144" s="101"/>
+      <c r="U144" s="101"/>
+      <c r="V144" s="101"/>
+      <c r="W144" s="101"/>
+      <c r="X144" s="101"/>
+      <c r="Y144" s="101"/>
+      <c r="Z144" s="101"/>
+      <c r="AA144" s="101"/>
+      <c r="AB144" s="101"/>
+      <c r="AC144" s="101"/>
+      <c r="AD144" s="101"/>
+      <c r="AE144" s="101"/>
+      <c r="AF144" s="101"/>
+      <c r="AG144" s="101"/>
+      <c r="AH144" s="101"/>
+      <c r="AI144" s="101"/>
+      <c r="AJ144" s="101"/>
+      <c r="AK144" s="101"/>
+      <c r="AL144" s="101"/>
+      <c r="AM144" s="101"/>
+      <c r="AN144" s="101"/>
+      <c r="AO144" s="101"/>
+      <c r="AP144" s="101"/>
+      <c r="AQ144" s="101"/>
+      <c r="AR144" s="101"/>
     </row>
-    <row r="145" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S145" s="102"/>
-      <c r="T145" s="102"/>
-      <c r="U145" s="102"/>
-      <c r="V145" s="102"/>
-      <c r="W145" s="102"/>
-      <c r="X145" s="102"/>
-      <c r="Y145" s="102"/>
-      <c r="Z145" s="102"/>
-      <c r="AA145" s="102"/>
-      <c r="AB145" s="102"/>
-      <c r="AC145" s="102"/>
-      <c r="AD145" s="102"/>
-      <c r="AE145" s="102"/>
-      <c r="AF145" s="102"/>
-      <c r="AG145" s="102"/>
-      <c r="AH145" s="102"/>
-      <c r="AI145" s="102"/>
-      <c r="AJ145" s="102"/>
-      <c r="AK145" s="102"/>
-      <c r="AL145" s="102"/>
-      <c r="AM145" s="102"/>
-      <c r="AN145" s="102"/>
-      <c r="AO145" s="102"/>
-      <c r="AP145" s="102"/>
-      <c r="AQ145" s="102"/>
-      <c r="AR145" s="102"/>
+    <row r="145" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B145" s="53"/>
+      <c r="C145" s="26"/>
+      <c r="D145" s="26"/>
+      <c r="E145" s="59"/>
+      <c r="G145" s="26"/>
+      <c r="H145" s="26"/>
+      <c r="I145" s="26"/>
+      <c r="J145" s="26"/>
+      <c r="K145" s="26"/>
+      <c r="L145" s="26"/>
+      <c r="M145" s="26"/>
+      <c r="N145" s="26"/>
+      <c r="O145" s="26"/>
+      <c r="P145" s="26"/>
+      <c r="Q145" s="26"/>
+      <c r="R145" s="26"/>
+      <c r="S145" s="101"/>
+      <c r="T145" s="101"/>
+      <c r="U145" s="101"/>
+      <c r="V145" s="101"/>
+      <c r="W145" s="101"/>
+      <c r="X145" s="101"/>
+      <c r="Y145" s="101"/>
+      <c r="Z145" s="101"/>
+      <c r="AA145" s="101"/>
+      <c r="AB145" s="101"/>
+      <c r="AC145" s="101"/>
+      <c r="AD145" s="101"/>
+      <c r="AE145" s="101"/>
+      <c r="AF145" s="101"/>
+      <c r="AG145" s="101"/>
+      <c r="AH145" s="101"/>
+      <c r="AI145" s="101"/>
+      <c r="AJ145" s="101"/>
+      <c r="AK145" s="101"/>
+      <c r="AL145" s="101"/>
+      <c r="AM145" s="101"/>
+      <c r="AN145" s="101"/>
+      <c r="AO145" s="101"/>
+      <c r="AP145" s="101"/>
+      <c r="AQ145" s="101"/>
+      <c r="AR145" s="101"/>
     </row>
-    <row r="146" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S146" s="102"/>
-      <c r="T146" s="102"/>
-      <c r="U146" s="102"/>
-      <c r="V146" s="102"/>
-      <c r="W146" s="102"/>
-      <c r="X146" s="102"/>
-      <c r="Y146" s="102"/>
-      <c r="Z146" s="102"/>
-      <c r="AA146" s="102"/>
-      <c r="AB146" s="102"/>
-      <c r="AC146" s="102"/>
-      <c r="AD146" s="102"/>
-      <c r="AE146" s="102"/>
-      <c r="AF146" s="102"/>
-      <c r="AG146" s="102"/>
-      <c r="AH146" s="102"/>
-      <c r="AI146" s="102"/>
-      <c r="AJ146" s="102"/>
-      <c r="AK146" s="102"/>
-      <c r="AL146" s="102"/>
-      <c r="AM146" s="102"/>
-      <c r="AN146" s="102"/>
-      <c r="AO146" s="102"/>
-      <c r="AP146" s="102"/>
-      <c r="AQ146" s="102"/>
-      <c r="AR146" s="102"/>
+    <row r="146" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="S146" s="101"/>
+      <c r="T146" s="101"/>
+      <c r="U146" s="101"/>
+      <c r="V146" s="101"/>
+      <c r="W146" s="101"/>
+      <c r="X146" s="101"/>
+      <c r="Y146" s="101"/>
+      <c r="Z146" s="101"/>
+      <c r="AA146" s="101"/>
+      <c r="AB146" s="101"/>
+      <c r="AC146" s="101"/>
+      <c r="AD146" s="101"/>
+      <c r="AE146" s="101"/>
+      <c r="AF146" s="101"/>
+      <c r="AG146" s="101"/>
+      <c r="AH146" s="101"/>
+      <c r="AI146" s="101"/>
+      <c r="AJ146" s="101"/>
+      <c r="AK146" s="101"/>
+      <c r="AL146" s="101"/>
+      <c r="AM146" s="101"/>
+      <c r="AN146" s="101"/>
+      <c r="AO146" s="101"/>
+      <c r="AP146" s="101"/>
+      <c r="AQ146" s="101"/>
+      <c r="AR146" s="101"/>
     </row>
-    <row r="147" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S147" s="102"/>
-      <c r="T147" s="102"/>
-      <c r="U147" s="102"/>
-      <c r="V147" s="102"/>
-      <c r="W147" s="102"/>
-      <c r="X147" s="102"/>
-      <c r="Y147" s="102"/>
-      <c r="Z147" s="102"/>
-      <c r="AA147" s="102"/>
-      <c r="AB147" s="102"/>
-      <c r="AC147" s="102"/>
-      <c r="AD147" s="102"/>
-      <c r="AE147" s="102"/>
-      <c r="AF147" s="102"/>
-      <c r="AG147" s="102"/>
-      <c r="AH147" s="102"/>
-      <c r="AI147" s="102"/>
-      <c r="AJ147" s="102"/>
-      <c r="AK147" s="102"/>
-      <c r="AL147" s="102"/>
-      <c r="AM147" s="102"/>
-      <c r="AN147" s="102"/>
-      <c r="AO147" s="102"/>
-      <c r="AP147" s="102"/>
-      <c r="AQ147" s="102"/>
-      <c r="AR147" s="102"/>
+    <row r="147" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="S147" s="101"/>
+      <c r="T147" s="101"/>
+      <c r="U147" s="101"/>
+      <c r="V147" s="101"/>
+      <c r="W147" s="101"/>
+      <c r="X147" s="101"/>
+      <c r="Y147" s="101"/>
+      <c r="Z147" s="101"/>
+      <c r="AA147" s="101"/>
+      <c r="AB147" s="101"/>
+      <c r="AC147" s="101"/>
+      <c r="AD147" s="101"/>
+      <c r="AE147" s="101"/>
+      <c r="AF147" s="101"/>
+      <c r="AG147" s="101"/>
+      <c r="AH147" s="101"/>
+      <c r="AI147" s="101"/>
+      <c r="AJ147" s="101"/>
+      <c r="AK147" s="101"/>
+      <c r="AL147" s="101"/>
+      <c r="AM147" s="101"/>
+      <c r="AN147" s="101"/>
+      <c r="AO147" s="101"/>
+      <c r="AP147" s="101"/>
+      <c r="AQ147" s="101"/>
+      <c r="AR147" s="101"/>
     </row>
-    <row r="148" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S148" s="102"/>
-      <c r="T148" s="102"/>
-      <c r="U148" s="102"/>
-      <c r="V148" s="102"/>
-      <c r="W148" s="102"/>
-      <c r="X148" s="102"/>
-      <c r="Y148" s="102"/>
-      <c r="Z148" s="102"/>
-      <c r="AA148" s="102"/>
-      <c r="AB148" s="102"/>
-      <c r="AC148" s="102"/>
-      <c r="AD148" s="102"/>
-      <c r="AE148" s="102"/>
-      <c r="AF148" s="102"/>
-      <c r="AG148" s="102"/>
-      <c r="AH148" s="102"/>
-      <c r="AI148" s="102"/>
-      <c r="AJ148" s="102"/>
-      <c r="AK148" s="102"/>
-      <c r="AL148" s="102"/>
-      <c r="AM148" s="102"/>
-      <c r="AN148" s="102"/>
-      <c r="AO148" s="102"/>
-      <c r="AP148" s="102"/>
-      <c r="AQ148" s="102"/>
-      <c r="AR148" s="102"/>
+    <row r="148" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="S148" s="101"/>
+      <c r="T148" s="101"/>
+      <c r="U148" s="101"/>
+      <c r="V148" s="101"/>
+      <c r="W148" s="101"/>
+      <c r="X148" s="101"/>
+      <c r="Y148" s="101"/>
+      <c r="Z148" s="101"/>
+      <c r="AA148" s="101"/>
+      <c r="AB148" s="101"/>
+      <c r="AC148" s="101"/>
+      <c r="AD148" s="101"/>
+      <c r="AE148" s="101"/>
+      <c r="AF148" s="101"/>
+      <c r="AG148" s="101"/>
+      <c r="AH148" s="101"/>
+      <c r="AI148" s="101"/>
+      <c r="AJ148" s="101"/>
+      <c r="AK148" s="101"/>
+      <c r="AL148" s="101"/>
+      <c r="AM148" s="101"/>
+      <c r="AN148" s="101"/>
+      <c r="AO148" s="101"/>
+      <c r="AP148" s="101"/>
+      <c r="AQ148" s="101"/>
+      <c r="AR148" s="101"/>
     </row>
-    <row r="149" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S149" s="102"/>
-      <c r="T149" s="102"/>
-      <c r="U149" s="102"/>
-      <c r="V149" s="102"/>
-      <c r="W149" s="102"/>
-      <c r="X149" s="102"/>
-      <c r="Y149" s="102"/>
-      <c r="Z149" s="102"/>
-      <c r="AA149" s="102"/>
-      <c r="AB149" s="102"/>
-      <c r="AC149" s="102"/>
-      <c r="AD149" s="102"/>
-      <c r="AE149" s="102"/>
-      <c r="AF149" s="102"/>
-      <c r="AG149" s="102"/>
-      <c r="AH149" s="102"/>
-      <c r="AI149" s="102"/>
-      <c r="AJ149" s="102"/>
-      <c r="AK149" s="102"/>
-      <c r="AL149" s="102"/>
-      <c r="AM149" s="102"/>
-      <c r="AN149" s="102"/>
-      <c r="AO149" s="102"/>
-      <c r="AP149" s="102"/>
-      <c r="AQ149" s="102"/>
-      <c r="AR149" s="102"/>
+    <row r="149" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="S149" s="101"/>
+      <c r="T149" s="101"/>
+      <c r="U149" s="101"/>
+      <c r="V149" s="101"/>
+      <c r="W149" s="101"/>
+      <c r="X149" s="101"/>
+      <c r="Y149" s="101"/>
+      <c r="Z149" s="101"/>
+      <c r="AA149" s="101"/>
+      <c r="AB149" s="101"/>
+      <c r="AC149" s="101"/>
+      <c r="AD149" s="101"/>
+      <c r="AE149" s="101"/>
+      <c r="AF149" s="101"/>
+      <c r="AG149" s="101"/>
+      <c r="AH149" s="101"/>
+      <c r="AI149" s="101"/>
+      <c r="AJ149" s="101"/>
+      <c r="AK149" s="101"/>
+      <c r="AL149" s="101"/>
+      <c r="AM149" s="101"/>
+      <c r="AN149" s="101"/>
+      <c r="AO149" s="101"/>
+      <c r="AP149" s="101"/>
+      <c r="AQ149" s="101"/>
+      <c r="AR149" s="101"/>
     </row>
-    <row r="150" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S150" s="102"/>
-      <c r="T150" s="102"/>
-      <c r="U150" s="102"/>
-      <c r="V150" s="102"/>
-      <c r="W150" s="102"/>
-      <c r="X150" s="102"/>
-      <c r="Y150" s="102"/>
-      <c r="Z150" s="102"/>
-      <c r="AA150" s="102"/>
-      <c r="AB150" s="102"/>
-      <c r="AC150" s="102"/>
-      <c r="AD150" s="102"/>
-      <c r="AE150" s="102"/>
-      <c r="AF150" s="102"/>
-      <c r="AG150" s="102"/>
-      <c r="AH150" s="102"/>
-      <c r="AI150" s="102"/>
-      <c r="AJ150" s="102"/>
-      <c r="AK150" s="102"/>
-      <c r="AL150" s="102"/>
-      <c r="AM150" s="102"/>
-      <c r="AN150" s="102"/>
-      <c r="AO150" s="102"/>
-      <c r="AP150" s="102"/>
-      <c r="AQ150" s="102"/>
-      <c r="AR150" s="102"/>
+    <row r="150" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="S150" s="101"/>
+      <c r="T150" s="101"/>
+      <c r="U150" s="101"/>
+      <c r="V150" s="101"/>
+      <c r="W150" s="101"/>
+      <c r="X150" s="101"/>
+      <c r="Y150" s="101"/>
+      <c r="Z150" s="101"/>
+      <c r="AA150" s="101"/>
+      <c r="AB150" s="101"/>
+      <c r="AC150" s="101"/>
+      <c r="AD150" s="101"/>
+      <c r="AE150" s="101"/>
+      <c r="AF150" s="101"/>
+      <c r="AG150" s="101"/>
+      <c r="AH150" s="101"/>
+      <c r="AI150" s="101"/>
+      <c r="AJ150" s="101"/>
+      <c r="AK150" s="101"/>
+      <c r="AL150" s="101"/>
+      <c r="AM150" s="101"/>
+      <c r="AN150" s="101"/>
+      <c r="AO150" s="101"/>
+      <c r="AP150" s="101"/>
+      <c r="AQ150" s="101"/>
+      <c r="AR150" s="101"/>
     </row>
-    <row r="151" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S151" s="102"/>
-      <c r="T151" s="102"/>
-      <c r="U151" s="102"/>
-      <c r="V151" s="102"/>
-      <c r="W151" s="102"/>
-      <c r="X151" s="102"/>
-      <c r="Y151" s="102"/>
-      <c r="Z151" s="102"/>
-      <c r="AA151" s="102"/>
-      <c r="AB151" s="102"/>
-      <c r="AC151" s="102"/>
-      <c r="AD151" s="102"/>
-      <c r="AE151" s="102"/>
-      <c r="AF151" s="102"/>
-      <c r="AG151" s="102"/>
-      <c r="AH151" s="102"/>
-      <c r="AI151" s="102"/>
-      <c r="AJ151" s="102"/>
-      <c r="AK151" s="102"/>
-      <c r="AL151" s="102"/>
-      <c r="AM151" s="102"/>
-      <c r="AN151" s="102"/>
-      <c r="AO151" s="102"/>
-      <c r="AP151" s="102"/>
-      <c r="AQ151" s="102"/>
-      <c r="AR151" s="102"/>
+    <row r="151" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="S151" s="101"/>
+      <c r="T151" s="101"/>
+      <c r="U151" s="101"/>
+      <c r="V151" s="101"/>
+      <c r="W151" s="101"/>
+      <c r="X151" s="101"/>
+      <c r="Y151" s="101"/>
+      <c r="Z151" s="101"/>
+      <c r="AA151" s="101"/>
+      <c r="AB151" s="101"/>
+      <c r="AC151" s="101"/>
+      <c r="AD151" s="101"/>
+      <c r="AE151" s="101"/>
+      <c r="AF151" s="101"/>
+      <c r="AG151" s="101"/>
+      <c r="AH151" s="101"/>
+      <c r="AI151" s="101"/>
+      <c r="AJ151" s="101"/>
+      <c r="AK151" s="101"/>
+      <c r="AL151" s="101"/>
+      <c r="AM151" s="101"/>
+      <c r="AN151" s="101"/>
+      <c r="AO151" s="101"/>
+      <c r="AP151" s="101"/>
+      <c r="AQ151" s="101"/>
+      <c r="AR151" s="101"/>
     </row>
-    <row r="152" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S152" s="102"/>
-      <c r="T152" s="102"/>
-      <c r="U152" s="102"/>
-      <c r="V152" s="102"/>
-      <c r="W152" s="102"/>
-      <c r="X152" s="102"/>
-      <c r="Y152" s="102"/>
-      <c r="Z152" s="102"/>
-      <c r="AA152" s="102"/>
-      <c r="AB152" s="102"/>
-      <c r="AC152" s="102"/>
-      <c r="AD152" s="102"/>
-      <c r="AE152" s="102"/>
-      <c r="AF152" s="102"/>
-      <c r="AG152" s="102"/>
-      <c r="AH152" s="102"/>
-      <c r="AI152" s="102"/>
-      <c r="AJ152" s="102"/>
-      <c r="AK152" s="102"/>
-      <c r="AL152" s="102"/>
-      <c r="AM152" s="102"/>
-      <c r="AN152" s="102"/>
-      <c r="AO152" s="102"/>
-      <c r="AP152" s="102"/>
-      <c r="AQ152" s="102"/>
-      <c r="AR152" s="102"/>
+    <row r="152" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="S152" s="101"/>
+      <c r="T152" s="101"/>
+      <c r="U152" s="101"/>
+      <c r="V152" s="101"/>
+      <c r="W152" s="101"/>
+      <c r="X152" s="101"/>
+      <c r="Y152" s="101"/>
+      <c r="Z152" s="101"/>
+      <c r="AA152" s="101"/>
+      <c r="AB152" s="101"/>
+      <c r="AC152" s="101"/>
+      <c r="AD152" s="101"/>
+      <c r="AE152" s="101"/>
+      <c r="AF152" s="101"/>
+      <c r="AG152" s="101"/>
+      <c r="AH152" s="101"/>
+      <c r="AI152" s="101"/>
+      <c r="AJ152" s="101"/>
+      <c r="AK152" s="101"/>
+      <c r="AL152" s="101"/>
+      <c r="AM152" s="101"/>
+      <c r="AN152" s="101"/>
+      <c r="AO152" s="101"/>
+      <c r="AP152" s="101"/>
+      <c r="AQ152" s="101"/>
+      <c r="AR152" s="101"/>
     </row>
-    <row r="153" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S153" s="102"/>
-      <c r="T153" s="102"/>
-      <c r="U153" s="102"/>
-      <c r="V153" s="102"/>
-      <c r="W153" s="102"/>
-      <c r="X153" s="102"/>
-      <c r="Y153" s="102"/>
-      <c r="Z153" s="102"/>
-      <c r="AA153" s="102"/>
-      <c r="AB153" s="102"/>
-      <c r="AC153" s="102"/>
-      <c r="AD153" s="102"/>
-      <c r="AE153" s="102"/>
-      <c r="AF153" s="102"/>
-      <c r="AG153" s="102"/>
-      <c r="AH153" s="102"/>
-      <c r="AI153" s="102"/>
-      <c r="AJ153" s="102"/>
-      <c r="AK153" s="102"/>
-      <c r="AL153" s="102"/>
-      <c r="AM153" s="102"/>
-      <c r="AN153" s="102"/>
-      <c r="AO153" s="102"/>
-      <c r="AP153" s="102"/>
-      <c r="AQ153" s="102"/>
-      <c r="AR153" s="102"/>
+    <row r="153" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="S153" s="101"/>
+      <c r="T153" s="101"/>
+      <c r="U153" s="101"/>
+      <c r="V153" s="101"/>
+      <c r="W153" s="101"/>
+      <c r="X153" s="101"/>
+      <c r="Y153" s="101"/>
+      <c r="Z153" s="101"/>
+      <c r="AA153" s="101"/>
+      <c r="AB153" s="101"/>
+      <c r="AC153" s="101"/>
+      <c r="AD153" s="101"/>
+      <c r="AE153" s="101"/>
+      <c r="AF153" s="101"/>
+      <c r="AG153" s="101"/>
+      <c r="AH153" s="101"/>
+      <c r="AI153" s="101"/>
+      <c r="AJ153" s="101"/>
+      <c r="AK153" s="101"/>
+      <c r="AL153" s="101"/>
+      <c r="AM153" s="101"/>
+      <c r="AN153" s="101"/>
+      <c r="AO153" s="101"/>
+      <c r="AP153" s="101"/>
+      <c r="AQ153" s="101"/>
+      <c r="AR153" s="101"/>
     </row>
-    <row r="154" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S154" s="102"/>
-      <c r="T154" s="102"/>
-      <c r="U154" s="102"/>
-      <c r="V154" s="102"/>
-      <c r="W154" s="102"/>
-      <c r="X154" s="102"/>
-      <c r="Y154" s="102"/>
-      <c r="Z154" s="102"/>
-      <c r="AA154" s="102"/>
-      <c r="AB154" s="102"/>
-      <c r="AC154" s="102"/>
-      <c r="AD154" s="102"/>
-      <c r="AE154" s="102"/>
-      <c r="AF154" s="102"/>
-      <c r="AG154" s="102"/>
-      <c r="AH154" s="102"/>
-      <c r="AI154" s="102"/>
-      <c r="AJ154" s="102"/>
-      <c r="AK154" s="102"/>
-      <c r="AL154" s="102"/>
-      <c r="AM154" s="102"/>
-      <c r="AN154" s="102"/>
-      <c r="AO154" s="102"/>
-      <c r="AP154" s="102"/>
-      <c r="AQ154" s="102"/>
-      <c r="AR154" s="102"/>
+    <row r="154" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="S154" s="101"/>
+      <c r="T154" s="101"/>
+      <c r="U154" s="101"/>
+      <c r="V154" s="101"/>
+      <c r="W154" s="101"/>
+      <c r="X154" s="101"/>
+      <c r="Y154" s="101"/>
+      <c r="Z154" s="101"/>
+      <c r="AA154" s="101"/>
+      <c r="AB154" s="101"/>
+      <c r="AC154" s="101"/>
+      <c r="AD154" s="101"/>
+      <c r="AE154" s="101"/>
+      <c r="AF154" s="101"/>
+      <c r="AG154" s="101"/>
+      <c r="AH154" s="101"/>
+      <c r="AI154" s="101"/>
+      <c r="AJ154" s="101"/>
+      <c r="AK154" s="101"/>
+      <c r="AL154" s="101"/>
+      <c r="AM154" s="101"/>
+      <c r="AN154" s="101"/>
+      <c r="AO154" s="101"/>
+      <c r="AP154" s="101"/>
+      <c r="AQ154" s="101"/>
+      <c r="AR154" s="101"/>
     </row>
-    <row r="155" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S155" s="102"/>
-      <c r="T155" s="102"/>
-      <c r="U155" s="102"/>
-      <c r="V155" s="102"/>
-      <c r="W155" s="102"/>
-      <c r="X155" s="102"/>
-      <c r="Y155" s="102"/>
-      <c r="Z155" s="102"/>
-      <c r="AA155" s="102"/>
-      <c r="AB155" s="102"/>
-      <c r="AC155" s="102"/>
-      <c r="AD155" s="102"/>
-      <c r="AE155" s="102"/>
-      <c r="AF155" s="102"/>
-      <c r="AG155" s="102"/>
-      <c r="AH155" s="102"/>
-      <c r="AI155" s="102"/>
-      <c r="AJ155" s="102"/>
-      <c r="AK155" s="102"/>
-      <c r="AL155" s="102"/>
-      <c r="AM155" s="102"/>
-      <c r="AN155" s="102"/>
-      <c r="AO155" s="102"/>
-      <c r="AP155" s="102"/>
-      <c r="AQ155" s="102"/>
-      <c r="AR155" s="102"/>
+    <row r="155" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="S155" s="101"/>
+      <c r="T155" s="101"/>
+      <c r="U155" s="101"/>
+      <c r="V155" s="101"/>
+      <c r="W155" s="101"/>
+      <c r="X155" s="101"/>
+      <c r="Y155" s="101"/>
+      <c r="Z155" s="101"/>
+      <c r="AA155" s="101"/>
+      <c r="AB155" s="101"/>
+      <c r="AC155" s="101"/>
+      <c r="AD155" s="101"/>
+      <c r="AE155" s="101"/>
+      <c r="AF155" s="101"/>
+      <c r="AG155" s="101"/>
+      <c r="AH155" s="101"/>
+      <c r="AI155" s="101"/>
+      <c r="AJ155" s="101"/>
+      <c r="AK155" s="101"/>
+      <c r="AL155" s="101"/>
+      <c r="AM155" s="101"/>
+      <c r="AN155" s="101"/>
+      <c r="AO155" s="101"/>
+      <c r="AP155" s="101"/>
+      <c r="AQ155" s="101"/>
+      <c r="AR155" s="101"/>
     </row>
-    <row r="156" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S156" s="102"/>
-      <c r="T156" s="102"/>
-      <c r="U156" s="102"/>
-      <c r="V156" s="102"/>
-      <c r="W156" s="102"/>
-      <c r="X156" s="102"/>
-      <c r="Y156" s="102"/>
-      <c r="Z156" s="102"/>
-      <c r="AA156" s="102"/>
-      <c r="AB156" s="102"/>
-      <c r="AC156" s="102"/>
-      <c r="AD156" s="102"/>
-      <c r="AE156" s="102"/>
-      <c r="AF156" s="102"/>
-      <c r="AG156" s="102"/>
-      <c r="AH156" s="102"/>
-      <c r="AI156" s="102"/>
-      <c r="AJ156" s="102"/>
-      <c r="AK156" s="102"/>
-      <c r="AL156" s="102"/>
-      <c r="AM156" s="102"/>
-      <c r="AN156" s="102"/>
-      <c r="AO156" s="102"/>
-      <c r="AP156" s="102"/>
-      <c r="AQ156" s="102"/>
-      <c r="AR156" s="102"/>
+    <row r="156" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="S156" s="101"/>
+      <c r="T156" s="101"/>
+      <c r="U156" s="101"/>
+      <c r="V156" s="101"/>
+      <c r="W156" s="101"/>
+      <c r="X156" s="101"/>
+      <c r="Y156" s="101"/>
+      <c r="Z156" s="101"/>
+      <c r="AA156" s="101"/>
+      <c r="AB156" s="101"/>
+      <c r="AC156" s="101"/>
+      <c r="AD156" s="101"/>
+      <c r="AE156" s="101"/>
+      <c r="AF156" s="101"/>
+      <c r="AG156" s="101"/>
+      <c r="AH156" s="101"/>
+      <c r="AI156" s="101"/>
+      <c r="AJ156" s="101"/>
+      <c r="AK156" s="101"/>
+      <c r="AL156" s="101"/>
+      <c r="AM156" s="101"/>
+      <c r="AN156" s="101"/>
+      <c r="AO156" s="101"/>
+      <c r="AP156" s="101"/>
+      <c r="AQ156" s="101"/>
+      <c r="AR156" s="101"/>
     </row>
-    <row r="157" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S157" s="102"/>
-      <c r="T157" s="102"/>
-      <c r="U157" s="102"/>
-      <c r="V157" s="102"/>
-      <c r="W157" s="102"/>
-      <c r="X157" s="102"/>
-      <c r="Y157" s="102"/>
-      <c r="Z157" s="102"/>
-      <c r="AA157" s="102"/>
-      <c r="AB157" s="102"/>
-      <c r="AC157" s="102"/>
-      <c r="AD157" s="102"/>
-      <c r="AE157" s="102"/>
-      <c r="AF157" s="102"/>
-      <c r="AG157" s="102"/>
-      <c r="AH157" s="102"/>
-      <c r="AI157" s="102"/>
-      <c r="AJ157" s="102"/>
-      <c r="AK157" s="102"/>
-      <c r="AL157" s="102"/>
-      <c r="AM157" s="102"/>
-      <c r="AN157" s="102"/>
-      <c r="AO157" s="102"/>
-      <c r="AP157" s="102"/>
-      <c r="AQ157" s="102"/>
-      <c r="AR157" s="102"/>
+    <row r="157" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="S157" s="101"/>
+      <c r="T157" s="101"/>
+      <c r="U157" s="101"/>
+      <c r="V157" s="101"/>
+      <c r="W157" s="101"/>
+      <c r="X157" s="101"/>
+      <c r="Y157" s="101"/>
+      <c r="Z157" s="101"/>
+      <c r="AA157" s="101"/>
+      <c r="AB157" s="101"/>
+      <c r="AC157" s="101"/>
+      <c r="AD157" s="101"/>
+      <c r="AE157" s="101"/>
+      <c r="AF157" s="101"/>
+      <c r="AG157" s="101"/>
+      <c r="AH157" s="101"/>
+      <c r="AI157" s="101"/>
+      <c r="AJ157" s="101"/>
+      <c r="AK157" s="101"/>
+      <c r="AL157" s="101"/>
+      <c r="AM157" s="101"/>
+      <c r="AN157" s="101"/>
+      <c r="AO157" s="101"/>
+      <c r="AP157" s="101"/>
+      <c r="AQ157" s="101"/>
+      <c r="AR157" s="101"/>
     </row>
-    <row r="158" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S158" s="102"/>
-      <c r="T158" s="102"/>
-      <c r="U158" s="102"/>
-      <c r="V158" s="102"/>
-      <c r="W158" s="102"/>
-      <c r="X158" s="102"/>
-      <c r="Y158" s="102"/>
-      <c r="Z158" s="102"/>
-      <c r="AA158" s="102"/>
-      <c r="AB158" s="102"/>
-      <c r="AC158" s="102"/>
-      <c r="AD158" s="102"/>
-      <c r="AE158" s="102"/>
-      <c r="AF158" s="102"/>
-      <c r="AG158" s="102"/>
-      <c r="AH158" s="102"/>
-      <c r="AI158" s="102"/>
-      <c r="AJ158" s="102"/>
-      <c r="AK158" s="102"/>
-      <c r="AL158" s="102"/>
-      <c r="AM158" s="102"/>
-      <c r="AN158" s="102"/>
-      <c r="AO158" s="102"/>
-      <c r="AP158" s="102"/>
-      <c r="AQ158" s="102"/>
-      <c r="AR158" s="102"/>
+    <row r="158" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="S158" s="101"/>
+      <c r="T158" s="101"/>
+      <c r="U158" s="101"/>
+      <c r="V158" s="101"/>
+      <c r="W158" s="101"/>
+      <c r="X158" s="101"/>
+      <c r="Y158" s="101"/>
+      <c r="Z158" s="101"/>
+      <c r="AA158" s="101"/>
+      <c r="AB158" s="101"/>
+      <c r="AC158" s="101"/>
+      <c r="AD158" s="101"/>
+      <c r="AE158" s="101"/>
+      <c r="AF158" s="101"/>
+      <c r="AG158" s="101"/>
+      <c r="AH158" s="101"/>
+      <c r="AI158" s="101"/>
+      <c r="AJ158" s="101"/>
+      <c r="AK158" s="101"/>
+      <c r="AL158" s="101"/>
+      <c r="AM158" s="101"/>
+      <c r="AN158" s="101"/>
+      <c r="AO158" s="101"/>
+      <c r="AP158" s="101"/>
+      <c r="AQ158" s="101"/>
+      <c r="AR158" s="101"/>
     </row>
-    <row r="159" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S159" s="102"/>
-      <c r="T159" s="102"/>
-      <c r="U159" s="102"/>
-      <c r="V159" s="102"/>
-      <c r="W159" s="102"/>
-      <c r="X159" s="102"/>
-      <c r="Y159" s="102"/>
-      <c r="Z159" s="102"/>
-      <c r="AA159" s="102"/>
-      <c r="AB159" s="102"/>
-      <c r="AC159" s="102"/>
-      <c r="AD159" s="102"/>
-      <c r="AE159" s="102"/>
-      <c r="AF159" s="102"/>
-      <c r="AG159" s="102"/>
-      <c r="AH159" s="102"/>
-      <c r="AI159" s="102"/>
-      <c r="AJ159" s="102"/>
-      <c r="AK159" s="102"/>
-      <c r="AL159" s="102"/>
-      <c r="AM159" s="102"/>
-      <c r="AN159" s="102"/>
-      <c r="AO159" s="102"/>
-      <c r="AP159" s="102"/>
-      <c r="AQ159" s="102"/>
-      <c r="AR159" s="102"/>
+    <row r="159" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="S159" s="101"/>
+      <c r="T159" s="101"/>
+      <c r="U159" s="101"/>
+      <c r="V159" s="101"/>
+      <c r="W159" s="101"/>
+      <c r="X159" s="101"/>
+      <c r="Y159" s="101"/>
+      <c r="Z159" s="101"/>
+      <c r="AA159" s="101"/>
+      <c r="AB159" s="101"/>
+      <c r="AC159" s="101"/>
+      <c r="AD159" s="101"/>
+      <c r="AE159" s="101"/>
+      <c r="AF159" s="101"/>
+      <c r="AG159" s="101"/>
+      <c r="AH159" s="101"/>
+      <c r="AI159" s="101"/>
+      <c r="AJ159" s="101"/>
+      <c r="AK159" s="101"/>
+      <c r="AL159" s="101"/>
+      <c r="AM159" s="101"/>
+      <c r="AN159" s="101"/>
+      <c r="AO159" s="101"/>
+      <c r="AP159" s="101"/>
+      <c r="AQ159" s="101"/>
+      <c r="AR159" s="101"/>
     </row>
-    <row r="160" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S160" s="102"/>
-      <c r="T160" s="102"/>
-      <c r="U160" s="102"/>
-      <c r="V160" s="102"/>
-      <c r="W160" s="102"/>
-      <c r="X160" s="102"/>
-      <c r="Y160" s="102"/>
-      <c r="Z160" s="102"/>
-      <c r="AA160" s="102"/>
-      <c r="AB160" s="102"/>
-      <c r="AC160" s="102"/>
-      <c r="AD160" s="102"/>
-      <c r="AE160" s="102"/>
-      <c r="AF160" s="102"/>
-      <c r="AG160" s="102"/>
-      <c r="AH160" s="102"/>
-      <c r="AI160" s="102"/>
-      <c r="AJ160" s="102"/>
-      <c r="AK160" s="102"/>
-      <c r="AL160" s="102"/>
-      <c r="AM160" s="102"/>
-      <c r="AN160" s="102"/>
-      <c r="AO160" s="102"/>
-      <c r="AP160" s="102"/>
-      <c r="AQ160" s="102"/>
-      <c r="AR160" s="102"/>
+    <row r="160" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="S160" s="101"/>
+      <c r="T160" s="101"/>
+      <c r="U160" s="101"/>
+      <c r="V160" s="101"/>
+      <c r="W160" s="101"/>
+      <c r="X160" s="101"/>
+      <c r="Y160" s="101"/>
+      <c r="Z160" s="101"/>
+      <c r="AA160" s="101"/>
+      <c r="AB160" s="101"/>
+      <c r="AC160" s="101"/>
+      <c r="AD160" s="101"/>
+      <c r="AE160" s="101"/>
+      <c r="AF160" s="101"/>
+      <c r="AG160" s="101"/>
+      <c r="AH160" s="101"/>
+      <c r="AI160" s="101"/>
+      <c r="AJ160" s="101"/>
+      <c r="AK160" s="101"/>
+      <c r="AL160" s="101"/>
+      <c r="AM160" s="101"/>
+      <c r="AN160" s="101"/>
+      <c r="AO160" s="101"/>
+      <c r="AP160" s="101"/>
+      <c r="AQ160" s="101"/>
+      <c r="AR160" s="101"/>
     </row>
     <row r="161" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S161" s="102"/>
-      <c r="T161" s="102"/>
-      <c r="U161" s="102"/>
-      <c r="V161" s="102"/>
-      <c r="W161" s="102"/>
-      <c r="X161" s="102"/>
-      <c r="Y161" s="102"/>
-      <c r="Z161" s="102"/>
-      <c r="AA161" s="102"/>
-      <c r="AB161" s="102"/>
-      <c r="AC161" s="102"/>
-      <c r="AD161" s="102"/>
-      <c r="AE161" s="102"/>
-      <c r="AF161" s="102"/>
-      <c r="AG161" s="102"/>
-      <c r="AH161" s="102"/>
-      <c r="AI161" s="102"/>
-      <c r="AJ161" s="102"/>
-      <c r="AK161" s="102"/>
-      <c r="AL161" s="102"/>
-      <c r="AM161" s="102"/>
-      <c r="AN161" s="102"/>
-      <c r="AO161" s="102"/>
-      <c r="AP161" s="102"/>
-      <c r="AQ161" s="102"/>
-      <c r="AR161" s="102"/>
+      <c r="S161" s="101"/>
+      <c r="T161" s="101"/>
+      <c r="U161" s="101"/>
+      <c r="V161" s="101"/>
+      <c r="W161" s="101"/>
+      <c r="X161" s="101"/>
+      <c r="Y161" s="101"/>
+      <c r="Z161" s="101"/>
+      <c r="AA161" s="101"/>
+      <c r="AB161" s="101"/>
+      <c r="AC161" s="101"/>
+      <c r="AD161" s="101"/>
+      <c r="AE161" s="101"/>
+      <c r="AF161" s="101"/>
+      <c r="AG161" s="101"/>
+      <c r="AH161" s="101"/>
+      <c r="AI161" s="101"/>
+      <c r="AJ161" s="101"/>
+      <c r="AK161" s="101"/>
+      <c r="AL161" s="101"/>
+      <c r="AM161" s="101"/>
+      <c r="AN161" s="101"/>
+      <c r="AO161" s="101"/>
+      <c r="AP161" s="101"/>
+      <c r="AQ161" s="101"/>
+      <c r="AR161" s="101"/>
     </row>
     <row r="162" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S162" s="102"/>
-      <c r="T162" s="102"/>
-      <c r="U162" s="102"/>
-      <c r="V162" s="102"/>
-      <c r="W162" s="102"/>
-      <c r="X162" s="102"/>
-      <c r="Y162" s="102"/>
-      <c r="Z162" s="102"/>
-      <c r="AA162" s="102"/>
-      <c r="AB162" s="102"/>
-      <c r="AC162" s="102"/>
-      <c r="AD162" s="102"/>
-      <c r="AE162" s="102"/>
-      <c r="AF162" s="102"/>
-      <c r="AG162" s="102"/>
-      <c r="AH162" s="102"/>
-      <c r="AI162" s="102"/>
-      <c r="AJ162" s="102"/>
-      <c r="AK162" s="102"/>
-      <c r="AL162" s="102"/>
-      <c r="AM162" s="102"/>
-      <c r="AN162" s="102"/>
-      <c r="AO162" s="102"/>
-      <c r="AP162" s="102"/>
-      <c r="AQ162" s="102"/>
-      <c r="AR162" s="102"/>
+      <c r="S162" s="101"/>
+      <c r="T162" s="101"/>
+      <c r="U162" s="101"/>
+      <c r="V162" s="101"/>
+      <c r="W162" s="101"/>
+      <c r="X162" s="101"/>
+      <c r="Y162" s="101"/>
+      <c r="Z162" s="101"/>
+      <c r="AA162" s="101"/>
+      <c r="AB162" s="101"/>
+      <c r="AC162" s="101"/>
+      <c r="AD162" s="101"/>
+      <c r="AE162" s="101"/>
+      <c r="AF162" s="101"/>
+      <c r="AG162" s="101"/>
+      <c r="AH162" s="101"/>
+      <c r="AI162" s="101"/>
+      <c r="AJ162" s="101"/>
+      <c r="AK162" s="101"/>
+      <c r="AL162" s="101"/>
+      <c r="AM162" s="101"/>
+      <c r="AN162" s="101"/>
+      <c r="AO162" s="101"/>
+      <c r="AP162" s="101"/>
+      <c r="AQ162" s="101"/>
+      <c r="AR162" s="101"/>
     </row>
     <row r="163" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S163" s="102"/>
-      <c r="T163" s="102"/>
-      <c r="U163" s="102"/>
-      <c r="V163" s="102"/>
-      <c r="W163" s="102"/>
-      <c r="X163" s="102"/>
-      <c r="Y163" s="102"/>
-      <c r="Z163" s="102"/>
-      <c r="AA163" s="102"/>
-      <c r="AB163" s="102"/>
-      <c r="AC163" s="102"/>
-      <c r="AD163" s="102"/>
-      <c r="AE163" s="102"/>
-      <c r="AF163" s="102"/>
-      <c r="AG163" s="102"/>
-      <c r="AH163" s="102"/>
-      <c r="AI163" s="102"/>
-      <c r="AJ163" s="102"/>
-      <c r="AK163" s="102"/>
-      <c r="AL163" s="102"/>
-      <c r="AM163" s="102"/>
-      <c r="AN163" s="102"/>
-      <c r="AO163" s="102"/>
-      <c r="AP163" s="102"/>
-      <c r="AQ163" s="102"/>
-      <c r="AR163" s="102"/>
+      <c r="S163" s="101"/>
+      <c r="T163" s="101"/>
+      <c r="U163" s="101"/>
+      <c r="V163" s="101"/>
+      <c r="W163" s="101"/>
+      <c r="X163" s="101"/>
+      <c r="Y163" s="101"/>
+      <c r="Z163" s="101"/>
+      <c r="AA163" s="101"/>
+      <c r="AB163" s="101"/>
+      <c r="AC163" s="101"/>
+      <c r="AD163" s="101"/>
+      <c r="AE163" s="101"/>
+      <c r="AF163" s="101"/>
+      <c r="AG163" s="101"/>
+      <c r="AH163" s="101"/>
+      <c r="AI163" s="101"/>
+      <c r="AJ163" s="101"/>
+      <c r="AK163" s="101"/>
+      <c r="AL163" s="101"/>
+      <c r="AM163" s="101"/>
+      <c r="AN163" s="101"/>
+      <c r="AO163" s="101"/>
+      <c r="AP163" s="101"/>
+      <c r="AQ163" s="101"/>
+      <c r="AR163" s="101"/>
     </row>
     <row r="164" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S164" s="102"/>
-      <c r="T164" s="102"/>
-      <c r="U164" s="102"/>
-      <c r="V164" s="102"/>
-      <c r="W164" s="102"/>
-      <c r="X164" s="102"/>
-      <c r="Y164" s="102"/>
-      <c r="Z164" s="102"/>
-      <c r="AA164" s="102"/>
-      <c r="AB164" s="102"/>
-      <c r="AC164" s="102"/>
-      <c r="AD164" s="102"/>
-      <c r="AE164" s="102"/>
-      <c r="AF164" s="102"/>
-      <c r="AG164" s="102"/>
-      <c r="AH164" s="102"/>
-      <c r="AI164" s="102"/>
-      <c r="AJ164" s="102"/>
-      <c r="AK164" s="102"/>
-      <c r="AL164" s="102"/>
-      <c r="AM164" s="102"/>
-      <c r="AN164" s="102"/>
-      <c r="AO164" s="102"/>
-      <c r="AP164" s="102"/>
-      <c r="AQ164" s="102"/>
-      <c r="AR164" s="102"/>
+      <c r="S164" s="101"/>
+      <c r="T164" s="101"/>
+      <c r="U164" s="101"/>
+      <c r="V164" s="101"/>
+      <c r="W164" s="101"/>
+      <c r="X164" s="101"/>
+      <c r="Y164" s="101"/>
+      <c r="Z164" s="101"/>
+      <c r="AA164" s="101"/>
+      <c r="AB164" s="101"/>
+      <c r="AC164" s="101"/>
+      <c r="AD164" s="101"/>
+      <c r="AE164" s="101"/>
+      <c r="AF164" s="101"/>
+      <c r="AG164" s="101"/>
+      <c r="AH164" s="101"/>
+      <c r="AI164" s="101"/>
+      <c r="AJ164" s="101"/>
+      <c r="AK164" s="101"/>
+      <c r="AL164" s="101"/>
+      <c r="AM164" s="101"/>
+      <c r="AN164" s="101"/>
+      <c r="AO164" s="101"/>
+      <c r="AP164" s="101"/>
+      <c r="AQ164" s="101"/>
+      <c r="AR164" s="101"/>
     </row>
     <row r="165" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S165" s="102"/>
-      <c r="T165" s="102"/>
-      <c r="U165" s="102"/>
-      <c r="V165" s="102"/>
-      <c r="W165" s="102"/>
-      <c r="X165" s="102"/>
-      <c r="Y165" s="102"/>
-      <c r="Z165" s="102"/>
-      <c r="AA165" s="102"/>
-      <c r="AB165" s="102"/>
-      <c r="AC165" s="102"/>
-      <c r="AD165" s="102"/>
-      <c r="AE165" s="102"/>
-      <c r="AF165" s="102"/>
-      <c r="AG165" s="102"/>
-      <c r="AH165" s="102"/>
-      <c r="AI165" s="102"/>
-      <c r="AJ165" s="102"/>
-      <c r="AK165" s="102"/>
-      <c r="AL165" s="102"/>
-      <c r="AM165" s="102"/>
-      <c r="AN165" s="102"/>
-      <c r="AO165" s="102"/>
-      <c r="AP165" s="102"/>
-      <c r="AQ165" s="102"/>
-      <c r="AR165" s="102"/>
+      <c r="S165" s="101"/>
+      <c r="T165" s="101"/>
+      <c r="U165" s="101"/>
+      <c r="V165" s="101"/>
+      <c r="W165" s="101"/>
+      <c r="X165" s="101"/>
+      <c r="Y165" s="101"/>
+      <c r="Z165" s="101"/>
+      <c r="AA165" s="101"/>
+      <c r="AB165" s="101"/>
+      <c r="AC165" s="101"/>
+      <c r="AD165" s="101"/>
+      <c r="AE165" s="101"/>
+      <c r="AF165" s="101"/>
+      <c r="AG165" s="101"/>
+      <c r="AH165" s="101"/>
+      <c r="AI165" s="101"/>
+      <c r="AJ165" s="101"/>
+      <c r="AK165" s="101"/>
+      <c r="AL165" s="101"/>
+      <c r="AM165" s="101"/>
+      <c r="AN165" s="101"/>
+      <c r="AO165" s="101"/>
+      <c r="AP165" s="101"/>
+      <c r="AQ165" s="101"/>
+      <c r="AR165" s="101"/>
     </row>
     <row r="166" spans="19:44" x14ac:dyDescent="0.25">
-      <c r="S166" s="102"/>
-      <c r="T166" s="102"/>
-      <c r="U166" s="102"/>
-      <c r="V166" s="102"/>
-      <c r="W166" s="102"/>
-      <c r="X166" s="102"/>
-      <c r="Y166" s="102"/>
-      <c r="Z166" s="102"/>
-      <c r="AA166" s="102"/>
-      <c r="AB166" s="102"/>
-      <c r="AC166" s="102"/>
-      <c r="AD166" s="102"/>
-      <c r="AE166" s="102"/>
-      <c r="AF166" s="102"/>
-      <c r="AG166" s="102"/>
-      <c r="AH166" s="102"/>
-      <c r="AI166" s="102"/>
-      <c r="AJ166" s="102"/>
-      <c r="AK166" s="102"/>
-      <c r="AL166" s="102"/>
-      <c r="AM166" s="102"/>
-      <c r="AN166" s="102"/>
-      <c r="AO166" s="102"/>
-      <c r="AP166" s="102"/>
-      <c r="AQ166" s="102"/>
-      <c r="AR166" s="102"/>
+      <c r="S166" s="101"/>
+      <c r="T166" s="101"/>
+      <c r="U166" s="101"/>
+      <c r="V166" s="101"/>
+      <c r="W166" s="101"/>
+      <c r="X166" s="101"/>
+      <c r="Y166" s="101"/>
+      <c r="Z166" s="101"/>
+      <c r="AA166" s="101"/>
+      <c r="AB166" s="101"/>
+      <c r="AC166" s="101"/>
+      <c r="AD166" s="101"/>
+      <c r="AE166" s="101"/>
+      <c r="AF166" s="101"/>
+      <c r="AG166" s="101"/>
+      <c r="AH166" s="101"/>
+      <c r="AI166" s="101"/>
+      <c r="AJ166" s="101"/>
+      <c r="AK166" s="101"/>
+      <c r="AL166" s="101"/>
+      <c r="AM166" s="101"/>
+      <c r="AN166" s="101"/>
+      <c r="AO166" s="101"/>
+      <c r="AP166" s="101"/>
+      <c r="AQ166" s="101"/>
+      <c r="AR166" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="A133:A144"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C55:C58"/>
     <mergeCell ref="A107:A132"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="A55:A77"/>
@@ -17626,15 +18019,6 @@
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="C72:C74"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C55:C58"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F103:F106" r:id="rId1" location="2932-manual-adjudication-decision-service" display="POST /registration-processor/manual-adjudication/assignment" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -17660,37 +18044,21 @@
     <hyperlink ref="F63" r:id="rId21" location="279-get-document-api" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="F129" r:id="rId22" location="2-otp-request " xr:uid="{00000000-0004-0000-0000-000015000000}"/>
     <hyperlink ref="F107" r:id="rId23" location="1-auth-request " xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="F133:F136" r:id="rId24" location="2932-manual-adjudication-decision-service" display="POST /registration-processor/manual-adjudication/assignment" xr:uid="{ECBB3FA1-B0CC-43EA-BB4D-B124F979AA93}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
-  <legacyDrawing r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId25"/>
+  <legacyDrawing r:id="rId26"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17901,21 +18269,35 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B443FFFF-5AD5-4D1A-BEBD-F002358985A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85E73B9D-1766-405A-9B26-47DF7884A997}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17940,9 +18322,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85E73B9D-1766-405A-9B26-47DF7884A997}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B443FFFF-5AD5-4D1A-BEBD-F002358985A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/requirements/MOSIP_Roles and Responsibility_Matrix_16Jan19.xlsx
+++ b/requirements/MOSIP_Roles and Responsibility_Matrix_16Jan19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1032103\git-repo\mosip\requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A60DA7D7-6ACA-4CFA-B7FE-05498769A0C7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EF788ED8-76B7-4A66-9289-2C5DE037A0B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2184,12 +2184,120 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2208,6 +2316,9 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2223,121 +2334,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="15" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2633,7 +2633,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.140625" style="210" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" style="172" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="13" customWidth="1"/>
     <col min="3" max="3" width="78.140625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="9" customWidth="1"/>
@@ -2653,40 +2653,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:309" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="175" t="s">
+      <c r="C1" s="211" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="173" t="s">
+      <c r="D1" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="173" t="s">
+      <c r="E1" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="174" t="s">
+      <c r="F1" s="210" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="179" t="s">
+      <c r="G1" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="180"/>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="180"/>
-      <c r="N1" s="180"/>
-      <c r="O1" s="180"/>
-      <c r="P1" s="171" t="s">
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
+      <c r="L1" s="217"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="217"/>
+      <c r="P1" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="172"/>
-      <c r="R1" s="172"/>
+      <c r="Q1" s="204"/>
+      <c r="R1" s="204"/>
       <c r="S1" s="24"/>
       <c r="T1" s="15"/>
       <c r="U1" s="15"/>
@@ -2761,12 +2761,12 @@
       <c r="CL1" s="21"/>
     </row>
     <row r="2" spans="1:309" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="178"/>
-      <c r="B2" s="174"/>
-      <c r="C2" s="176"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
+      <c r="A2" s="214"/>
+      <c r="B2" s="210"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="210"/>
+      <c r="E2" s="210"/>
+      <c r="F2" s="210"/>
       <c r="G2" s="45" t="s">
         <v>8</v>
       </c>
@@ -2877,10 +2877,10 @@
       <c r="CL2" s="21"/>
     </row>
     <row r="3" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="196" t="s">
+      <c r="A3" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="187" t="s">
+      <c r="B3" s="190" t="s">
         <v>138</v>
       </c>
       <c r="C3" s="93"/>
@@ -2993,8 +2993,8 @@
       <c r="CL3" s="20"/>
     </row>
     <row r="4" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="196"/>
-      <c r="B4" s="188"/>
+      <c r="A4" s="185"/>
+      <c r="B4" s="191"/>
       <c r="C4" s="94"/>
       <c r="D4" s="12"/>
       <c r="E4" s="92"/>
@@ -3105,7 +3105,7 @@
       <c r="CL4" s="20"/>
     </row>
     <row r="5" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="196"/>
+      <c r="A5" s="185"/>
       <c r="B5" s="89" t="s">
         <v>151</v>
       </c>
@@ -3219,7 +3219,7 @@
       <c r="CL5" s="20"/>
     </row>
     <row r="6" spans="1:309" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="196"/>
+      <c r="A6" s="185"/>
       <c r="B6" s="89" t="s">
         <v>137</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="CL6" s="20"/>
     </row>
     <row r="7" spans="1:309" s="2" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="196"/>
+      <c r="A7" s="185"/>
       <c r="B7" s="89" t="s">
         <v>139</v>
       </c>
@@ -3447,8 +3447,8 @@
       <c r="CL7" s="20"/>
     </row>
     <row r="8" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="196"/>
-      <c r="B8" s="188" t="s">
+      <c r="A8" s="185"/>
+      <c r="B8" s="191" t="s">
         <v>147</v>
       </c>
       <c r="C8" s="94" t="s">
@@ -3549,8 +3549,8 @@
       <c r="CL8" s="20"/>
     </row>
     <row r="9" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="196"/>
-      <c r="B9" s="188"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="191"/>
       <c r="C9" s="94" t="s">
         <v>153</v>
       </c>
@@ -3649,8 +3649,8 @@
       <c r="CL9" s="20"/>
     </row>
     <row r="10" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="196"/>
-      <c r="B10" s="188"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="191"/>
       <c r="C10" s="94" t="s">
         <v>154</v>
       </c>
@@ -3749,7 +3749,7 @@
       <c r="CL10" s="20"/>
     </row>
     <row r="11" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="196"/>
+      <c r="A11" s="185"/>
       <c r="B11" s="89" t="s">
         <v>117</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="CL11" s="20"/>
     </row>
     <row r="12" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="196"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="89" t="s">
         <v>146</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="CL12" s="20"/>
     </row>
     <row r="13" spans="1:309" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="197"/>
+      <c r="A13" s="186"/>
       <c r="B13" s="29" t="s">
         <v>145</v>
       </c>
@@ -4041,7 +4041,7 @@
       <c r="CL13" s="20"/>
     </row>
     <row r="14" spans="1:309" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="198" t="s">
+      <c r="A14" s="205" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="90" t="s">
@@ -4141,7 +4141,7 @@
       <c r="CL14" s="20"/>
     </row>
     <row r="15" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="199"/>
+      <c r="A15" s="206"/>
       <c r="B15" s="56"/>
       <c r="C15" s="100" t="s">
         <v>156</v>
@@ -4456,7 +4456,7 @@
       <c r="KW15" s="12"/>
     </row>
     <row r="16" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="199"/>
+      <c r="A16" s="206"/>
       <c r="B16" s="82"/>
       <c r="C16" s="14" t="s">
         <v>157</v>
@@ -4771,7 +4771,7 @@
       <c r="KW16" s="12"/>
     </row>
     <row r="17" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="199"/>
+      <c r="A17" s="206"/>
       <c r="B17" s="82"/>
       <c r="C17" s="14" t="s">
         <v>158</v>
@@ -5086,7 +5086,7 @@
       <c r="KW17" s="12"/>
     </row>
     <row r="18" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="199"/>
+      <c r="A18" s="206"/>
       <c r="B18" s="82"/>
       <c r="C18" s="14" t="s">
         <v>159</v>
@@ -5401,7 +5401,7 @@
       <c r="KW18" s="12"/>
     </row>
     <row r="19" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="199"/>
+      <c r="A19" s="206"/>
       <c r="B19" s="82"/>
       <c r="C19" s="14" t="s">
         <v>160</v>
@@ -5716,7 +5716,7 @@
       <c r="KW19" s="12"/>
     </row>
     <row r="20" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="199"/>
+      <c r="A20" s="206"/>
       <c r="B20" s="82"/>
       <c r="C20" s="100" t="s">
         <v>161</v>
@@ -6031,7 +6031,7 @@
       <c r="KW20" s="12"/>
     </row>
     <row r="21" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="199"/>
+      <c r="A21" s="206"/>
       <c r="B21" s="82"/>
       <c r="C21" s="14" t="s">
         <v>162</v>
@@ -6346,7 +6346,7 @@
       <c r="KW21" s="12"/>
     </row>
     <row r="22" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="199"/>
+      <c r="A22" s="206"/>
       <c r="B22" s="82"/>
       <c r="C22" s="14" t="s">
         <v>163</v>
@@ -6661,7 +6661,7 @@
       <c r="KW22" s="12"/>
     </row>
     <row r="23" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="199"/>
+      <c r="A23" s="206"/>
       <c r="B23" s="82"/>
       <c r="C23" s="14" t="s">
         <v>164</v>
@@ -6976,7 +6976,7 @@
       <c r="KW23" s="12"/>
     </row>
     <row r="24" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="199"/>
+      <c r="A24" s="206"/>
       <c r="B24" s="82"/>
       <c r="C24" s="100" t="s">
         <v>165</v>
@@ -7291,7 +7291,7 @@
       <c r="KW24" s="12"/>
     </row>
     <row r="25" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="199"/>
+      <c r="A25" s="206"/>
       <c r="B25" s="82"/>
       <c r="C25" s="100" t="s">
         <v>166</v>
@@ -7606,7 +7606,7 @@
       <c r="KW25" s="12"/>
     </row>
     <row r="26" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="199"/>
+      <c r="A26" s="206"/>
       <c r="B26" s="82"/>
       <c r="C26" s="100" t="s">
         <v>167</v>
@@ -7921,7 +7921,7 @@
       <c r="KW26" s="12"/>
     </row>
     <row r="27" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="199"/>
+      <c r="A27" s="206"/>
       <c r="B27" s="82"/>
       <c r="C27" s="100" t="s">
         <v>168</v>
@@ -8236,7 +8236,7 @@
       <c r="KW27" s="12"/>
     </row>
     <row r="28" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="199"/>
+      <c r="A28" s="206"/>
       <c r="B28" s="82"/>
       <c r="C28" s="100" t="s">
         <v>169</v>
@@ -8551,7 +8551,7 @@
       <c r="KW28" s="12"/>
     </row>
     <row r="29" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="199"/>
+      <c r="A29" s="206"/>
       <c r="B29" s="82"/>
       <c r="C29" s="100" t="s">
         <v>170</v>
@@ -8866,7 +8866,7 @@
       <c r="KW29" s="12"/>
     </row>
     <row r="30" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="199"/>
+      <c r="A30" s="206"/>
       <c r="B30" s="82"/>
       <c r="C30" s="100" t="s">
         <v>171</v>
@@ -9181,7 +9181,7 @@
       <c r="KW30" s="12"/>
     </row>
     <row r="31" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="199"/>
+      <c r="A31" s="206"/>
       <c r="B31" s="82"/>
       <c r="C31" s="100" t="s">
         <v>172</v>
@@ -9496,7 +9496,7 @@
       <c r="KW31" s="12"/>
     </row>
     <row r="32" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="199"/>
+      <c r="A32" s="206"/>
       <c r="B32" s="82"/>
       <c r="C32" s="100" t="s">
         <v>173</v>
@@ -9811,7 +9811,7 @@
       <c r="KW32" s="12"/>
     </row>
     <row r="33" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="199"/>
+      <c r="A33" s="206"/>
       <c r="B33" s="82"/>
       <c r="C33" s="100" t="s">
         <v>174</v>
@@ -10126,7 +10126,7 @@
       <c r="KW33" s="12"/>
     </row>
     <row r="34" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="199"/>
+      <c r="A34" s="206"/>
       <c r="B34" s="82"/>
       <c r="C34" s="100" t="s">
         <v>175</v>
@@ -10441,7 +10441,7 @@
       <c r="KW34" s="12"/>
     </row>
     <row r="35" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="199"/>
+      <c r="A35" s="206"/>
       <c r="B35" s="82"/>
       <c r="C35" s="100" t="s">
         <v>176</v>
@@ -10756,7 +10756,7 @@
       <c r="KW35" s="12"/>
     </row>
     <row r="36" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="199"/>
+      <c r="A36" s="206"/>
       <c r="B36" s="82"/>
       <c r="C36" s="100" t="s">
         <v>177</v>
@@ -11071,7 +11071,7 @@
       <c r="KW36" s="12"/>
     </row>
     <row r="37" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="199"/>
+      <c r="A37" s="206"/>
       <c r="B37" s="82"/>
       <c r="C37" s="100" t="s">
         <v>178</v>
@@ -11386,7 +11386,7 @@
       <c r="KW37" s="12"/>
     </row>
     <row r="38" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="199"/>
+      <c r="A38" s="206"/>
       <c r="B38" s="82"/>
       <c r="C38" s="100" t="s">
         <v>179</v>
@@ -11701,7 +11701,7 @@
       <c r="KW38" s="12"/>
     </row>
     <row r="39" spans="1:309" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="199"/>
+      <c r="A39" s="206"/>
       <c r="B39" s="82"/>
       <c r="C39" s="100" t="s">
         <v>180</v>
@@ -12016,7 +12016,7 @@
       <c r="KW39" s="12"/>
     </row>
     <row r="40" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A40" s="199"/>
+      <c r="A40" s="206"/>
       <c r="B40" s="56" t="s">
         <v>20</v>
       </c>
@@ -12078,7 +12078,7 @@
       <c r="BY40" s="10"/>
     </row>
     <row r="41" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A41" s="199"/>
+      <c r="A41" s="206"/>
       <c r="B41" s="56" t="s">
         <v>127</v>
       </c>
@@ -12140,7 +12140,7 @@
       <c r="BY41" s="10"/>
     </row>
     <row r="42" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A42" s="199"/>
+      <c r="A42" s="206"/>
       <c r="B42" s="88" t="s">
         <v>136</v>
       </c>
@@ -12200,7 +12200,7 @@
       <c r="BY42" s="10"/>
     </row>
     <row r="43" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A43" s="199"/>
+      <c r="A43" s="206"/>
       <c r="B43" s="55" t="s">
         <v>128</v>
       </c>
@@ -12262,8 +12262,8 @@
       <c r="BY43" s="10"/>
     </row>
     <row r="44" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A44" s="199"/>
-      <c r="B44" s="189" t="s">
+      <c r="A44" s="206"/>
+      <c r="B44" s="192" t="s">
         <v>129</v>
       </c>
       <c r="C44" s="98" t="s">
@@ -12324,8 +12324,8 @@
       <c r="BY44" s="10"/>
     </row>
     <row r="45" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A45" s="199"/>
-      <c r="B45" s="190"/>
+      <c r="A45" s="206"/>
+      <c r="B45" s="193"/>
       <c r="C45" s="98" t="s">
         <v>185</v>
       </c>
@@ -12384,8 +12384,8 @@
       <c r="BY45" s="10"/>
     </row>
     <row r="46" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A46" s="199"/>
-      <c r="B46" s="190"/>
+      <c r="A46" s="206"/>
+      <c r="B46" s="193"/>
       <c r="C46" s="98" t="s">
         <v>186</v>
       </c>
@@ -12444,8 +12444,8 @@
       <c r="BY46" s="10"/>
     </row>
     <row r="47" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A47" s="199"/>
-      <c r="B47" s="190"/>
+      <c r="A47" s="206"/>
+      <c r="B47" s="193"/>
       <c r="C47" s="98" t="s">
         <v>187</v>
       </c>
@@ -12504,8 +12504,8 @@
       <c r="BY47" s="10"/>
     </row>
     <row r="48" spans="1:309" x14ac:dyDescent="0.25">
-      <c r="A48" s="199"/>
-      <c r="B48" s="191"/>
+      <c r="A48" s="206"/>
+      <c r="B48" s="194"/>
       <c r="C48" s="98" t="s">
         <v>188</v>
       </c>
@@ -12564,7 +12564,7 @@
       <c r="BY48" s="10"/>
     </row>
     <row r="49" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A49" s="199"/>
+      <c r="A49" s="206"/>
       <c r="B49" s="55" t="s">
         <v>131</v>
       </c>
@@ -12626,7 +12626,7 @@
       <c r="BY49" s="10"/>
     </row>
     <row r="50" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A50" s="199"/>
+      <c r="A50" s="206"/>
       <c r="B50" s="55" t="s">
         <v>132</v>
       </c>
@@ -12688,7 +12688,7 @@
       <c r="BY50" s="10"/>
     </row>
     <row r="51" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A51" s="199"/>
+      <c r="A51" s="206"/>
       <c r="B51" s="55" t="s">
         <v>134</v>
       </c>
@@ -12750,7 +12750,7 @@
       <c r="BY51" s="10"/>
     </row>
     <row r="52" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A52" s="199"/>
+      <c r="A52" s="206"/>
       <c r="B52" s="55" t="s">
         <v>133</v>
       </c>
@@ -12810,7 +12810,7 @@
       <c r="BY52" s="10"/>
     </row>
     <row r="53" spans="1:77" x14ac:dyDescent="0.25">
-      <c r="A53" s="199"/>
+      <c r="A53" s="206"/>
       <c r="B53" s="55" t="s">
         <v>135</v>
       </c>
@@ -12870,7 +12870,7 @@
       <c r="BY53" s="10"/>
     </row>
     <row r="54" spans="1:77" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="200"/>
+      <c r="A54" s="215"/>
       <c r="B54" s="29" t="s">
         <v>130</v>
       </c>
@@ -12930,17 +12930,17 @@
       <c r="BY54" s="10"/>
     </row>
     <row r="55" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="198" t="s">
+      <c r="A55" s="205" t="s">
         <v>21</v>
       </c>
       <c r="B55" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="194" t="s">
+      <c r="C55" s="198" t="s">
         <v>23</v>
       </c>
       <c r="D55" s="28"/>
-      <c r="E55" s="192"/>
+      <c r="E55" s="195"/>
       <c r="F55" s="65" t="s">
         <v>24</v>
       </c>
@@ -13018,11 +13018,11 @@
       </c>
     </row>
     <row r="56" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="199"/>
+      <c r="A56" s="206"/>
       <c r="B56" s="56"/>
-      <c r="C56" s="184"/>
+      <c r="C56" s="197"/>
       <c r="D56" s="12"/>
-      <c r="E56" s="193"/>
+      <c r="E56" s="196"/>
       <c r="F56" s="66" t="s">
         <v>25</v>
       </c>
@@ -13076,11 +13076,11 @@
       <c r="BY56" s="10"/>
     </row>
     <row r="57" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="199"/>
+      <c r="A57" s="206"/>
       <c r="B57" s="56"/>
-      <c r="C57" s="184"/>
+      <c r="C57" s="197"/>
       <c r="D57" s="12"/>
-      <c r="E57" s="193"/>
+      <c r="E57" s="196"/>
       <c r="F57" s="66" t="s">
         <v>26</v>
       </c>
@@ -13136,11 +13136,11 @@
       <c r="BY57" s="10"/>
     </row>
     <row r="58" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="199"/>
+      <c r="A58" s="206"/>
       <c r="B58" s="56"/>
-      <c r="C58" s="184"/>
+      <c r="C58" s="197"/>
       <c r="D58" s="12"/>
-      <c r="E58" s="193"/>
+      <c r="E58" s="196"/>
       <c r="F58" s="125" t="s">
         <v>27</v>
       </c>
@@ -13196,9 +13196,9 @@
       <c r="BY58" s="10"/>
     </row>
     <row r="59" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="199"/>
+      <c r="A59" s="206"/>
       <c r="B59" s="56"/>
-      <c r="C59" s="184" t="s">
+      <c r="C59" s="197" t="s">
         <v>28</v>
       </c>
       <c r="D59" s="12"/>
@@ -13258,9 +13258,9 @@
       <c r="BY59" s="10"/>
     </row>
     <row r="60" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="199"/>
+      <c r="A60" s="206"/>
       <c r="B60" s="56"/>
-      <c r="C60" s="184"/>
+      <c r="C60" s="197"/>
       <c r="D60" s="12"/>
       <c r="E60" s="68"/>
       <c r="F60" s="66" t="s">
@@ -13318,9 +13318,9 @@
       <c r="BY60" s="10"/>
     </row>
     <row r="61" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="199"/>
+      <c r="A61" s="206"/>
       <c r="B61" s="56"/>
-      <c r="C61" s="184"/>
+      <c r="C61" s="197"/>
       <c r="D61" s="12"/>
       <c r="E61" s="68"/>
       <c r="F61" s="66" t="s">
@@ -13378,9 +13378,9 @@
       <c r="BY61" s="10"/>
     </row>
     <row r="62" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="199"/>
+      <c r="A62" s="206"/>
       <c r="B62" s="56"/>
-      <c r="C62" s="184" t="s">
+      <c r="C62" s="197" t="s">
         <v>32</v>
       </c>
       <c r="D62" s="12"/>
@@ -13440,9 +13440,9 @@
       <c r="BY62" s="10"/>
     </row>
     <row r="63" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="199"/>
+      <c r="A63" s="206"/>
       <c r="B63" s="56"/>
-      <c r="C63" s="184"/>
+      <c r="C63" s="197"/>
       <c r="D63" s="12"/>
       <c r="E63" s="68"/>
       <c r="F63" s="66" t="s">
@@ -13500,9 +13500,9 @@
       <c r="BY63" s="10"/>
     </row>
     <row r="64" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="199"/>
+      <c r="A64" s="206"/>
       <c r="B64" s="56"/>
-      <c r="C64" s="184"/>
+      <c r="C64" s="197"/>
       <c r="D64" s="12"/>
       <c r="E64" s="68"/>
       <c r="F64" s="66" t="s">
@@ -13560,9 +13560,9 @@
       <c r="BY64" s="10"/>
     </row>
     <row r="65" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="199"/>
+      <c r="A65" s="206"/>
       <c r="B65" s="56"/>
-      <c r="C65" s="184"/>
+      <c r="C65" s="197"/>
       <c r="D65" s="12"/>
       <c r="E65" s="68"/>
       <c r="F65" s="66" t="s">
@@ -13620,9 +13620,9 @@
       <c r="BY65" s="10"/>
     </row>
     <row r="66" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="199"/>
+      <c r="A66" s="206"/>
       <c r="B66" s="56"/>
-      <c r="C66" s="184"/>
+      <c r="C66" s="197"/>
       <c r="D66" s="12"/>
       <c r="E66" s="68"/>
       <c r="F66" s="66" t="s">
@@ -13680,9 +13680,9 @@
       <c r="BY66" s="10"/>
     </row>
     <row r="67" spans="1:77" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="199"/>
+      <c r="A67" s="206"/>
       <c r="B67" s="56"/>
-      <c r="C67" s="184"/>
+      <c r="C67" s="197"/>
       <c r="D67" s="12"/>
       <c r="E67" s="68"/>
       <c r="F67" s="66" t="s">
@@ -13740,9 +13740,9 @@
       <c r="BY67" s="10"/>
     </row>
     <row r="68" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="201"/>
+      <c r="A68" s="207"/>
       <c r="B68" s="56"/>
-      <c r="C68" s="184" t="s">
+      <c r="C68" s="197" t="s">
         <v>39</v>
       </c>
       <c r="D68" s="12"/>
@@ -13803,9 +13803,9 @@
       </c>
     </row>
     <row r="69" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="201"/>
+      <c r="A69" s="207"/>
       <c r="B69" s="56"/>
-      <c r="C69" s="184"/>
+      <c r="C69" s="197"/>
       <c r="D69" s="12"/>
       <c r="E69" s="68"/>
       <c r="F69" s="127" t="s">
@@ -13854,7 +13854,7 @@
       <c r="AU69" s="6"/>
     </row>
     <row r="70" spans="1:77" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="201"/>
+      <c r="A70" s="207"/>
       <c r="B70" s="56"/>
       <c r="C70" s="14" t="s">
         <v>42</v>
@@ -13907,7 +13907,7 @@
       <c r="AU70" s="6"/>
     </row>
     <row r="71" spans="1:77" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="201"/>
+      <c r="A71" s="207"/>
       <c r="B71" s="56"/>
       <c r="C71" s="14" t="s">
         <v>44</v>
@@ -13960,9 +13960,9 @@
       <c r="AU71" s="6"/>
     </row>
     <row r="72" spans="1:77" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="201"/>
+      <c r="A72" s="207"/>
       <c r="B72" s="56"/>
-      <c r="C72" s="184" t="s">
+      <c r="C72" s="197" t="s">
         <v>46</v>
       </c>
       <c r="D72" s="12"/>
@@ -14013,9 +14013,9 @@
       <c r="AU72" s="6"/>
     </row>
     <row r="73" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="201"/>
+      <c r="A73" s="207"/>
       <c r="B73" s="56"/>
-      <c r="C73" s="184"/>
+      <c r="C73" s="197"/>
       <c r="D73" s="12"/>
       <c r="E73" s="68"/>
       <c r="F73" s="128" t="s">
@@ -14064,9 +14064,9 @@
       <c r="AU73" s="6"/>
     </row>
     <row r="74" spans="1:77" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="201"/>
+      <c r="A74" s="207"/>
       <c r="B74" s="56"/>
-      <c r="C74" s="184"/>
+      <c r="C74" s="197"/>
       <c r="D74" s="12"/>
       <c r="E74" s="68"/>
       <c r="F74" s="129" t="s">
@@ -14115,7 +14115,7 @@
       <c r="AU74" s="6"/>
     </row>
     <row r="75" spans="1:77" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="201"/>
+      <c r="A75" s="207"/>
       <c r="B75" s="56"/>
       <c r="C75" s="14" t="s">
         <v>50</v>
@@ -14166,9 +14166,9 @@
       <c r="AU75" s="6"/>
     </row>
     <row r="76" spans="1:77" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="201"/>
+      <c r="A76" s="207"/>
       <c r="B76" s="56"/>
-      <c r="C76" s="185" t="s">
+      <c r="C76" s="221" t="s">
         <v>52</v>
       </c>
       <c r="D76" s="12"/>
@@ -14221,9 +14221,9 @@
       <c r="AU76" s="6"/>
     </row>
     <row r="77" spans="1:77" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="202"/>
+      <c r="A77" s="208"/>
       <c r="B77" s="29"/>
-      <c r="C77" s="186"/>
+      <c r="C77" s="222"/>
       <c r="D77" s="30"/>
       <c r="E77" s="79"/>
       <c r="F77" s="130" t="s">
@@ -14282,7 +14282,7 @@
       <c r="AU77" s="1"/>
     </row>
     <row r="78" spans="1:77" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="198" t="s">
+      <c r="A78" s="205" t="s">
         <v>191</v>
       </c>
       <c r="B78" s="27" t="s">
@@ -14347,7 +14347,7 @@
       <c r="AU78" s="1"/>
     </row>
     <row r="79" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="201" t="s">
+      <c r="A79" s="207" t="s">
         <v>57</v>
       </c>
       <c r="B79" s="56"/>
@@ -14406,7 +14406,7 @@
       <c r="AU79" s="1"/>
     </row>
     <row r="80" spans="1:77" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="201"/>
+      <c r="A80" s="207"/>
       <c r="B80" s="56" t="s">
         <v>59</v>
       </c>
@@ -14465,7 +14465,7 @@
       <c r="AU80" s="1"/>
     </row>
     <row r="81" spans="1:47" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="201"/>
+      <c r="A81" s="207"/>
       <c r="B81" s="56"/>
       <c r="C81" s="14" t="s">
         <v>61</v>
@@ -14522,7 +14522,7 @@
       <c r="AU81" s="1"/>
     </row>
     <row r="82" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="201"/>
+      <c r="A82" s="207"/>
       <c r="B82" s="56"/>
       <c r="C82" s="14" t="s">
         <v>122</v>
@@ -14579,7 +14579,7 @@
       <c r="AU82" s="1"/>
     </row>
     <row r="83" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A83" s="201"/>
+      <c r="A83" s="207"/>
       <c r="B83" s="80"/>
       <c r="C83" s="14" t="s">
         <v>123</v>
@@ -14634,7 +14634,7 @@
       <c r="AU83" s="1"/>
     </row>
     <row r="84" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A84" s="201"/>
+      <c r="A84" s="207"/>
       <c r="B84" s="80"/>
       <c r="C84" s="14" t="s">
         <v>124</v>
@@ -14689,7 +14689,7 @@
       <c r="AU84" s="1"/>
     </row>
     <row r="85" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A85" s="201"/>
+      <c r="A85" s="207"/>
       <c r="B85" s="80"/>
       <c r="C85" s="14" t="s">
         <v>125</v>
@@ -14744,7 +14744,7 @@
       <c r="AU85" s="1"/>
     </row>
     <row r="86" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A86" s="201"/>
+      <c r="A86" s="207"/>
       <c r="B86" s="80"/>
       <c r="C86" s="14" t="s">
         <v>126</v>
@@ -14799,7 +14799,7 @@
       <c r="AU86" s="1"/>
     </row>
     <row r="87" spans="1:47" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="201"/>
+      <c r="A87" s="207"/>
       <c r="B87" s="56"/>
       <c r="C87" s="14" t="s">
         <v>62</v>
@@ -14856,7 +14856,7 @@
       <c r="AU87" s="1"/>
     </row>
     <row r="88" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="201"/>
+      <c r="A88" s="207"/>
       <c r="B88" s="56"/>
       <c r="C88" s="14" t="s">
         <v>63</v>
@@ -14911,7 +14911,7 @@
       <c r="AU88" s="1"/>
     </row>
     <row r="89" spans="1:47" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="201"/>
+      <c r="A89" s="207"/>
       <c r="B89" s="56"/>
       <c r="C89" s="14" t="s">
         <v>64</v>
@@ -14968,7 +14968,7 @@
       <c r="AU89" s="1"/>
     </row>
     <row r="90" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="201"/>
+      <c r="A90" s="207"/>
       <c r="B90" s="56" t="s">
         <v>65</v>
       </c>
@@ -15025,7 +15025,7 @@
       <c r="AU90" s="1"/>
     </row>
     <row r="91" spans="1:47" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="201"/>
+      <c r="A91" s="207"/>
       <c r="B91" s="56" t="s">
         <v>66</v>
       </c>
@@ -15082,7 +15082,7 @@
       <c r="AU91" s="1"/>
     </row>
     <row r="92" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A92" s="201"/>
+      <c r="A92" s="207"/>
       <c r="B92" s="84"/>
       <c r="C92" s="14" t="s">
         <v>142</v>
@@ -15131,7 +15131,7 @@
       <c r="AU92" s="1"/>
     </row>
     <row r="93" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A93" s="201"/>
+      <c r="A93" s="207"/>
       <c r="B93" s="84"/>
       <c r="C93" s="14" t="s">
         <v>143</v>
@@ -15180,7 +15180,7 @@
       <c r="AU93" s="1"/>
     </row>
     <row r="94" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="201"/>
+      <c r="A94" s="207"/>
       <c r="B94" s="56"/>
       <c r="C94" s="14" t="s">
         <v>144</v>
@@ -15235,7 +15235,7 @@
       <c r="AU94" s="1"/>
     </row>
     <row r="95" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="201"/>
+      <c r="A95" s="207"/>
       <c r="B95" s="56" t="s">
         <v>67</v>
       </c>
@@ -15292,7 +15292,7 @@
       <c r="AU95" s="1"/>
     </row>
     <row r="96" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="201"/>
+      <c r="A96" s="207"/>
       <c r="B96" s="56" t="s">
         <v>68</v>
       </c>
@@ -15349,7 +15349,7 @@
       <c r="AU96" s="1"/>
     </row>
     <row r="97" spans="1:47" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="201"/>
+      <c r="A97" s="207"/>
       <c r="B97" s="56" t="s">
         <v>69</v>
       </c>
@@ -15406,7 +15406,7 @@
       <c r="AU97" s="1"/>
     </row>
     <row r="98" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A98" s="201"/>
+      <c r="A98" s="207"/>
       <c r="B98" s="55" t="s">
         <v>70</v>
       </c>
@@ -15463,7 +15463,7 @@
       <c r="AU98" s="1"/>
     </row>
     <row r="99" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A99" s="201"/>
+      <c r="A99" s="207"/>
       <c r="B99" s="55" t="s">
         <v>70</v>
       </c>
@@ -15520,7 +15520,7 @@
       <c r="AU99" s="1"/>
     </row>
     <row r="100" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A100" s="201"/>
+      <c r="A100" s="207"/>
       <c r="B100" s="55" t="s">
         <v>70</v>
       </c>
@@ -15577,7 +15577,7 @@
       <c r="AU100" s="1"/>
     </row>
     <row r="101" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A101" s="201"/>
+      <c r="A101" s="207"/>
       <c r="B101" s="55" t="s">
         <v>70</v>
       </c>
@@ -15634,7 +15634,7 @@
       <c r="AU101" s="1"/>
     </row>
     <row r="102" spans="1:47" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="201"/>
+      <c r="A102" s="207"/>
       <c r="B102" s="55"/>
       <c r="C102" s="102"/>
       <c r="D102" s="48"/>
@@ -15689,10 +15689,10 @@
       <c r="AU102" s="1"/>
     </row>
     <row r="103" spans="1:47" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="203" t="s">
+      <c r="A103" s="187" t="s">
         <v>71</v>
       </c>
-      <c r="B103" s="181" t="s">
+      <c r="B103" s="218" t="s">
         <v>72</v>
       </c>
       <c r="C103" s="103" t="s">
@@ -15746,8 +15746,8 @@
       <c r="AU103" s="1"/>
     </row>
     <row r="104" spans="1:47" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="204"/>
-      <c r="B104" s="182"/>
+      <c r="A104" s="188"/>
+      <c r="B104" s="219"/>
       <c r="C104" s="104" t="s">
         <v>75</v>
       </c>
@@ -15799,8 +15799,8 @@
       <c r="AU104" s="1"/>
     </row>
     <row r="105" spans="1:47" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="204"/>
-      <c r="B105" s="182"/>
+      <c r="A105" s="188"/>
+      <c r="B105" s="219"/>
       <c r="C105" s="104" t="s">
         <v>77</v>
       </c>
@@ -15852,8 +15852,8 @@
       <c r="AU105" s="1"/>
     </row>
     <row r="106" spans="1:47" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="205"/>
-      <c r="B106" s="183"/>
+      <c r="A106" s="189"/>
+      <c r="B106" s="220"/>
       <c r="C106" s="105" t="s">
         <v>79</v>
       </c>
@@ -15905,7 +15905,7 @@
       <c r="AU106" s="1"/>
     </row>
     <row r="107" spans="1:47" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="206" t="s">
+      <c r="A107" s="199" t="s">
         <v>81</v>
       </c>
       <c r="B107" s="73" t="s">
@@ -15935,7 +15935,7 @@
       <c r="S107" s="25"/>
     </row>
     <row r="108" spans="1:47" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="207"/>
+      <c r="A108" s="200"/>
       <c r="B108" s="70"/>
       <c r="C108" s="3" t="s">
         <v>84</v>
@@ -15961,7 +15961,7 @@
       <c r="S108" s="25"/>
     </row>
     <row r="109" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="196" t="s">
+      <c r="A109" s="185" t="s">
         <v>85</v>
       </c>
       <c r="B109" s="70"/>
@@ -15989,7 +15989,7 @@
       <c r="S109" s="25"/>
     </row>
     <row r="110" spans="1:47" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="196"/>
+      <c r="A110" s="185"/>
       <c r="B110" s="70"/>
       <c r="C110" s="3" t="s">
         <v>87</v>
@@ -16015,7 +16015,7 @@
       <c r="S110" s="25"/>
     </row>
     <row r="111" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A111" s="196"/>
+      <c r="A111" s="185"/>
       <c r="B111" s="70"/>
       <c r="C111" s="107" t="s">
         <v>88</v>
@@ -16039,7 +16039,7 @@
       <c r="S111" s="25"/>
     </row>
     <row r="112" spans="1:47" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="196"/>
+      <c r="A112" s="185"/>
       <c r="B112" s="70"/>
       <c r="C112" s="3" t="s">
         <v>89</v>
@@ -16065,7 +16065,7 @@
       <c r="S112" s="25"/>
     </row>
     <row r="113" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="196"/>
+      <c r="A113" s="185"/>
       <c r="B113" s="70"/>
       <c r="C113" s="3" t="s">
         <v>90</v>
@@ -16091,7 +16091,7 @@
       <c r="S113" s="25"/>
     </row>
     <row r="114" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A114" s="196"/>
+      <c r="A114" s="185"/>
       <c r="B114" s="70"/>
       <c r="C114" s="107" t="s">
         <v>91</v>
@@ -16115,7 +16115,7 @@
       <c r="S114" s="25"/>
     </row>
     <row r="115" spans="1:44" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="196"/>
+      <c r="A115" s="185"/>
       <c r="B115" s="70"/>
       <c r="C115" s="3" t="s">
         <v>92</v>
@@ -16141,7 +16141,7 @@
       <c r="S115" s="25"/>
     </row>
     <row r="116" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="196"/>
+      <c r="A116" s="185"/>
       <c r="B116" s="70"/>
       <c r="C116" s="3" t="s">
         <v>93</v>
@@ -16167,7 +16167,7 @@
       <c r="S116" s="25"/>
     </row>
     <row r="117" spans="1:44" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="208"/>
+      <c r="A117" s="201"/>
       <c r="B117" s="70"/>
       <c r="C117" s="3" t="s">
         <v>94</v>
@@ -16193,7 +16193,7 @@
       <c r="S117" s="25"/>
     </row>
     <row r="118" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="208"/>
+      <c r="A118" s="201"/>
       <c r="B118" s="70" t="s">
         <v>95</v>
       </c>
@@ -16221,7 +16221,7 @@
       <c r="S118" s="25"/>
     </row>
     <row r="119" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="208"/>
+      <c r="A119" s="201"/>
       <c r="B119" s="70"/>
       <c r="C119" s="3" t="s">
         <v>90</v>
@@ -16247,7 +16247,7 @@
       <c r="S119" s="25"/>
     </row>
     <row r="120" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A120" s="208"/>
+      <c r="A120" s="201"/>
       <c r="B120" s="70"/>
       <c r="C120" s="107" t="s">
         <v>91</v>
@@ -16271,7 +16271,7 @@
       <c r="S120" s="25"/>
     </row>
     <row r="121" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="208"/>
+      <c r="A121" s="201"/>
       <c r="B121" s="70"/>
       <c r="C121" s="3" t="s">
         <v>92</v>
@@ -16297,7 +16297,7 @@
       <c r="S121" s="25"/>
     </row>
     <row r="122" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="208"/>
+      <c r="A122" s="201"/>
       <c r="B122" s="70"/>
       <c r="C122" s="3" t="s">
         <v>93</v>
@@ -16323,7 +16323,7 @@
       <c r="S122" s="25"/>
     </row>
     <row r="123" spans="1:44" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="208"/>
+      <c r="A123" s="201"/>
       <c r="B123" s="70"/>
       <c r="C123" s="3" t="s">
         <v>94</v>
@@ -16349,7 +16349,7 @@
       <c r="S123" s="25"/>
     </row>
     <row r="124" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="208"/>
+      <c r="A124" s="201"/>
       <c r="B124" s="70"/>
       <c r="C124" s="9" t="s">
         <v>148</v>
@@ -16376,7 +16376,7 @@
       <c r="S124" s="25"/>
     </row>
     <row r="125" spans="1:44" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="208"/>
+      <c r="A125" s="201"/>
       <c r="B125" s="70"/>
       <c r="C125" s="9" t="s">
         <v>149</v>
@@ -16403,7 +16403,7 @@
       <c r="S125" s="25"/>
     </row>
     <row r="126" spans="1:44" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="208"/>
+      <c r="A126" s="201"/>
       <c r="B126" s="70"/>
       <c r="C126" s="9" t="s">
         <v>150</v>
@@ -16430,7 +16430,7 @@
       <c r="S126" s="25"/>
     </row>
     <row r="127" spans="1:44" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="208"/>
+      <c r="A127" s="201"/>
       <c r="B127" s="70" t="s">
         <v>96</v>
       </c>
@@ -16482,7 +16482,7 @@
       <c r="AR127" s="101"/>
     </row>
     <row r="128" spans="1:44" s="31" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="208"/>
+      <c r="A128" s="201"/>
       <c r="B128" s="70" t="s">
         <v>97</v>
       </c>
@@ -16536,7 +16536,7 @@
       <c r="AR128" s="101"/>
     </row>
     <row r="129" spans="1:47" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="208"/>
+      <c r="A129" s="201"/>
       <c r="B129" s="70" t="s">
         <v>98</v>
       </c>
@@ -16590,7 +16590,7 @@
       <c r="AR129" s="101"/>
     </row>
     <row r="130" spans="1:47" s="26" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="208"/>
+      <c r="A130" s="201"/>
       <c r="B130" s="70" t="s">
         <v>194</v>
       </c>
@@ -16640,7 +16640,7 @@
       <c r="AR130" s="106"/>
     </row>
     <row r="131" spans="1:47" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="208"/>
+      <c r="A131" s="201"/>
       <c r="B131" s="70" t="s">
         <v>99</v>
       </c>
@@ -16692,17 +16692,17 @@
       <c r="AR131" s="101"/>
     </row>
     <row r="132" spans="1:47" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="209"/>
-      <c r="B132" s="211" t="s">
+      <c r="A132" s="202"/>
+      <c r="B132" s="173" t="s">
         <v>100</v>
       </c>
       <c r="C132" s="47"/>
       <c r="D132" s="47"/>
-      <c r="E132" s="212"/>
+      <c r="E132" s="174"/>
       <c r="F132" s="143" t="s">
         <v>115</v>
       </c>
-      <c r="G132" s="220"/>
+      <c r="G132" s="179"/>
       <c r="H132" s="47"/>
       <c r="I132" s="47"/>
       <c r="J132" s="47"/>
@@ -16746,21 +16746,19 @@
       <c r="AR132" s="101"/>
     </row>
     <row r="133" spans="1:47" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="213" t="s">
+      <c r="A133" s="182" t="s">
         <v>195</v>
       </c>
-      <c r="B133" s="216" t="s">
+      <c r="B133" s="175" t="s">
         <v>196</v>
       </c>
       <c r="C133" s="152"/>
       <c r="D133" s="139"/>
       <c r="E133" s="149"/>
-      <c r="F133" s="195" t="s">
+      <c r="F133" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="G133" s="36" t="s">
-        <v>19</v>
-      </c>
+      <c r="G133" s="36"/>
       <c r="H133" s="139"/>
       <c r="I133" s="139"/>
       <c r="J133" s="139"/>
@@ -16769,7 +16767,9 @@
       <c r="M133" s="36"/>
       <c r="N133" s="36"/>
       <c r="O133" s="35"/>
-      <c r="P133" s="34"/>
+      <c r="P133" s="36" t="s">
+        <v>19</v>
+      </c>
       <c r="Q133" s="34"/>
       <c r="R133" s="140"/>
       <c r="S133" s="33"/>
@@ -16801,19 +16801,17 @@
       <c r="AU133" s="1"/>
     </row>
     <row r="134" spans="1:47" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="214"/>
-      <c r="B134" s="217" t="s">
+      <c r="A134" s="183"/>
+      <c r="B134" s="176" t="s">
         <v>197</v>
       </c>
       <c r="C134" s="151"/>
       <c r="D134" s="22"/>
       <c r="E134" s="150"/>
-      <c r="F134" s="195" t="s">
+      <c r="F134" s="171" t="s">
         <v>76</v>
       </c>
-      <c r="G134" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="G134" s="5"/>
       <c r="H134" s="22"/>
       <c r="I134" s="22"/>
       <c r="J134" s="22"/>
@@ -16822,7 +16820,9 @@
       <c r="M134" s="5"/>
       <c r="N134" s="5"/>
       <c r="O134" s="6"/>
-      <c r="P134" s="1"/>
+      <c r="P134" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q134" s="1"/>
       <c r="R134" s="54"/>
       <c r="S134" s="33"/>
@@ -16854,19 +16854,17 @@
       <c r="AU134" s="1"/>
     </row>
     <row r="135" spans="1:47" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="214"/>
-      <c r="B135" s="217" t="s">
+      <c r="A135" s="183"/>
+      <c r="B135" s="176" t="s">
         <v>198</v>
       </c>
       <c r="C135" s="151"/>
       <c r="D135" s="22"/>
       <c r="E135" s="150"/>
-      <c r="F135" s="195" t="s">
+      <c r="F135" s="171" t="s">
         <v>78</v>
       </c>
-      <c r="G135" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="G135" s="5"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -16875,7 +16873,9 @@
       <c r="M135" s="5"/>
       <c r="N135" s="5"/>
       <c r="O135" s="6"/>
-      <c r="P135" s="1"/>
+      <c r="P135" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q135" s="1"/>
       <c r="R135" s="54"/>
       <c r="S135" s="33"/>
@@ -16907,19 +16907,17 @@
       <c r="AU135" s="1"/>
     </row>
     <row r="136" spans="1:47" s="23" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="214"/>
-      <c r="B136" s="217" t="s">
+      <c r="A136" s="183"/>
+      <c r="B136" s="176" t="s">
         <v>199</v>
       </c>
       <c r="C136" s="151"/>
       <c r="D136" s="22"/>
       <c r="E136" s="150"/>
-      <c r="F136" s="195" t="s">
+      <c r="F136" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="G136" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="G136" s="5"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -16928,7 +16926,9 @@
       <c r="M136" s="5"/>
       <c r="N136" s="5"/>
       <c r="O136" s="6"/>
-      <c r="P136" s="1"/>
+      <c r="P136" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q136" s="1"/>
       <c r="R136" s="54"/>
       <c r="S136" s="33"/>
@@ -16960,17 +16960,15 @@
       <c r="AU136" s="1"/>
     </row>
     <row r="137" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A137" s="214"/>
-      <c r="B137" s="217" t="s">
+      <c r="A137" s="183"/>
+      <c r="B137" s="176" t="s">
         <v>200</v>
       </c>
       <c r="C137" s="153"/>
       <c r="D137" s="153"/>
       <c r="E137" s="71"/>
       <c r="F137" s="145"/>
-      <c r="G137" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="G137" s="5"/>
       <c r="H137" s="153"/>
       <c r="I137" s="153"/>
       <c r="J137" s="153"/>
@@ -16979,9 +16977,11 @@
       <c r="M137" s="153"/>
       <c r="N137" s="153"/>
       <c r="O137" s="153"/>
-      <c r="P137" s="153"/>
+      <c r="P137" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q137" s="153"/>
-      <c r="R137" s="221"/>
+      <c r="R137" s="180"/>
       <c r="S137" s="25"/>
       <c r="T137" s="101"/>
       <c r="U137" s="101"/>
@@ -17010,17 +17010,15 @@
       <c r="AR137" s="101"/>
     </row>
     <row r="138" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A138" s="214"/>
-      <c r="B138" s="217" t="s">
+      <c r="A138" s="183"/>
+      <c r="B138" s="176" t="s">
         <v>201</v>
       </c>
       <c r="C138" s="153"/>
       <c r="D138" s="153"/>
       <c r="E138" s="71"/>
       <c r="F138" s="145"/>
-      <c r="G138" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="G138" s="5"/>
       <c r="H138" s="153"/>
       <c r="I138" s="153"/>
       <c r="J138" s="153"/>
@@ -17029,9 +17027,11 @@
       <c r="M138" s="153"/>
       <c r="N138" s="153"/>
       <c r="O138" s="153"/>
-      <c r="P138" s="153"/>
+      <c r="P138" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q138" s="153"/>
-      <c r="R138" s="221"/>
+      <c r="R138" s="180"/>
       <c r="S138" s="25"/>
       <c r="T138" s="101"/>
       <c r="U138" s="101"/>
@@ -17060,17 +17060,15 @@
       <c r="AR138" s="101"/>
     </row>
     <row r="139" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A139" s="214"/>
-      <c r="B139" s="217" t="s">
+      <c r="A139" s="183"/>
+      <c r="B139" s="176" t="s">
         <v>202</v>
       </c>
       <c r="C139" s="153"/>
       <c r="D139" s="153"/>
       <c r="E139" s="71"/>
       <c r="F139" s="145"/>
-      <c r="G139" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="G139" s="5"/>
       <c r="H139" s="153"/>
       <c r="I139" s="153"/>
       <c r="J139" s="153"/>
@@ -17079,9 +17077,11 @@
       <c r="M139" s="153"/>
       <c r="N139" s="153"/>
       <c r="O139" s="153"/>
-      <c r="P139" s="153"/>
+      <c r="P139" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q139" s="153"/>
-      <c r="R139" s="221"/>
+      <c r="R139" s="180"/>
       <c r="S139" s="25"/>
       <c r="T139" s="101"/>
       <c r="U139" s="101"/>
@@ -17110,17 +17110,15 @@
       <c r="AR139" s="101"/>
     </row>
     <row r="140" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A140" s="214"/>
-      <c r="B140" s="218" t="s">
+      <c r="A140" s="183"/>
+      <c r="B140" s="177" t="s">
         <v>203</v>
       </c>
       <c r="C140" s="153"/>
       <c r="D140" s="153"/>
       <c r="E140" s="71"/>
       <c r="F140" s="145"/>
-      <c r="G140" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="G140" s="5"/>
       <c r="H140" s="153"/>
       <c r="I140" s="153"/>
       <c r="J140" s="153"/>
@@ -17129,9 +17127,11 @@
       <c r="M140" s="153"/>
       <c r="N140" s="153"/>
       <c r="O140" s="153"/>
-      <c r="P140" s="153"/>
+      <c r="P140" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q140" s="153"/>
-      <c r="R140" s="221"/>
+      <c r="R140" s="180"/>
       <c r="S140" s="25"/>
       <c r="T140" s="101"/>
       <c r="U140" s="101"/>
@@ -17160,17 +17160,15 @@
       <c r="AR140" s="101"/>
     </row>
     <row r="141" spans="1:47" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="214"/>
-      <c r="B141" s="217" t="s">
+      <c r="A141" s="183"/>
+      <c r="B141" s="176" t="s">
         <v>205</v>
       </c>
       <c r="C141" s="153"/>
       <c r="D141" s="153"/>
       <c r="E141" s="71"/>
       <c r="F141" s="145"/>
-      <c r="G141" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="G141" s="5"/>
       <c r="H141" s="153"/>
       <c r="I141" s="153"/>
       <c r="J141" s="153"/>
@@ -17179,9 +17177,11 @@
       <c r="M141" s="153"/>
       <c r="N141" s="153"/>
       <c r="O141" s="153"/>
-      <c r="P141" s="153"/>
+      <c r="P141" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q141" s="153"/>
-      <c r="R141" s="221"/>
+      <c r="R141" s="180"/>
       <c r="S141" s="25"/>
       <c r="T141" s="101"/>
       <c r="U141" s="101"/>
@@ -17210,17 +17210,15 @@
       <c r="AR141" s="101"/>
     </row>
     <row r="142" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A142" s="214"/>
-      <c r="B142" s="217" t="s">
+      <c r="A142" s="183"/>
+      <c r="B142" s="176" t="s">
         <v>204</v>
       </c>
       <c r="C142" s="153"/>
       <c r="D142" s="153"/>
       <c r="E142" s="71"/>
       <c r="F142" s="145"/>
-      <c r="G142" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="G142" s="5"/>
       <c r="H142" s="153"/>
       <c r="I142" s="153"/>
       <c r="J142" s="153"/>
@@ -17229,9 +17227,11 @@
       <c r="M142" s="153"/>
       <c r="N142" s="153"/>
       <c r="O142" s="153"/>
-      <c r="P142" s="153"/>
+      <c r="P142" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q142" s="153"/>
-      <c r="R142" s="221"/>
+      <c r="R142" s="180"/>
       <c r="S142" s="25"/>
       <c r="T142" s="101"/>
       <c r="U142" s="101"/>
@@ -17260,17 +17260,15 @@
       <c r="AR142" s="101"/>
     </row>
     <row r="143" spans="1:47" ht="30" x14ac:dyDescent="0.25">
-      <c r="A143" s="214"/>
-      <c r="B143" s="217" t="s">
+      <c r="A143" s="183"/>
+      <c r="B143" s="176" t="s">
         <v>206</v>
       </c>
       <c r="C143" s="153"/>
       <c r="D143" s="153"/>
       <c r="E143" s="71"/>
       <c r="F143" s="145"/>
-      <c r="G143" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="G143" s="5"/>
       <c r="H143" s="153"/>
       <c r="I143" s="153"/>
       <c r="J143" s="153"/>
@@ -17279,9 +17277,11 @@
       <c r="M143" s="153"/>
       <c r="N143" s="153"/>
       <c r="O143" s="153"/>
-      <c r="P143" s="153"/>
+      <c r="P143" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q143" s="153"/>
-      <c r="R143" s="221"/>
+      <c r="R143" s="180"/>
       <c r="S143" s="25"/>
       <c r="T143" s="101"/>
       <c r="U143" s="101"/>
@@ -17310,17 +17310,15 @@
       <c r="AR143" s="101"/>
     </row>
     <row r="144" spans="1:47" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="215"/>
-      <c r="B144" s="219" t="s">
+      <c r="A144" s="184"/>
+      <c r="B144" s="178" t="s">
         <v>207</v>
       </c>
       <c r="C144" s="154"/>
       <c r="D144" s="154"/>
       <c r="E144" s="72"/>
       <c r="F144" s="145"/>
-      <c r="G144" s="170" t="s">
-        <v>19</v>
-      </c>
+      <c r="G144" s="170"/>
       <c r="H144" s="154"/>
       <c r="I144" s="154"/>
       <c r="J144" s="154"/>
@@ -17329,9 +17327,11 @@
       <c r="M144" s="154"/>
       <c r="N144" s="154"/>
       <c r="O144" s="154"/>
-      <c r="P144" s="154"/>
+      <c r="P144" s="170" t="s">
+        <v>19</v>
+      </c>
       <c r="Q144" s="154"/>
-      <c r="R144" s="222"/>
+      <c r="R144" s="181"/>
       <c r="S144" s="25"/>
       <c r="T144" s="101"/>
       <c r="U144" s="101"/>
@@ -17993,32 +17993,32 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A133:A144"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="E55:E58"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C67"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C55:C58"/>
-    <mergeCell ref="A107:A132"/>
     <mergeCell ref="P1:R1"/>
     <mergeCell ref="A55:A77"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A78:A102"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A14:A54"/>
     <mergeCell ref="G1:O1"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="B103:B106"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="C76:C77"/>
     <mergeCell ref="C72:C74"/>
+    <mergeCell ref="E55:E58"/>
+    <mergeCell ref="C59:C61"/>
+    <mergeCell ref="C62:C67"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C55:C58"/>
+    <mergeCell ref="A133:A144"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="A107:A132"/>
+    <mergeCell ref="A78:A102"/>
+    <mergeCell ref="B103:B106"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F103:F106" r:id="rId1" location="2932-manual-adjudication-decision-service" display="POST /registration-processor/manual-adjudication/assignment" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -18053,12 +18053,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
+    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </LikedBy>
+    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
+    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
+    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </RatedBy>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18269,35 +18286,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <LikesCount xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ProjectIGName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectIGName>
-    <Ratings xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <LikedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </LikedBy>
-    <ProjectAccountName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">Mindtree</ProjectAccountName>
-    <ProjectName xmlns="fd9ad297-cc8c-4afc-b828-e13c9647a5fa">MOSIP</ProjectName>
-    <RatedBy xmlns="http://schemas.microsoft.com/sharepoint/v3">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </RatedBy>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85E73B9D-1766-405A-9B26-47DF7884A997}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B443FFFF-5AD5-4D1A-BEBD-F002358985A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18322,12 +18325,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B443FFFF-5AD5-4D1A-BEBD-F002358985A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{85E73B9D-1766-405A-9B26-47DF7884A997}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="fd9ad297-cc8c-4afc-b828-e13c9647a5fa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>